--- a/Listado Materiales Medidor Caudal LoRaWAN.xlsx
+++ b/Listado Materiales Medidor Caudal LoRaWAN.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF16C0-4808-49B9-8DBC-0A9FE129578E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29936438-482B-492E-BF71-63B07560B115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armado Placa" sheetId="3" r:id="rId1"/>
     <sheet name="Armado Gabinete" sheetId="4" r:id="rId2"/>
     <sheet name="Consumo" sheetId="6" r:id="rId3"/>
     <sheet name="Montaje" sheetId="7" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="8" r:id="rId5"/>
+    <sheet name="Otros costos" sheetId="8" r:id="rId5"/>
     <sheet name="Resumen" sheetId="11" r:id="rId6"/>
     <sheet name="Otros Ingresos" sheetId="17" r:id="rId7"/>
     <sheet name="Inversión Inicial" sheetId="12" r:id="rId8"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="292">
   <si>
     <t>Materiales</t>
   </si>
@@ -470,15 +470,6 @@
     <t>Jumaled</t>
   </si>
   <si>
-    <t>Prensacables 1/2" NPT RECTO</t>
-  </si>
-  <si>
-    <t>Caja paso rectangular 1/2"</t>
-  </si>
-  <si>
-    <t>Caja paso redonda 3/4"</t>
-  </si>
-  <si>
     <t>1/2"</t>
   </si>
   <si>
@@ -488,45 +479,15 @@
     <t>8x4</t>
   </si>
   <si>
-    <t>7mmDx40mmL</t>
-  </si>
-  <si>
-    <t>Tarugo MET 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cable mallado </t>
-  </si>
-  <si>
     <t>2x0.5mm</t>
   </si>
   <si>
     <t>Tubo termocontraible</t>
   </si>
   <si>
-    <t>Caño acero flexible agrafado</t>
-  </si>
-  <si>
-    <t>Tuerca luz 1/2"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuerca luz 3/4" </t>
-  </si>
-  <si>
-    <t>NPT modular</t>
-  </si>
-  <si>
-    <t>Caño hierro negro 3"x 2mts y tapa superior caño espesor 2,1mm</t>
-  </si>
-  <si>
-    <t>Electrodos</t>
-  </si>
-  <si>
     <t>Por kg</t>
   </si>
   <si>
-    <t>Planchuela para base</t>
-  </si>
-  <si>
     <t>30x30x1/4"</t>
   </si>
   <si>
@@ -809,7 +770,166 @@
     <t>Dia viajado (personas)</t>
   </si>
   <si>
-    <t>Instalación  y PM (personas)</t>
+    <t>Caño hierro negro 3"x 2.5mts y tapa superior caño espesor 2,1mm</t>
+  </si>
+  <si>
+    <t>Planchuela cuadrada de hierro para base</t>
+  </si>
+  <si>
+    <t>En metros x 0.25</t>
+  </si>
+  <si>
+    <t>1/2" NPT RECTO</t>
+  </si>
+  <si>
+    <t>Prensacaño para caja de paso redonda</t>
+  </si>
+  <si>
+    <t>3/4" NPT RECTO</t>
+  </si>
+  <si>
+    <t>Prensacaño para caja rectangular</t>
+  </si>
+  <si>
+    <t>Caja paso rectangular a rosca</t>
+  </si>
+  <si>
+    <t>Caja paso redonda de paso o empalme</t>
+  </si>
+  <si>
+    <t>Broca SDS de anclaje de expansión p/anclaje en hormigón</t>
+  </si>
+  <si>
+    <t>Cable mallado para señales</t>
+  </si>
+  <si>
+    <t>Prensable recto</t>
+  </si>
+  <si>
+    <t>Bulon de acero</t>
+  </si>
+  <si>
+    <t>1/2 x 3/4</t>
+  </si>
+  <si>
+    <t>Caño flexible corrugado</t>
+  </si>
+  <si>
+    <t>Tuerca luz 1/2" p/ caja redonda</t>
+  </si>
+  <si>
+    <t>Tuerca luz 3/4" p/ caja redonda</t>
+  </si>
+  <si>
+    <t>NPT nodular</t>
+  </si>
+  <si>
+    <t>Arandela plana</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Escuadra</t>
+  </si>
+  <si>
+    <t>10x10x1/4"</t>
+  </si>
+  <si>
+    <t>HIMAQ</t>
+  </si>
+  <si>
+    <t>Casa Manito</t>
+  </si>
+  <si>
+    <t>Electrodos 2.5mm Punta azul</t>
+  </si>
+  <si>
+    <t>500x25</t>
+  </si>
+  <si>
+    <t>Horas de soldado y armado de mastil</t>
+  </si>
+  <si>
+    <t>223.37 + 0.8% Seguro declarado</t>
+  </si>
+  <si>
+    <t>1h/kit</t>
+  </si>
+  <si>
+    <t>1h/sitio</t>
+  </si>
+  <si>
+    <t>6h/sitio</t>
+  </si>
+  <si>
+    <t>21.25 (Medio tanque por sitio)</t>
+  </si>
+  <si>
+    <t>2h/total</t>
+  </si>
+  <si>
+    <t>Instalación  y PM (2xpersonas)</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Dal Poggetto e Hijos</t>
+  </si>
+  <si>
+    <t>10.27 + 9.42</t>
+  </si>
+  <si>
+    <t>Lucho</t>
+  </si>
+  <si>
+    <t>Damian</t>
+  </si>
+  <si>
+    <t>Adrián</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Acá se pueden agregar horas si no da</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Octubre</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1271,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1259,6 +1379,12 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1317,7 +1443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> ING-EGRESOS </c:v>
+                  <c:v>ING-EGRESOS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,7 +1464,7 @@
             <c:numRef>
               <c:f>[1]Auxiliar!$D$5:$D$64</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1560,7 +1686,7 @@
             <c:numRef>
               <c:f>[1]Auxiliar!$E$5:$E$64</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1781,7 +1907,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v> INGRESOS ACUMULADOS </c:v>
+                        <c:v>INGRESOS ACUMULADOS</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1808,7 +1934,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="60"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
@@ -2017,7 +2143,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v> EGRESOS ACUMULADOS </c:v>
+                        <c:v>EGRESOS ACUMULADOS</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2044,7 +2170,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="60"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
@@ -2311,7 +2437,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3043,6 +3169,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="H2"/>
+        </row>
+        <row r="5">
+          <cell r="H5"/>
+        </row>
         <row r="11">
           <cell r="F11">
             <v>1.4580000000000001E-3</v>
@@ -4710,7 +4842,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5849,30 +5981,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F4" s="75" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -5899,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -5926,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -5953,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -7340,7 +7472,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="76" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E66" s="35"/>
       <c r="G66" s="78">
@@ -7371,29 +7503,29 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="81" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B6" s="77">
         <f>SUM([1]Resumen!F17:F28)</f>
@@ -7418,7 +7550,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B7" s="77">
         <f>SUM([1]Resumen!H17:H28)</f>
@@ -7426,7 +7558,7 @@
       </c>
       <c r="C7" s="77">
         <f>SUM(Resumen!H29:H40)</f>
-        <v>16069.517000000002</v>
+        <v>55515.820826999989</v>
       </c>
       <c r="D7" s="77">
         <f>SUM(Resumen!H41:H52)</f>
@@ -7451,7 +7583,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B9" s="77">
         <f>+B6-B7</f>
@@ -7459,7 +7591,7 @@
       </c>
       <c r="C9" s="77">
         <f>+C6-C7</f>
-        <v>83034.382999999987</v>
+        <v>43588.079173000006</v>
       </c>
       <c r="D9" s="77">
         <f>+D6-D7</f>
@@ -7484,7 +7616,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="82" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B11" s="83">
         <f>IF(B9&gt;0,B9*TasaImpuestos,0)</f>
@@ -7492,7 +7624,7 @@
       </c>
       <c r="C11" s="83">
         <f>IF(C9&gt;0,C9*0.35,0)</f>
-        <v>29062.034049999995</v>
+        <v>15255.82771055</v>
       </c>
       <c r="D11" s="83">
         <f>IF(D9&gt;0,D9*0.35,0)</f>
@@ -7535,12 +7667,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I2" s="84">
         <f>[1]Resumen!F11</f>
@@ -7548,7 +7680,7 @@
       </c>
       <c r="J2" s="59">
         <f>NPV(I2,I6:I40)+I5</f>
-        <v>1695918.4624920816</v>
+        <v>389110.48894480098</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7569,13 +7701,13 @@
         <v>ING-EGRESOS</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -7593,11 +7725,11 @@
       </c>
       <c r="D5" s="77">
         <f>Resumen!L17</f>
-        <v>0</v>
+        <v>-1269.6288</v>
       </c>
       <c r="E5" s="36">
         <f>+Resumen!S17</f>
-        <v>0</v>
+        <v>-1269.6288</v>
       </c>
       <c r="H5" s="86">
         <f>+A5</f>
@@ -7605,7 +7737,7 @@
       </c>
       <c r="I5" s="36">
         <f>+Resumen!L17</f>
-        <v>0</v>
+        <v>-1269.6288</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -7623,11 +7755,11 @@
       </c>
       <c r="D6" s="77">
         <f>Resumen!L18</f>
-        <v>0</v>
+        <v>-3477.4187999999999</v>
       </c>
       <c r="E6" s="36">
         <f>+Resumen!S18</f>
-        <v>0</v>
+        <v>-3474.2045285877193</v>
       </c>
       <c r="H6" s="86">
         <f t="shared" ref="H6:H64" si="0">+A6</f>
@@ -7635,7 +7767,7 @@
       </c>
       <c r="I6" s="36">
         <f>+Resumen!L18</f>
-        <v>0</v>
+        <v>-3477.4187999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -7653,11 +7785,11 @@
       </c>
       <c r="D7" s="77">
         <f>Resumen!L19</f>
-        <v>0</v>
+        <v>-5956.9778269999997</v>
       </c>
       <c r="E7" s="36">
         <f>+Resumen!S19</f>
-        <v>0</v>
+        <v>-5946.5489436526368</v>
       </c>
       <c r="H7" s="86">
         <f t="shared" si="0"/>
@@ -7665,7 +7797,7 @@
       </c>
       <c r="I7" s="36">
         <f>+Resumen!L19</f>
-        <v>0</v>
+        <v>-5956.9778269999997</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -7683,11 +7815,11 @@
       </c>
       <c r="D8" s="77">
         <f>Resumen!L20</f>
-        <v>0</v>
+        <v>-7658.4378269999997</v>
       </c>
       <c r="E8" s="36">
         <f>+Resumen!S20</f>
-        <v>0</v>
+        <v>-7640.5884064077873</v>
       </c>
       <c r="H8" s="86">
         <f t="shared" si="0"/>
@@ -7695,7 +7827,7 @@
       </c>
       <c r="I8" s="36">
         <f>+Resumen!L20</f>
-        <v>0</v>
+        <v>-7658.4378269999997</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -7713,11 +7845,11 @@
       </c>
       <c r="D9" s="77">
         <f>Resumen!L21</f>
-        <v>0</v>
+        <v>-9753.7678269999997</v>
       </c>
       <c r="E9" s="36">
         <f>+Resumen!S21</f>
-        <v>0</v>
+        <v>-9723.7428540654328</v>
       </c>
       <c r="H9" s="86">
         <f t="shared" si="0"/>
@@ -7725,7 +7857,7 @@
       </c>
       <c r="I9" s="36">
         <f>+Resumen!L21</f>
-        <v>0</v>
+        <v>-9753.7678269999997</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -7739,15 +7871,15 @@
       </c>
       <c r="C10" s="77">
         <f>-Resumen!K22</f>
-        <v>-3274.1000000000004</v>
+        <v>-14050.187827</v>
       </c>
       <c r="D10" s="77">
         <f>Resumen!L22</f>
-        <v>-3274.1000000000004</v>
+        <v>-14050.187827</v>
       </c>
       <c r="E10" s="36">
         <f>+Resumen!S22</f>
-        <v>-3250.3358563246838</v>
+        <v>-13988.978485179479</v>
       </c>
       <c r="H10" s="86">
         <f t="shared" si="0"/>
@@ -7755,7 +7887,7 @@
       </c>
       <c r="I10" s="36">
         <f>+Resumen!L22</f>
-        <v>-3274.1000000000004</v>
+        <v>-14050.187827</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -7769,15 +7901,15 @@
       </c>
       <c r="C11" s="77">
         <f>-Resumen!K23</f>
-        <v>-3274.1000000000004</v>
+        <v>-15295.197827</v>
       </c>
       <c r="D11" s="77">
         <f>Resumen!L23</f>
-        <v>-3274.1000000000004</v>
+        <v>-15295.197827</v>
       </c>
       <c r="E11" s="36">
         <f>+Resumen!S23</f>
-        <v>-3250.3358563246838</v>
+        <v>-15223.152500863102</v>
       </c>
       <c r="H11" s="86">
         <f t="shared" si="0"/>
@@ -7785,7 +7917,7 @@
       </c>
       <c r="I11" s="36">
         <f>+Resumen!L23</f>
-        <v>-3274.1000000000004</v>
+        <v>-15295.197827</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -7799,15 +7931,15 @@
       </c>
       <c r="C12" s="77">
         <f>-Resumen!K24</f>
-        <v>-3274.1000000000004</v>
+        <v>-17225.607827</v>
       </c>
       <c r="D12" s="77">
         <f>Resumen!L24</f>
-        <v>-3274.1000000000004</v>
+        <v>-17225.607827</v>
       </c>
       <c r="E12" s="36">
         <f>+Resumen!S24</f>
-        <v>-3250.3358563246838</v>
+        <v>-17133.975136343841</v>
       </c>
       <c r="H12" s="86">
         <f t="shared" si="0"/>
@@ -7815,7 +7947,7 @@
       </c>
       <c r="I12" s="36">
         <f>+Resumen!L24</f>
-        <v>-3274.1000000000004</v>
+        <v>-17225.607827</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -7829,15 +7961,15 @@
       </c>
       <c r="C13" s="77">
         <f>-Resumen!K25</f>
-        <v>-3274.1000000000004</v>
+        <v>-19616.377827</v>
       </c>
       <c r="D13" s="77">
         <f>Resumen!L25</f>
-        <v>-3274.1000000000004</v>
+        <v>-19616.377827</v>
       </c>
       <c r="E13" s="36">
         <f>+Resumen!S25</f>
-        <v>-3250.3358563246838</v>
+        <v>-19497.041269093377</v>
       </c>
       <c r="H13" s="86">
         <f t="shared" si="0"/>
@@ -7845,7 +7977,7 @@
       </c>
       <c r="I13" s="36">
         <f>+Resumen!L25</f>
-        <v>-3274.1000000000004</v>
+        <v>-19616.377827</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -7859,15 +7991,15 @@
       </c>
       <c r="C14" s="77">
         <f>-Resumen!K26</f>
-        <v>-3274.1000000000004</v>
+        <v>-22105.717827</v>
       </c>
       <c r="D14" s="77">
         <f>Resumen!L26</f>
-        <v>-3274.1000000000004</v>
+        <v>-22105.717827</v>
       </c>
       <c r="E14" s="36">
         <f>+Resumen!S26</f>
-        <v>-3250.3358563246838</v>
+        <v>-21953.953010845471</v>
       </c>
       <c r="H14" s="86">
         <f t="shared" si="0"/>
@@ -7875,7 +8007,7 @@
       </c>
       <c r="I14" s="36">
         <f>+Resumen!L26</f>
-        <v>-3274.1000000000004</v>
+        <v>-22105.717827</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -7889,15 +8021,15 @@
       </c>
       <c r="C15" s="77">
         <f>-Resumen!K27</f>
-        <v>-3274.1000000000004</v>
+        <v>-23710.937827000002</v>
       </c>
       <c r="D15" s="77">
         <f>Resumen!L27</f>
-        <v>-3274.1000000000004</v>
+        <v>-23710.937827000002</v>
       </c>
       <c r="E15" s="36">
         <f>+Resumen!S27</f>
-        <v>-3250.3358563246838</v>
+        <v>-23535.955491414268</v>
       </c>
       <c r="H15" s="86">
         <f t="shared" si="0"/>
@@ -7905,7 +8037,7 @@
       </c>
       <c r="I15" s="36">
         <f>+Resumen!L27</f>
-        <v>-3274.1000000000004</v>
+        <v>-23710.937827000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -7919,15 +8051,15 @@
       </c>
       <c r="C16" s="77">
         <f>-Resumen!K28</f>
-        <v>-9822.3000000000011</v>
+        <v>-31918.247827000003</v>
       </c>
       <c r="D16" s="77">
         <f>Resumen!L28</f>
-        <v>-9822.3000000000011</v>
+        <v>-31918.247827000003</v>
       </c>
       <c r="E16" s="36">
         <f>+Resumen!S28</f>
-        <v>-9694.4287650092774</v>
+        <v>-31612.780904562333</v>
       </c>
       <c r="H16" s="86">
         <f t="shared" si="0"/>
@@ -7935,7 +8067,7 @@
       </c>
       <c r="I16" s="36">
         <f>+Resumen!L28</f>
-        <v>-9822.3000000000011</v>
+        <v>-31918.247827000003</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -7949,15 +8081,15 @@
       </c>
       <c r="C17" s="77">
         <f>-Resumen!K29</f>
-        <v>-9822.3000000000011</v>
+        <v>-33944.547827000002</v>
       </c>
       <c r="D17" s="77">
         <f>Resumen!L29</f>
-        <v>-9822.3000000000011</v>
+        <v>-33944.547827000002</v>
       </c>
       <c r="E17" s="36">
         <f>+Resumen!S29</f>
-        <v>-9694.4287650092774</v>
+        <v>-33603.962466171521</v>
       </c>
       <c r="H17" s="86">
         <f t="shared" si="0"/>
@@ -7965,7 +8097,7 @@
       </c>
       <c r="I17" s="36">
         <f>+Resumen!L29</f>
-        <v>-9822.3000000000011</v>
+        <v>-33944.547827000002</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -7979,15 +8111,15 @@
       </c>
       <c r="C18" s="77">
         <f>-Resumen!K30</f>
-        <v>-9822.3000000000011</v>
+        <v>-35216.925826999999</v>
       </c>
       <c r="D18" s="77">
         <f>Resumen!L30</f>
-        <v>-9822.3000000000011</v>
+        <v>-35216.925826999999</v>
       </c>
       <c r="E18" s="36">
         <f>+Resumen!S30</f>
-        <v>-9694.4287650092774</v>
+        <v>-34852.468164207996</v>
       </c>
       <c r="H18" s="86">
         <f t="shared" si="0"/>
@@ -7995,7 +8127,7 @@
       </c>
       <c r="I18" s="36">
         <f>+Resumen!L30</f>
-        <v>-9822.3000000000011</v>
+        <v>-35216.925826999999</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8009,15 +8141,15 @@
       </c>
       <c r="C19" s="77">
         <f>-Resumen!K31</f>
-        <v>-9822.3000000000011</v>
+        <v>-36561.905827000002</v>
       </c>
       <c r="D19" s="77">
         <f>Resumen!L31</f>
-        <v>-9822.3000000000011</v>
+        <v>-36561.905827000002</v>
       </c>
       <c r="E19" s="36">
         <f>+Resumen!S31</f>
-        <v>-9694.4287650092774</v>
+        <v>-36170.292318988177</v>
       </c>
       <c r="H19" s="86">
         <f t="shared" si="0"/>
@@ -8025,7 +8157,7 @@
       </c>
       <c r="I19" s="36">
         <f>+Resumen!L31</f>
-        <v>-9822.3000000000011</v>
+        <v>-36561.905827000002</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -8039,15 +8171,15 @@
       </c>
       <c r="C20" s="77">
         <f>-Resumen!K32</f>
-        <v>-9822.3000000000011</v>
+        <v>-38008.805827000004</v>
       </c>
       <c r="D20" s="77">
         <f>Resumen!L32</f>
-        <v>-9822.3000000000011</v>
+        <v>-38008.805827000004</v>
       </c>
       <c r="E20" s="36">
         <f>+Resumen!S32</f>
-        <v>-9694.4287650092774</v>
+        <v>-37585.91467859767</v>
       </c>
       <c r="H20" s="86">
         <f t="shared" si="0"/>
@@ -8055,7 +8187,7 @@
       </c>
       <c r="I20" s="36">
         <f>+Resumen!L32</f>
-        <v>-9822.3000000000011</v>
+        <v>-38008.805827000004</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -8069,15 +8201,15 @@
       </c>
       <c r="C21" s="77">
         <f>-Resumen!K33</f>
-        <v>-9822.3000000000011</v>
+        <v>-38848.605827000007</v>
       </c>
       <c r="D21" s="77">
         <f>Resumen!L33</f>
-        <v>-9822.3000000000011</v>
+        <v>-38848.605827000007</v>
       </c>
       <c r="E21" s="36">
         <f>+Resumen!S33</f>
-        <v>-9694.4287650092774</v>
+        <v>-38406.364504357938</v>
       </c>
       <c r="H21" s="86">
         <f t="shared" si="0"/>
@@ -8085,7 +8217,7 @@
       </c>
       <c r="I21" s="36">
         <f>+Resumen!L33</f>
-        <v>-9822.3000000000011</v>
+        <v>-38848.605827000007</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -8099,15 +8231,15 @@
       </c>
       <c r="C22" s="77">
         <f>-Resumen!K34</f>
-        <v>-16370.500000000002</v>
+        <v>-46166.40582700001</v>
       </c>
       <c r="D22" s="77">
         <f>Resumen!L34</f>
-        <v>-16370.500000000002</v>
+        <v>-46166.40582700001</v>
       </c>
       <c r="E22" s="36">
         <f>+Resumen!S34</f>
-        <v>-16082.435305157247</v>
+        <v>-45545.143750485855</v>
       </c>
       <c r="H22" s="86">
         <f t="shared" si="0"/>
@@ -8115,7 +8247,7 @@
       </c>
       <c r="I22" s="36">
         <f>+Resumen!L34</f>
-        <v>-16370.500000000002</v>
+        <v>-46166.40582700001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -8129,15 +8261,15 @@
       </c>
       <c r="C23" s="77">
         <f>-Resumen!K35</f>
-        <v>-16370.500000000002</v>
+        <v>-47141.625827000011</v>
       </c>
       <c r="D23" s="77">
         <f>Resumen!L35</f>
-        <v>-16370.500000000002</v>
+        <v>-47141.625827000011</v>
       </c>
       <c r="E23" s="36">
         <f>+Resumen!S35</f>
-        <v>-16082.435305157247</v>
+        <v>-46495.121155266694</v>
       </c>
       <c r="H23" s="86">
         <f t="shared" si="0"/>
@@ -8145,7 +8277,7 @@
       </c>
       <c r="I23" s="36">
         <f>+Resumen!L35</f>
-        <v>-16370.500000000002</v>
+        <v>-47141.625827000011</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -8159,15 +8291,15 @@
       </c>
       <c r="C24" s="77">
         <f>-Resumen!K36</f>
-        <v>-17644.693000000003</v>
+        <v>-48415.81882700001</v>
       </c>
       <c r="D24" s="77">
         <f>Resumen!L36</f>
-        <v>24828.406999999996</v>
+        <v>-5942.7188270000115</v>
       </c>
       <c r="E24" s="36">
         <f>+Resumen!S36</f>
-        <v>23991.65113679595</v>
+        <v>-6421.0347133134928</v>
       </c>
       <c r="H24" s="86">
         <f t="shared" si="0"/>
@@ -8175,7 +8307,7 @@
       </c>
       <c r="I24" s="36">
         <f>+Resumen!L36</f>
-        <v>24828.406999999996</v>
+        <v>-5942.7188270000115</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -8189,15 +8321,15 @@
       </c>
       <c r="C25" s="77">
         <f>-Resumen!K37</f>
-        <v>-18494.155000000002</v>
+        <v>-80036.406654000006</v>
       </c>
       <c r="D25" s="77">
         <f>Resumen!L37</f>
-        <v>52294.345000000001</v>
+        <v>-9247.9066540000058</v>
       </c>
       <c r="E25" s="36">
         <f>+Resumen!S37</f>
-        <v>50668.813462094462</v>
+        <v>-9631.3030892371462</v>
       </c>
       <c r="H25" s="86">
         <f t="shared" si="0"/>
@@ -8205,7 +8337,7 @@
       </c>
       <c r="I25" s="36">
         <f>+Resumen!L37</f>
-        <v>52294.345000000001</v>
+        <v>-9247.9066540000058</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -8219,15 +8351,15 @@
       </c>
       <c r="C26" s="77">
         <f>-Resumen!K38</f>
-        <v>-18918.886000000002</v>
+        <v>-80461.137654000006</v>
       </c>
       <c r="D26" s="77">
         <f>Resumen!L38</f>
-        <v>66027.313999999998</v>
+        <v>4485.0623459999915</v>
       </c>
       <c r="E26" s="36">
         <f>+Resumen!S38</f>
-        <v>63987.97528680331</v>
+        <v>3687.8587354717019</v>
       </c>
       <c r="H26" s="86">
         <f t="shared" si="0"/>
@@ -8235,7 +8367,7 @@
       </c>
       <c r="I26" s="36">
         <f>+Resumen!L38</f>
-        <v>66027.313999999998</v>
+        <v>4485.0623459999915</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -8249,15 +8381,15 @@
       </c>
       <c r="C27" s="77">
         <f>-Resumen!K39</f>
-        <v>-19343.617000000002</v>
+        <v>-80885.868654000005</v>
       </c>
       <c r="D27" s="77">
         <f>Resumen!L39</f>
-        <v>79760.282999999996</v>
+        <v>18218.031345999989</v>
       </c>
       <c r="E27" s="36">
         <f>+Resumen!S39</f>
-        <v>77287.746045745604</v>
+        <v>16987.629494413995</v>
       </c>
       <c r="H27" s="86">
         <f t="shared" si="0"/>
@@ -8265,7 +8397,7 @@
       </c>
       <c r="I27" s="36">
         <f>+Resumen!L39</f>
-        <v>79760.282999999996</v>
+        <v>18218.031345999989</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -8279,15 +8411,15 @@
       </c>
       <c r="C28" s="77">
         <f>-Resumen!K40</f>
-        <v>-54953.851049999997</v>
+        <v>-116496.10270399999</v>
       </c>
       <c r="D28" s="77">
         <f>Resumen!L40</f>
-        <v>44150.048949999997</v>
+        <v>-17392.202703999996</v>
       </c>
       <c r="E28" s="36">
         <f>+Resumen!S40</f>
-        <v>42851.024135149361</v>
+        <v>-17449.092416182248</v>
       </c>
       <c r="H28" s="86">
         <f t="shared" si="0"/>
@@ -8295,7 +8427,7 @@
       </c>
       <c r="I28" s="36">
         <f>+Resumen!L40</f>
-        <v>44150.048949999997</v>
+        <v>-17392.202703999996</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -8309,15 +8441,15 @@
       </c>
       <c r="C29" s="77">
         <f>-Resumen!K41</f>
-        <v>-54953.851049999997</v>
+        <v>-116496.10270399999</v>
       </c>
       <c r="D29" s="77">
         <f>Resumen!L41</f>
-        <v>44150.048949999997</v>
+        <v>-17392.202703999996</v>
       </c>
       <c r="E29" s="36">
         <f>+Resumen!S41</f>
-        <v>42851.024135149361</v>
+        <v>-17449.092416182248</v>
       </c>
       <c r="H29" s="86">
         <f t="shared" si="0"/>
@@ -8325,7 +8457,7 @@
       </c>
       <c r="I29" s="36">
         <f>+Resumen!L41</f>
-        <v>44150.048949999997</v>
+        <v>-17392.202703999996</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -8339,15 +8471,15 @@
       </c>
       <c r="C30" s="77">
         <f>-Resumen!K42</f>
-        <v>-56652.775049999997</v>
+        <v>-118195.02670399999</v>
       </c>
       <c r="D30" s="77">
         <f>Resumen!L42</f>
-        <v>99081.924950000015</v>
+        <v>37539.673296000023</v>
       </c>
       <c r="E30" s="36">
         <f>+Resumen!S42</f>
-        <v>95818.091268658871</v>
+        <v>35517.974717327277</v>
       </c>
       <c r="H30" s="86">
         <f t="shared" si="0"/>
@@ -8355,7 +8487,7 @@
       </c>
       <c r="I30" s="36">
         <f>+Resumen!L42</f>
-        <v>99081.924950000015</v>
+        <v>37539.673296000023</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -8369,15 +8501,15 @@
       </c>
       <c r="C31" s="77">
         <f>-Resumen!K43</f>
-        <v>-57077.506049999996</v>
+        <v>-118619.75770399999</v>
       </c>
       <c r="D31" s="77">
         <f>Resumen!L43</f>
-        <v>112814.89395000003</v>
+        <v>51272.642296000035</v>
       </c>
       <c r="E31" s="36">
         <f>+Resumen!S43</f>
-        <v>109040.57966395593</v>
+        <v>48740.463112624318</v>
       </c>
       <c r="H31" s="86">
         <f t="shared" si="0"/>
@@ -8385,7 +8517,7 @@
       </c>
       <c r="I31" s="36">
         <f>+Resumen!L43</f>
-        <v>112814.89395000003</v>
+        <v>51272.642296000035</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -8399,15 +8531,15 @@
       </c>
       <c r="C32" s="77">
         <f>-Resumen!K44</f>
-        <v>-57502.237049999996</v>
+        <v>-119044.48870399999</v>
       </c>
       <c r="D32" s="77">
         <f>Resumen!L44</f>
-        <v>126547.86295000004</v>
+        <v>65005.611296000046</v>
       </c>
       <c r="E32" s="36">
         <f>+Resumen!S44</f>
-        <v>122243.81773814079</v>
+        <v>61943.701186809179</v>
       </c>
       <c r="H32" s="86">
         <f t="shared" si="0"/>
@@ -8415,7 +8547,7 @@
       </c>
       <c r="I32" s="36">
         <f>+Resumen!L44</f>
-        <v>126547.86295000004</v>
+        <v>65005.611296000046</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -8429,15 +8561,15 @@
       </c>
       <c r="C33" s="77">
         <f>-Resumen!K45</f>
-        <v>-57926.968049999996</v>
+        <v>-119469.21970399999</v>
       </c>
       <c r="D33" s="77">
         <f>Resumen!L45</f>
-        <v>140280.83195000005</v>
+        <v>78738.580296000058</v>
       </c>
       <c r="E33" s="36">
         <f>+Resumen!S45</f>
-        <v>135427.83351731964</v>
+        <v>75127.716965988016</v>
       </c>
       <c r="H33" s="86">
         <f t="shared" si="0"/>
@@ -8445,7 +8577,7 @@
       </c>
       <c r="I33" s="36">
         <f>+Resumen!L45</f>
-        <v>140280.83195000005</v>
+        <v>78738.580296000058</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -8459,15 +8591,15 @@
       </c>
       <c r="C34" s="77">
         <f>-Resumen!K46</f>
-        <v>-67749.268049999999</v>
+        <v>-129291.51970399999</v>
       </c>
       <c r="D34" s="77">
         <f>Resumen!L46</f>
-        <v>130458.53195000005</v>
+        <v>68916.280296000055</v>
       </c>
       <c r="E34" s="36">
         <f>+Resumen!S46</f>
-        <v>126011.89251289172</v>
+        <v>65711.775961560095</v>
       </c>
       <c r="H34" s="86">
         <f t="shared" si="0"/>
@@ -8475,7 +8607,7 @@
       </c>
       <c r="I34" s="36">
         <f>+Resumen!L46</f>
-        <v>130458.53195000005</v>
+        <v>68916.280296000055</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -8489,15 +8621,15 @@
       </c>
       <c r="C35" s="77">
         <f>-Resumen!K47</f>
-        <v>-67749.268049999999</v>
+        <v>-129291.51970399999</v>
       </c>
       <c r="D35" s="77">
         <f>Resumen!L47</f>
-        <v>130458.53195000005</v>
+        <v>68916.280296000055</v>
       </c>
       <c r="E35" s="36">
         <f>+Resumen!S47</f>
-        <v>126011.89251289172</v>
+        <v>65711.775961560095</v>
       </c>
       <c r="H35" s="86">
         <f t="shared" si="0"/>
@@ -8505,7 +8637,7 @@
       </c>
       <c r="I35" s="36">
         <f>+Resumen!L47</f>
-        <v>130458.53195000005</v>
+        <v>68916.280296000055</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -8519,15 +8651,15 @@
       </c>
       <c r="C36" s="77">
         <f>-Resumen!K48</f>
-        <v>-68598.730049999998</v>
+        <v>-130140.98170399999</v>
       </c>
       <c r="D36" s="77">
         <f>Resumen!L48</f>
-        <v>157924.46995000006</v>
+        <v>96382.21829600005</v>
       </c>
       <c r="E36" s="36">
         <f>+Resumen!S48</f>
-        <v>152264.92579902898</v>
+        <v>91964.809247697354</v>
       </c>
       <c r="H36" s="86">
         <f t="shared" si="0"/>
@@ -8535,7 +8667,7 @@
       </c>
       <c r="I36" s="36">
         <f>+Resumen!L48</f>
-        <v>157924.46995000006</v>
+        <v>96382.21829600005</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -8549,15 +8681,15 @@
       </c>
       <c r="C37" s="77">
         <f>-Resumen!K49</f>
-        <v>-69023.461049999998</v>
+        <v>-130565.71270399999</v>
       </c>
       <c r="D37" s="77">
         <f>Resumen!L49</f>
-        <v>171657.43895000004</v>
+        <v>110115.18729600006</v>
       </c>
       <c r="E37" s="36">
         <f>+Resumen!S49</f>
-        <v>165372.33184408391</v>
+        <v>105072.2152927523</v>
       </c>
       <c r="H37" s="86">
         <f t="shared" si="0"/>
@@ -8565,7 +8697,7 @@
       </c>
       <c r="I37" s="36">
         <f>+Resumen!L49</f>
-        <v>171657.43895000004</v>
+        <v>110115.18729600006</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -8579,15 +8711,15 @@
       </c>
       <c r="C38" s="77">
         <f>-Resumen!K50</f>
-        <v>-69448.192049999998</v>
+        <v>-130990.44370399999</v>
       </c>
       <c r="D38" s="77">
         <f>Resumen!L50</f>
-        <v>185390.40795000008</v>
+        <v>123848.15629600007</v>
       </c>
       <c r="E38" s="36">
         <f>+Resumen!S50</f>
-        <v>178460.6551138116</v>
+        <v>118160.53856247997</v>
       </c>
       <c r="H38" s="86">
         <f t="shared" si="0"/>
@@ -8595,7 +8727,7 @@
       </c>
       <c r="I38" s="36">
         <f>+Resumen!L50</f>
-        <v>185390.40795000008</v>
+        <v>123848.15629600007</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -8609,15 +8741,15 @@
       </c>
       <c r="C39" s="77">
         <f>-Resumen!K51</f>
-        <v>-69448.192049999998</v>
+        <v>-130990.44370399999</v>
       </c>
       <c r="D39" s="77">
         <f>Resumen!L51</f>
-        <v>185390.40795000008</v>
+        <v>123848.15629600007</v>
       </c>
       <c r="E39" s="36">
         <f>+Resumen!S51</f>
-        <v>178460.6551138116</v>
+        <v>118160.53856247997</v>
       </c>
       <c r="H39" s="86">
         <f t="shared" si="0"/>
@@ -8625,7 +8757,7 @@
       </c>
       <c r="I39" s="36">
         <f>+Resumen!L51</f>
-        <v>185390.40795000008</v>
+        <v>123848.15629600007</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -8639,15 +8771,15 @@
       </c>
       <c r="C40" s="77">
         <f>-Resumen!K52</f>
-        <v>-123138.6477</v>
+        <v>-184680.89935399999</v>
       </c>
       <c r="D40" s="77">
         <f>Resumen!L52</f>
-        <v>131699.95230000006</v>
+        <v>70157.70064600007</v>
       </c>
       <c r="E40" s="36">
         <f>+Resumen!S52</f>
-        <v>127439.39474517088</v>
+        <v>67139.278193839273</v>
       </c>
       <c r="H40" s="86">
         <f t="shared" si="0"/>
@@ -8655,7 +8787,7 @@
       </c>
       <c r="I40" s="36">
         <f>+Resumen!L52</f>
-        <v>131699.95230000006</v>
+        <v>70157.70064600007</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -8669,15 +8801,15 @@
       </c>
       <c r="C41" s="77">
         <f>-Resumen!K53</f>
-        <v>-123138.6477</v>
+        <v>-184680.89935399999</v>
       </c>
       <c r="D41" s="77">
         <f>Resumen!L53</f>
-        <v>131699.95230000006</v>
+        <v>70157.70064600007</v>
       </c>
       <c r="E41" s="36">
         <f>+Resumen!S53</f>
-        <v>127439.39474517088</v>
+        <v>67139.278193839273</v>
       </c>
       <c r="H41" s="86">
         <f t="shared" si="0"/>
@@ -8685,7 +8817,7 @@
       </c>
       <c r="I41" s="36">
         <f>+Resumen!L53</f>
-        <v>131699.95230000006</v>
+        <v>70157.70064600007</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -8699,15 +8831,15 @@
       </c>
       <c r="C42" s="77">
         <f>-Resumen!K54</f>
-        <v>-123563.3787</v>
+        <v>-185105.63035399999</v>
       </c>
       <c r="D42" s="77">
         <f>Resumen!L54</f>
-        <v>145432.92130000005</v>
+        <v>83890.669646000053</v>
       </c>
       <c r="E42" s="36">
         <f>+Resumen!S54</f>
-        <v>140451.6643312095</v>
+        <v>80151.547779877903</v>
       </c>
       <c r="H42" s="86">
         <f t="shared" si="0"/>
@@ -8715,7 +8847,7 @@
       </c>
       <c r="I42" s="36">
         <f>+Resumen!L54</f>
-        <v>145432.92130000005</v>
+        <v>83890.669646000053</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -8729,15 +8861,15 @@
       </c>
       <c r="C43" s="77">
         <f>-Resumen!K55</f>
-        <v>-123988.1097</v>
+        <v>-185530.36135399999</v>
       </c>
       <c r="D43" s="77">
         <f>Resumen!L55</f>
-        <v>159165.89030000006</v>
+        <v>97623.638646000065</v>
       </c>
       <c r="E43" s="36">
         <f>+Resumen!S55</f>
-        <v>153444.98964893483</v>
+        <v>93144.873097603238</v>
       </c>
       <c r="H43" s="86">
         <f t="shared" si="0"/>
@@ -8745,7 +8877,7 @@
       </c>
       <c r="I43" s="36">
         <f>+Resumen!L55</f>
-        <v>159165.89030000006</v>
+        <v>97623.638646000065</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -8759,15 +8891,15 @@
       </c>
       <c r="C44" s="77">
         <f>-Resumen!K56</f>
-        <v>-124412.8407</v>
+        <v>-185955.09235399999</v>
       </c>
       <c r="D44" s="77">
         <f>Resumen!L56</f>
-        <v>172898.85930000007</v>
+        <v>111356.60764600008</v>
       </c>
       <c r="E44" s="36">
         <f>+Resumen!S56</f>
-        <v>166419.39827887775</v>
+        <v>106119.28172754616</v>
       </c>
       <c r="H44" s="86">
         <f t="shared" si="0"/>
@@ -8775,7 +8907,7 @@
       </c>
       <c r="I44" s="36">
         <f>+Resumen!L56</f>
-        <v>172898.85930000007</v>
+        <v>111356.60764600008</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -8789,15 +8921,15 @@
       </c>
       <c r="C45" s="77">
         <f>-Resumen!K57</f>
-        <v>-124837.5717</v>
+        <v>-186379.82335399999</v>
       </c>
       <c r="D45" s="77">
         <f>Resumen!L57</f>
-        <v>186631.82830000008</v>
+        <v>125089.57664600009</v>
       </c>
       <c r="E45" s="36">
         <f>+Resumen!S57</f>
-        <v>179374.91776141513</v>
+        <v>119074.80121008353</v>
       </c>
       <c r="H45" s="86">
         <f t="shared" si="0"/>
@@ -8805,7 +8937,7 @@
       </c>
       <c r="I45" s="36">
         <f>+Resumen!L57</f>
-        <v>186631.82830000008</v>
+        <v>125089.57664600009</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -8819,15 +8951,15 @@
       </c>
       <c r="C46" s="77">
         <f>-Resumen!K58</f>
-        <v>-131385.77170000001</v>
+        <v>-192928.023354</v>
       </c>
       <c r="D46" s="77">
         <f>Resumen!L58</f>
-        <v>180083.62830000007</v>
+        <v>118541.37664600008</v>
       </c>
       <c r="E46" s="36">
         <f>+Resumen!S58</f>
-        <v>173206.41750208638</v>
+        <v>112906.30095075478</v>
       </c>
       <c r="H46" s="86">
         <f t="shared" si="0"/>
@@ -8835,7 +8967,7 @@
       </c>
       <c r="I46" s="36">
         <f>+Resumen!L58</f>
-        <v>180083.62830000007</v>
+        <v>118541.37664600008</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -8849,15 +8981,15 @@
       </c>
       <c r="C47" s="77">
         <f>-Resumen!K59</f>
-        <v>-131385.77170000001</v>
+        <v>-192928.023354</v>
       </c>
       <c r="D47" s="77">
         <f>Resumen!L59</f>
-        <v>180083.62830000007</v>
+        <v>118541.37664600008</v>
       </c>
       <c r="E47" s="36">
         <f>+Resumen!S59</f>
-        <v>173206.41750208638</v>
+        <v>112906.30095075478</v>
       </c>
       <c r="H47" s="86">
         <f t="shared" si="0"/>
@@ -8865,7 +8997,7 @@
       </c>
       <c r="I47" s="36">
         <f>+Resumen!L59</f>
-        <v>180083.62830000007</v>
+        <v>118541.37664600008</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -8879,15 +9011,15 @@
       </c>
       <c r="C48" s="77">
         <f>-Resumen!K60</f>
-        <v>-132065.3413</v>
+        <v>-193607.59295399999</v>
       </c>
       <c r="D48" s="77">
         <f>Resumen!L60</f>
-        <v>202056.37870000009</v>
+        <v>140514.1270460001</v>
       </c>
       <c r="E48" s="36">
         <f>+Resumen!S60</f>
-        <v>193844.84451315826</v>
+        <v>133544.72796182666</v>
       </c>
       <c r="H48" s="86">
         <f t="shared" si="0"/>
@@ -8895,7 +9027,7 @@
       </c>
       <c r="I48" s="36">
         <f>+Resumen!L60</f>
-        <v>202056.37870000009</v>
+        <v>140514.1270460001</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -8909,15 +9041,15 @@
       </c>
       <c r="C49" s="77">
         <f>-Resumen!K61</f>
-        <v>-132235.23370000001</v>
+        <v>-193777.485354</v>
       </c>
       <c r="D49" s="77">
         <f>Resumen!L61</f>
-        <v>207549.56630000009</v>
+        <v>146007.3146460001</v>
       </c>
       <c r="E49" s="36">
         <f>+Resumen!S61</f>
-        <v>198996.93951141881</v>
+        <v>138696.82296008719</v>
       </c>
       <c r="H49" s="86">
         <f t="shared" si="0"/>
@@ -8925,7 +9057,7 @@
       </c>
       <c r="I49" s="36">
         <f>+Resumen!L61</f>
-        <v>207549.56630000009</v>
+        <v>146007.3146460001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -8939,15 +9071,15 @@
       </c>
       <c r="C50" s="77">
         <f>-Resumen!K62</f>
-        <v>-132490.0723</v>
+        <v>-194032.32395399999</v>
       </c>
       <c r="D50" s="77">
         <f>Resumen!L62</f>
-        <v>215789.3477000001</v>
+        <v>154247.09604600011</v>
       </c>
       <c r="E50" s="36">
         <f>+Resumen!S62</f>
-        <v>206713.83078133801</v>
+        <v>146413.71423000642</v>
       </c>
       <c r="H50" s="86">
         <f t="shared" si="0"/>
@@ -8955,7 +9087,7 @@
       </c>
       <c r="I50" s="36">
         <f>+Resumen!L62</f>
-        <v>215789.3477000001</v>
+        <v>154247.09604600011</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -8969,15 +9101,15 @@
       </c>
       <c r="C51" s="77">
         <f>-Resumen!K63</f>
-        <v>-132659.96470000001</v>
+        <v>-194202.216354</v>
       </c>
       <c r="D51" s="77">
         <f>Resumen!L63</f>
-        <v>221282.53530000011</v>
+        <v>159740.28364600011</v>
       </c>
       <c r="E51" s="36">
         <f>+Resumen!S63</f>
-        <v>211850.93506324117</v>
+        <v>151550.81851190957</v>
       </c>
       <c r="H51" s="86">
         <f t="shared" si="0"/>
@@ -8985,7 +9117,7 @@
       </c>
       <c r="I51" s="36">
         <f>+Resumen!L63</f>
-        <v>221282.53530000011</v>
+        <v>159740.28364600011</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -8999,15 +9131,15 @@
       </c>
       <c r="C52" s="77">
         <f>-Resumen!K64</f>
-        <v>-166142.03375</v>
+        <v>-227684.28540399999</v>
       </c>
       <c r="D52" s="77">
         <f>Resumen!L64</f>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
       <c r="E52" s="36">
         <f>+Resumen!S64</f>
-        <v>180584.85048582024</v>
+        <v>120284.73393448867</v>
       </c>
       <c r="H52" s="86">
         <f t="shared" si="0"/>
@@ -9015,7 +9147,7 @@
       </c>
       <c r="I52" s="36">
         <f>+Resumen!L64</f>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -9029,15 +9161,15 @@
       </c>
       <c r="C53" s="77">
         <f>-Resumen!K65</f>
-        <v>-166142.03375</v>
+        <v>-227684.28540399999</v>
       </c>
       <c r="D53" s="77">
         <f>Resumen!L65</f>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
       <c r="E53" s="36">
         <f>+Resumen!S65</f>
-        <v>180584.85048582024</v>
+        <v>120284.73393448867</v>
       </c>
       <c r="H53" s="86">
         <f t="shared" si="0"/>
@@ -9045,7 +9177,7 @@
       </c>
       <c r="I53" s="36">
         <f>+Resumen!L65</f>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -9059,15 +9191,15 @@
       </c>
       <c r="C54" s="77">
         <f>-Resumen!K66</f>
-        <v>-166142.03375</v>
+        <v>-227684.28540399999</v>
       </c>
       <c r="D54" s="77">
         <f>Resumen!L66</f>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
       <c r="E54" s="36">
         <f>+Resumen!S66</f>
-        <v>180584.85048582024</v>
+        <v>120284.73393448867</v>
       </c>
       <c r="H54" s="86">
         <f t="shared" si="0"/>
@@ -9075,7 +9207,7 @@
       </c>
       <c r="I54" s="36">
         <f>+Resumen!L66</f>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -9089,15 +9221,15 @@
       </c>
       <c r="C55" s="77">
         <f>-Resumen!K67</f>
-        <v>-166566.76475</v>
+        <v>-228109.01640399999</v>
       </c>
       <c r="D55" s="77">
         <f>Resumen!L67</f>
-        <v>201533.43525000013</v>
+        <v>139991.18359600013</v>
       </c>
       <c r="E55" s="36">
         <f>+Resumen!S67</f>
-        <v>193352.9844228703</v>
+        <v>133052.86787153874</v>
       </c>
       <c r="H55" s="86">
         <f t="shared" si="0"/>
@@ -9105,7 +9237,7 @@
       </c>
       <c r="I55" s="36">
         <f>+Resumen!L67</f>
-        <v>201533.43525000013</v>
+        <v>139991.18359600013</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -9119,15 +9251,15 @@
       </c>
       <c r="C56" s="77">
         <f>-Resumen!K68</f>
-        <v>-166991.49575</v>
+        <v>-228533.74740399999</v>
       </c>
       <c r="D56" s="77">
         <f>Resumen!L68</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="E56" s="36">
         <f>+Resumen!S68</f>
-        <v>206102.52952316412</v>
+        <v>145802.41297183256</v>
       </c>
       <c r="H56" s="86">
         <f t="shared" si="0"/>
@@ -9135,7 +9267,7 @@
       </c>
       <c r="I56" s="36">
         <f>+Resumen!L68</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -9149,15 +9281,15 @@
       </c>
       <c r="C57" s="77">
         <f>-Resumen!K69</f>
-        <v>-166991.49575</v>
+        <v>-228533.74740399999</v>
       </c>
       <c r="D57" s="77">
         <f>Resumen!L69</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="E57" s="36">
         <f>+Resumen!S69</f>
-        <v>206102.52952316412</v>
+        <v>145802.41297183256</v>
       </c>
       <c r="H57" s="86">
         <f t="shared" si="0"/>
@@ -9165,7 +9297,7 @@
       </c>
       <c r="I57" s="36">
         <f>+Resumen!L69</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -9179,15 +9311,15 @@
       </c>
       <c r="C58" s="77">
         <f>-Resumen!K70</f>
-        <v>-166991.49575</v>
+        <v>-228533.74740399999</v>
       </c>
       <c r="D58" s="77">
         <f>Resumen!L70</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="E58" s="36">
         <f>+Resumen!S70</f>
-        <v>206102.52952316412</v>
+        <v>145802.41297183256</v>
       </c>
       <c r="H58" s="86">
         <f t="shared" si="0"/>
@@ -9195,7 +9327,7 @@
       </c>
       <c r="I58" s="36">
         <f>+Resumen!L70</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -9209,15 +9341,15 @@
       </c>
       <c r="C59" s="77">
         <f>-Resumen!K71</f>
-        <v>-166991.49575</v>
+        <v>-228533.74740399999</v>
       </c>
       <c r="D59" s="77">
         <f>Resumen!L71</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="E59" s="36">
         <f>+Resumen!S71</f>
-        <v>206102.52952316412</v>
+        <v>145802.41297183256</v>
       </c>
       <c r="H59" s="86">
         <f t="shared" si="0"/>
@@ -9225,7 +9357,7 @@
       </c>
       <c r="I59" s="36">
         <f>+Resumen!L71</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -9239,15 +9371,15 @@
       </c>
       <c r="C60" s="77">
         <f>-Resumen!K72</f>
-        <v>-167840.95775</v>
+        <v>-229383.20940399999</v>
       </c>
       <c r="D60" s="77">
         <f>Resumen!L72</f>
-        <v>242732.34225000016</v>
+        <v>181190.09059600017</v>
       </c>
       <c r="E60" s="36">
         <f>+Resumen!S72</f>
-        <v>231453.44950358613</v>
+        <v>171153.33295225457</v>
       </c>
       <c r="H60" s="86">
         <f t="shared" si="0"/>
@@ -9255,7 +9387,7 @@
       </c>
       <c r="I60" s="36">
         <f>+Resumen!L72</f>
-        <v>242732.34225000016</v>
+        <v>181190.09059600017</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -9269,15 +9401,15 @@
       </c>
       <c r="C61" s="77">
         <f>-Resumen!K73</f>
-        <v>-168095.79634999999</v>
+        <v>-229638.04800399998</v>
       </c>
       <c r="D61" s="77">
         <f>Resumen!L73</f>
-        <v>250972.12365000017</v>
+        <v>189429.87199600018</v>
       </c>
       <c r="E61" s="36">
         <f>+Resumen!S73</f>
-        <v>239047.65314879801</v>
+        <v>178747.53659746645</v>
       </c>
       <c r="H61" s="86">
         <f t="shared" si="0"/>
@@ -9285,7 +9417,7 @@
       </c>
       <c r="I61" s="36">
         <f>+Resumen!L73</f>
-        <v>250972.12365000017</v>
+        <v>189429.87199600018</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -9299,15 +9431,15 @@
       </c>
       <c r="C62" s="77">
         <f>-Resumen!K74</f>
-        <v>-168265.68875</v>
+        <v>-229807.94040399999</v>
       </c>
       <c r="D62" s="77">
         <f>Resumen!L74</f>
-        <v>256465.31125000017</v>
+        <v>194923.05959600018</v>
       </c>
       <c r="E62" s="36">
         <f>+Resumen!S74</f>
-        <v>244103.08475965066</v>
+        <v>183802.9682083191</v>
       </c>
       <c r="H62" s="86">
         <f t="shared" si="0"/>
@@ -9315,7 +9447,7 @@
       </c>
       <c r="I62" s="36">
         <f>+Resumen!L74</f>
-        <v>256465.31125000017</v>
+        <v>194923.05959600018</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -9329,15 +9461,15 @@
       </c>
       <c r="C63" s="77">
         <f>-Resumen!K75</f>
-        <v>-168265.68875</v>
+        <v>-229807.94040399999</v>
       </c>
       <c r="D63" s="77">
         <f>Resumen!L75</f>
-        <v>256465.31125000017</v>
+        <v>194923.05959600018</v>
       </c>
       <c r="E63" s="36">
         <f>+Resumen!S75</f>
-        <v>244103.08475965066</v>
+        <v>183802.9682083191</v>
       </c>
       <c r="H63" s="86">
         <f t="shared" si="0"/>
@@ -9345,7 +9477,7 @@
       </c>
       <c r="I63" s="36">
         <f>+Resumen!L75</f>
-        <v>256465.31125000017</v>
+        <v>194923.05959600018</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -9359,15 +9491,15 @@
       </c>
       <c r="C64" s="77">
         <f>-Resumen!K76</f>
-        <v>-192298.38449999999</v>
+        <v>-253840.63615400001</v>
       </c>
       <c r="D64" s="77">
         <f>Resumen!L76</f>
-        <v>232432.61550000019</v>
+        <v>170890.36384600017</v>
       </c>
       <c r="E64" s="36">
         <f>+Resumen!S76</f>
-        <v>222049.92535480723</v>
+        <v>161749.80880347567</v>
       </c>
       <c r="H64" s="86">
         <f t="shared" si="0"/>
@@ -9375,7 +9507,7 @@
       </c>
       <c r="I64" s="36">
         <f>+Resumen!L76</f>
-        <v>232432.61550000019</v>
+        <v>170890.36384600017</v>
       </c>
     </row>
   </sheetData>
@@ -9388,7 +9520,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9583,16 +9715,16 @@
     </row>
     <row r="7" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E7" s="16">
         <v>0.81</v>
@@ -9611,7 +9743,7 @@
     </row>
     <row r="8" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>68</v>
@@ -9761,7 +9893,7 @@
         <v>112</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -10212,10 +10344,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A463F216-040A-4605-B2FB-759C6DDC3989}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10261,11 +10393,13 @@
     </row>
     <row r="2" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="16"/>
+        <v>244</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>241</v>
+      </c>
       <c r="C2" s="16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>137</v>
@@ -10282,7 +10416,7 @@
       </c>
       <c r="H2" s="25">
         <f>G2*C2</f>
-        <v>26.620000000000005</v>
+        <v>21.296000000000003</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>11</v>
@@ -10290,10 +10424,10 @@
     </row>
     <row r="3" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="C3" s="16">
         <v>8</v>
@@ -10302,29 +10436,26 @@
         <v>137</v>
       </c>
       <c r="E3" s="16">
-        <v>3.61</v>
+        <v>2.96</v>
       </c>
       <c r="F3" s="25">
         <v>0.21</v>
       </c>
       <c r="G3" s="25">
-        <f t="shared" ref="G3:G17" si="0">E3+(E3*F3)</f>
-        <v>4.3681000000000001</v>
+        <f>E3+(E3*F3)</f>
+        <v>3.5815999999999999</v>
       </c>
       <c r="H3" s="25">
-        <f t="shared" ref="H3:H17" si="1">G3*C3</f>
-        <v>34.944800000000001</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>11</v>
+        <f>G3*C3</f>
+        <v>28.652799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C4" s="16">
         <v>8</v>
@@ -10333,479 +10464,650 @@
         <v>137</v>
       </c>
       <c r="E4" s="16">
-        <v>8.6</v>
+        <v>3.61</v>
       </c>
       <c r="F4" s="25">
         <v>0.21</v>
       </c>
       <c r="G4" s="25">
+        <f t="shared" ref="G4:G23" si="0">E4+(E4*F4)</f>
+        <v>4.3681000000000001</v>
+      </c>
+      <c r="H4" s="25">
+        <f t="shared" ref="H4:H23" si="1">G4*C4</f>
+        <v>34.944800000000001</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="16">
+        <v>8</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="G5" s="25">
         <f t="shared" si="0"/>
         <v>10.405999999999999</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H5" s="25">
         <f t="shared" si="1"/>
         <v>83.24799999999999</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I5" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="16">
+    <row r="6" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D6" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E6" s="16">
         <v>1.04</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F6" s="25">
         <v>0.21</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G6" s="25">
         <f t="shared" si="0"/>
         <v>1.2584</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H6" s="25">
         <f t="shared" si="1"/>
         <v>5.0335999999999999</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="16">
-        <v>8</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.82</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0.21</v>
-      </c>
-      <c r="G6" s="25">
-        <f t="shared" si="0"/>
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="H6" s="25">
-        <f t="shared" si="1"/>
-        <v>7.9375999999999998</v>
-      </c>
       <c r="I6" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="29"/>
+        <v>250</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>251</v>
+      </c>
       <c r="C7" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="16">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="F7" s="25">
         <v>0.21</v>
       </c>
       <c r="G7" s="25">
         <f t="shared" si="0"/>
-        <v>0.45979999999999999</v>
+        <v>0.27829999999999999</v>
       </c>
       <c r="H7" s="25">
         <f t="shared" si="1"/>
-        <v>0.45979999999999999</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>13</v>
+        <v>1.1132</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>142</v>
+        <v>256</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>139</v>
       </c>
       <c r="C8" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="16">
-        <v>3.45</v>
+        <v>0.32</v>
       </c>
       <c r="F8" s="25">
         <v>0.21</v>
       </c>
       <c r="G8" s="25">
         <f t="shared" si="0"/>
-        <v>4.1745000000000001</v>
+        <v>0.38719999999999999</v>
       </c>
       <c r="H8" s="25">
         <f t="shared" si="1"/>
-        <v>4.1745000000000001</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>13</v>
+        <v>1.5488</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C9" s="16">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>137</v>
       </c>
       <c r="E9" s="16">
-        <v>2.46</v>
+        <v>0.35</v>
       </c>
       <c r="F9" s="25">
         <v>0.21</v>
       </c>
       <c r="G9" s="25">
         <f t="shared" si="0"/>
-        <v>2.9765999999999999</v>
+        <v>0.42349999999999999</v>
       </c>
       <c r="H9" s="25">
         <f t="shared" si="1"/>
-        <v>2.9765999999999999</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>11</v>
+        <v>6.7759999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C10" s="16">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>137</v>
       </c>
       <c r="E10" s="16">
-        <v>0.34</v>
+        <v>0.82</v>
       </c>
       <c r="F10" s="25">
         <v>0.21</v>
       </c>
       <c r="G10" s="25">
         <f t="shared" si="0"/>
-        <v>0.41140000000000004</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="H10" s="25">
         <f t="shared" si="1"/>
-        <v>0.41140000000000004</v>
+        <v>15.8752</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>145</v>
       </c>
       <c r="C11" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>137</v>
       </c>
       <c r="E11" s="16">
-        <v>0.55000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="F11" s="25">
         <v>0.21</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
-        <v>0.66550000000000009</v>
+        <v>0.45979999999999999</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="1"/>
-        <v>0.66550000000000009</v>
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>158</v>
+        <v>252</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="C12" s="16">
-        <v>2</v>
-      </c>
-      <c r="D12" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="E12" s="16">
-        <v>5.38</v>
+        <v>3.45</v>
       </c>
       <c r="F12" s="25">
         <v>0.21</v>
       </c>
       <c r="G12" s="25">
         <f t="shared" si="0"/>
-        <v>6.5098000000000003</v>
+        <v>4.1745000000000001</v>
       </c>
       <c r="H12" s="25">
         <f t="shared" si="1"/>
-        <v>13.019600000000001</v>
+        <v>41.745000000000005</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="E13" s="16">
-        <v>4.5599999999999996</v>
+        <v>2.46</v>
       </c>
       <c r="F13" s="25">
         <v>0.21</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="0"/>
-        <v>5.5175999999999998</v>
+        <v>2.9765999999999999</v>
       </c>
       <c r="H13" s="25">
         <f t="shared" si="1"/>
-        <v>5.5175999999999998</v>
+        <v>47.625599999999999</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="C14" s="16">
-        <v>2</v>
-      </c>
-      <c r="D14" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="E14" s="16">
-        <v>11.04</v>
+        <v>0.34</v>
       </c>
       <c r="F14" s="25">
         <v>0.21</v>
       </c>
       <c r="G14" s="25">
         <f t="shared" si="0"/>
-        <v>13.3584</v>
+        <v>0.41140000000000004</v>
       </c>
       <c r="H14" s="25">
         <f t="shared" si="1"/>
-        <v>26.716799999999999</v>
+        <v>0.41140000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="C15" s="16">
-        <v>2</v>
-      </c>
-      <c r="D15" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="E15" s="16">
-        <v>3.84</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F15" s="25">
         <v>0.21</v>
       </c>
       <c r="G15" s="25">
         <f t="shared" si="0"/>
-        <v>4.6463999999999999</v>
+        <v>0.66550000000000009</v>
       </c>
       <c r="H15" s="25">
         <f t="shared" si="1"/>
-        <v>9.2927999999999997</v>
+        <v>0.66550000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="C16" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="22"/>
+        <v>5.75</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>261</v>
+      </c>
       <c r="E16" s="16">
-        <v>31.2</v>
+        <v>2.25</v>
       </c>
       <c r="F16" s="25">
         <v>0.21</v>
       </c>
       <c r="G16" s="25">
         <f t="shared" si="0"/>
-        <v>37.751999999999995</v>
+        <v>2.7225000000000001</v>
       </c>
       <c r="H16" s="25">
         <f t="shared" si="1"/>
-        <v>18.875999999999998</v>
+        <v>15.654375000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C17" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>273</v>
+      </c>
       <c r="E17" s="16">
-        <v>18</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="F17" s="25">
         <v>0.21</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" si="0"/>
-        <v>21.78</v>
+        <v>5.5175999999999998</v>
       </c>
       <c r="H17" s="25">
         <f t="shared" si="1"/>
-        <v>10.89</v>
+        <v>5.5175999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="16">
+        <v>4</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="0"/>
+        <v>1.7060999999999999</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="1"/>
+        <v>6.8243999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="16">
+        <v>11.04</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="0"/>
+        <v>13.3584</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="1"/>
+        <v>13.3584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="16">
+        <v>2</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="16">
+        <v>3.84</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="0"/>
+        <v>4.6463999999999999</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="1"/>
+        <v>9.2927999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="16">
+        <v>31.2</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="0"/>
+        <v>37.751999999999995</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="1"/>
+        <v>18.875999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="16">
+        <v>18</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="G22" s="25">
+        <f t="shared" si="0"/>
+        <v>21.78</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="1"/>
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="16">
+        <v>16</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="0"/>
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="1"/>
+        <v>13.7456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="15">
-        <f>SUM(H2:H17)</f>
-        <v>250.78459999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="15">
+        <f>SUM(H2:H22)</f>
+        <v>370.2690750000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="1" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H32" s="31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C33" s="5">
         <v>16</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4">
-        <f>E28*C28</f>
-        <v>160</v>
-      </c>
-      <c r="H28" s="30">
-        <f>H19+F28</f>
-        <v>410.78459999999995</v>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>9.42</v>
+      </c>
+      <c r="F33" s="4">
+        <f>E33*C33</f>
+        <v>150.72</v>
+      </c>
+      <c r="H33" s="30">
+        <f>H24+F33</f>
+        <v>520.98907500000007</v>
       </c>
     </row>
   </sheetData>
@@ -10818,92 +11120,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1E50F8-A6BF-4028-93CF-2C6524EDB8B9}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>235</v>
+      </c>
+      <c r="B4">
+        <v>5.14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>236</v>
+      </c>
+      <c r="B5">
+        <v>257.14</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>237</v>
+      </c>
+      <c r="B6">
+        <v>15.23</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>159</v>
+      </c>
+      <c r="B8">
+        <v>7.7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>271</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>163</v>
+      </c>
+      <c r="B10">
+        <v>7.28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10921,7 +11260,7 @@
   </sheetPr>
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -10948,19 +11287,19 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B2" s="73">
         <f ca="1">TODAY()</f>
-        <v>44528</v>
+        <v>44532</v>
       </c>
       <c r="E2" s="87"/>
       <c r="F2" s="88"/>
@@ -10979,7 +11318,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E4" s="87"/>
       <c r="F4" s="11"/>
@@ -10996,7 +11335,7 @@
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="70" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C6" s="72">
         <v>2831.54</v>
@@ -11034,7 +11373,7 @@
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="66" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F11" s="65">
         <f>0.001458</f>
@@ -11043,10 +11382,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D13" s="64" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G13">
         <f>TasaImpuestos</f>
@@ -11055,19 +11394,19 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C14" s="62">
         <f>+L76</f>
-        <v>232432.61550000019</v>
+        <v>170890.36384600017</v>
       </c>
       <c r="D14" s="61">
         <f>S76</f>
-        <v>222049.92535480723</v>
+        <v>161749.80880347567</v>
       </c>
       <c r="E14" s="60">
         <f>IRR(S17:S76)</f>
-        <v>0.21500044318088452</v>
+        <v>7.5198999680116119E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -11075,10 +11414,10 @@
     </row>
     <row r="16" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C16" s="41" t="str">
         <f>'[1]Inversión Inicial'!A1</f>
@@ -11093,46 +11432,46 @@
         <v>COSTOS VARIABLES</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P16" s="41" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="41" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="R16" s="41" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="S16" s="41" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -11146,7 +11485,7 @@
       </c>
       <c r="D17" s="43">
         <f>'COSTOS FIJOS'!G5</f>
-        <v>0</v>
+        <v>1269.6288</v>
       </c>
       <c r="E17" s="43">
         <f>'COSTOS VARIABLES'!G5</f>
@@ -11156,12 +11495,12 @@
         <v>0</v>
       </c>
       <c r="G17" s="43">
-        <f>+F17*0.03</f>
+        <f t="shared" ref="G17:G48" si="0">+F17*0.03</f>
         <v>0</v>
       </c>
       <c r="H17" s="49">
-        <f>+C17+D17+E17+G17</f>
-        <v>0</v>
+        <f t="shared" ref="H17:H48" si="1">+C17+D17+E17+G17</f>
+        <v>1269.6288</v>
       </c>
       <c r="J17" s="47">
         <f>+F17+'Otros Ingresos'!D7</f>
@@ -11169,14 +11508,14 @@
       </c>
       <c r="K17" s="46">
         <f>+H17</f>
-        <v>0</v>
+        <v>1269.6288</v>
       </c>
       <c r="L17" s="56">
-        <f>+J17-K17</f>
-        <v>0</v>
+        <f t="shared" ref="L17:L48" si="2">+J17-K17</f>
+        <v>-1269.6288</v>
       </c>
       <c r="M17" s="44">
-        <f>(1+TasaMensual)^N17</f>
+        <f t="shared" ref="M17:M48" si="3">(1+TasaMensual)^N17</f>
         <v>1</v>
       </c>
       <c r="N17" s="3">
@@ -11187,8 +11526,8 @@
         <v>0</v>
       </c>
       <c r="P17" s="43">
-        <f>+H17/M17</f>
-        <v>0</v>
+        <f t="shared" ref="P17:P28" si="4">+H17/M17</f>
+        <v>1269.6288</v>
       </c>
       <c r="Q17" s="43">
         <f>+O17</f>
@@ -11196,11 +11535,11 @@
       </c>
       <c r="R17" s="43">
         <f>+P17</f>
-        <v>0</v>
+        <v>1269.6288</v>
       </c>
       <c r="S17" s="43">
-        <f>+Q17-R17</f>
-        <v>0</v>
+        <f t="shared" ref="S17:S48" si="5">+Q17-R17</f>
+        <v>-1269.6288</v>
       </c>
       <c r="T17" s="36"/>
     </row>
@@ -11215,42 +11554,42 @@
       </c>
       <c r="D18" s="43">
         <f>'COSTOS FIJOS'!G6</f>
-        <v>0</v>
+        <v>2207.79</v>
       </c>
       <c r="E18" s="43">
         <f>'COSTOS VARIABLES'!G6</f>
         <v>0</v>
       </c>
       <c r="F18" s="50">
-        <f>+B17*$C$6</f>
+        <f t="shared" ref="F18:F49" si="6">+B17*$C$6</f>
         <v>0</v>
       </c>
       <c r="G18" s="43">
-        <f>+F18*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="49">
-        <f>+C18+D18+E18+G18</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2207.79</v>
       </c>
       <c r="J18" s="47">
         <f>+J17+F18+'Otros Ingresos'!D8</f>
         <v>0</v>
       </c>
       <c r="K18" s="46">
-        <f>+K17+H18</f>
-        <v>0</v>
+        <f t="shared" ref="K18:K28" si="7">+K17+H18</f>
+        <v>3477.4187999999999</v>
       </c>
       <c r="L18" s="56">
-        <f>+J18-K18</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-3477.4187999999999</v>
       </c>
       <c r="M18" s="44">
-        <f>(1+TasaMensual)^N18</f>
+        <f t="shared" si="3"/>
         <v>1.001458</v>
       </c>
       <c r="N18" s="3">
-        <f>+N17+1</f>
+        <f t="shared" ref="N18:N49" si="8">+N17+1</f>
         <v>1</v>
       </c>
       <c r="O18" s="43">
@@ -11258,20 +11597,20 @@
         <v>0</v>
       </c>
       <c r="P18" s="43">
-        <f>+H18/M18</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2204.5757285877194</v>
       </c>
       <c r="Q18" s="43">
-        <f>+Q17+O18</f>
+        <f t="shared" ref="Q18:Q49" si="9">+Q17+O18</f>
         <v>0</v>
       </c>
       <c r="R18" s="43">
-        <f>+R17+P18</f>
-        <v>0</v>
+        <f t="shared" ref="R18:R49" si="10">+R17+P18</f>
+        <v>3474.2045285877193</v>
       </c>
       <c r="S18" s="43">
-        <f>+Q18-R18</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-3474.2045285877193</v>
       </c>
       <c r="T18" s="36"/>
     </row>
@@ -11286,42 +11625,42 @@
       </c>
       <c r="D19" s="43">
         <f>'COSTOS FIJOS'!G7</f>
-        <v>0</v>
+        <v>2479.5590269999998</v>
       </c>
       <c r="E19" s="43">
         <f>'COSTOS VARIABLES'!G7</f>
         <v>0</v>
       </c>
       <c r="F19" s="50">
-        <f>+B18*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G19" s="43">
-        <f>+F19*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="49">
-        <f>+C19+D19+E19+G19</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2479.5590269999998</v>
       </c>
       <c r="J19" s="47">
         <f>+J18+F19+'Otros Ingresos'!D9</f>
         <v>0</v>
       </c>
       <c r="K19" s="46">
-        <f>+K18+H19</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5956.9778269999997</v>
       </c>
       <c r="L19" s="56">
-        <f>+J19-K19</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-5956.9778269999997</v>
       </c>
       <c r="M19" s="44">
-        <f>(1+TasaMensual)^N19</f>
+        <f t="shared" si="3"/>
         <v>1.0029181257639999</v>
       </c>
       <c r="N19" s="3">
-        <f>+N18+1</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="O19" s="43">
@@ -11329,20 +11668,20 @@
         <v>0</v>
       </c>
       <c r="P19" s="43">
-        <f>+H19/M19</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2472.3444150649175</v>
       </c>
       <c r="Q19" s="43">
-        <f>+Q18+O19</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R19" s="43">
-        <f>+R18+P19</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>5946.5489436526368</v>
       </c>
       <c r="S19" s="43">
-        <f>+Q19-R19</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-5946.5489436526368</v>
       </c>
       <c r="T19" s="36"/>
     </row>
@@ -11357,42 +11696,42 @@
       </c>
       <c r="D20" s="43">
         <f>'COSTOS FIJOS'!G8</f>
-        <v>0</v>
+        <v>1701.46</v>
       </c>
       <c r="E20" s="43">
         <f>'COSTOS VARIABLES'!G8</f>
         <v>0</v>
       </c>
       <c r="F20" s="50">
-        <f>+B19*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G20" s="43">
-        <f>+F20*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="49">
-        <f>+C20+D20+E20+G20</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1701.46</v>
       </c>
       <c r="J20" s="47">
         <f>+J19+F20+'Otros Ingresos'!D10</f>
         <v>0</v>
       </c>
       <c r="K20" s="46">
-        <f>+K19+H20</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>7658.4378269999997</v>
       </c>
       <c r="L20" s="56">
-        <f>+J20-K20</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-7658.4378269999997</v>
       </c>
       <c r="M20" s="44">
-        <f>(1+TasaMensual)^N20</f>
+        <f t="shared" si="3"/>
         <v>1.0043803803913638</v>
       </c>
       <c r="N20" s="3">
-        <f>+N19+1</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="O20" s="43">
@@ -11400,20 +11739,20 @@
         <v>0</v>
       </c>
       <c r="P20" s="43">
-        <f>+H20/M20</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1694.0394627551509</v>
       </c>
       <c r="Q20" s="43">
-        <f>+Q19+O20</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R20" s="43">
-        <f>+R19+P20</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>7640.5884064077873</v>
       </c>
       <c r="S20" s="43">
-        <f>+Q20-R20</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-7640.5884064077873</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -11427,42 +11766,42 @@
       </c>
       <c r="D21" s="43">
         <f>'COSTOS FIJOS'!G9</f>
-        <v>0</v>
+        <v>2095.33</v>
       </c>
       <c r="E21" s="43">
         <f>'COSTOS VARIABLES'!G9</f>
         <v>0</v>
       </c>
       <c r="F21" s="50">
-        <f>+B20*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G21" s="43">
-        <f>+F21*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="49">
-        <f>+C21+D21+E21+G21</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2095.33</v>
       </c>
       <c r="J21" s="47">
         <f>+J20+F21+'Otros Ingresos'!D11</f>
         <v>0</v>
       </c>
       <c r="K21" s="46">
-        <f>+K20+H21</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>9753.7678269999997</v>
       </c>
       <c r="L21" s="56">
-        <f>+J21-K21</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-9753.7678269999997</v>
       </c>
       <c r="M21" s="44">
-        <f>(1+TasaMensual)^N21</f>
+        <f t="shared" si="3"/>
         <v>1.0058447669859742</v>
       </c>
       <c r="N21" s="3">
-        <f>+N20+1</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="O21" s="43">
@@ -11470,20 +11809,20 @@
         <v>0</v>
       </c>
       <c r="P21" s="43">
-        <f>+H21/M21</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2083.1544476576451</v>
       </c>
       <c r="Q21" s="43">
-        <f>+Q20+O21</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R21" s="43">
-        <f>+R20+P21</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>9723.7428540654328</v>
       </c>
       <c r="S21" s="43">
-        <f>+Q21-R21</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-9723.7428540654328</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -11499,42 +11838,42 @@
       </c>
       <c r="D22" s="43">
         <f>'COSTOS FIJOS'!G10</f>
-        <v>0</v>
+        <v>1022.3199999999999</v>
       </c>
       <c r="E22" s="43">
         <f>'COSTOS VARIABLES'!G10</f>
         <v>3274.1000000000004</v>
       </c>
       <c r="F22" s="50">
-        <f>+B21*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G22" s="43">
-        <f>+F22*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="49">
-        <f>+C22+D22+E22+G22</f>
-        <v>3274.1000000000004</v>
+        <f t="shared" si="1"/>
+        <v>4296.42</v>
       </c>
       <c r="J22" s="47">
         <f>+J21+F22+'Otros Ingresos'!D12</f>
         <v>0</v>
       </c>
       <c r="K22" s="46">
-        <f>+K21+H22</f>
-        <v>3274.1000000000004</v>
+        <f t="shared" si="7"/>
+        <v>14050.187827</v>
       </c>
       <c r="L22" s="57">
-        <f>+J22-K22</f>
-        <v>-3274.1000000000004</v>
+        <f t="shared" si="2"/>
+        <v>-14050.187827</v>
       </c>
       <c r="M22" s="44">
-        <f>(1+TasaMensual)^N22</f>
+        <f t="shared" si="3"/>
         <v>1.0073112886562399</v>
       </c>
       <c r="N22" s="3">
-        <f>+N21+1</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="O22" s="43">
@@ -11542,20 +11881,20 @@
         <v>0</v>
       </c>
       <c r="P22" s="43">
-        <f>+H22/M22</f>
-        <v>3250.3358563246838</v>
+        <f t="shared" si="4"/>
+        <v>4265.2356311140456</v>
       </c>
       <c r="Q22" s="43">
-        <f>+Q21+O22</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R22" s="43">
-        <f>+R21+P22</f>
-        <v>3250.3358563246838</v>
+        <f t="shared" si="10"/>
+        <v>13988.978485179479</v>
       </c>
       <c r="S22" s="43">
-        <f>+Q22-R22</f>
-        <v>-3250.3358563246838</v>
+        <f t="shared" si="5"/>
+        <v>-13988.978485179479</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -11571,42 +11910,42 @@
       </c>
       <c r="D23" s="43">
         <f>'COSTOS FIJOS'!G11</f>
-        <v>0</v>
+        <v>1245.01</v>
       </c>
       <c r="E23" s="43">
         <f>'COSTOS VARIABLES'!G11</f>
         <v>0</v>
       </c>
       <c r="F23" s="50">
-        <f>+B22*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G23" s="43">
-        <f>+F23*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="49">
-        <f>+C23+D23+E23+G23</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1245.01</v>
       </c>
       <c r="J23" s="47">
         <f>+J22+F23+'Otros Ingresos'!D13</f>
         <v>0</v>
       </c>
       <c r="K23" s="46">
-        <f>+K22+H23</f>
-        <v>3274.1000000000004</v>
+        <f t="shared" si="7"/>
+        <v>15295.197827</v>
       </c>
       <c r="L23" s="56">
-        <f>+J23-K23</f>
-        <v>-3274.1000000000004</v>
+        <f t="shared" si="2"/>
+        <v>-15295.197827</v>
       </c>
       <c r="M23" s="44">
-        <f>(1+TasaMensual)^N23</f>
+        <f t="shared" si="3"/>
         <v>1.0087799485151006</v>
       </c>
       <c r="N23" s="3">
-        <f>+N22+1</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="O23" s="43">
@@ -11614,20 +11953,20 @@
         <v>0</v>
       </c>
       <c r="P23" s="43">
-        <f>+H23/M23</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1234.1740156836229</v>
       </c>
       <c r="Q23" s="43">
-        <f>+Q22+O23</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R23" s="43">
-        <f>+R22+P23</f>
-        <v>3250.3358563246838</v>
+        <f t="shared" si="10"/>
+        <v>15223.152500863102</v>
       </c>
       <c r="S23" s="43">
-        <f>+Q23-R23</f>
-        <v>-3250.3358563246838</v>
+        <f t="shared" si="5"/>
+        <v>-15223.152500863102</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -11635,7 +11974,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="51">
-        <f>IF(B23&lt;$C$7,INT(B23*$C$8)+B23,$C$7)</f>
+        <f t="shared" ref="B24:B34" si="11">IF(B23&lt;$C$7,INT(B23*$C$8)+B23,$C$7)</f>
         <v>0</v>
       </c>
       <c r="C24" s="43">
@@ -11644,42 +11983,42 @@
       </c>
       <c r="D24" s="43">
         <f>'COSTOS FIJOS'!G12</f>
-        <v>0</v>
+        <v>1930.4099999999999</v>
       </c>
       <c r="E24" s="43">
         <f>'COSTOS VARIABLES'!G12</f>
         <v>0</v>
       </c>
       <c r="F24" s="50">
-        <f>+B23*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G24" s="43">
-        <f>+F24*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="49">
-        <f>+C24+D24+E24+G24</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1930.4099999999999</v>
       </c>
       <c r="J24" s="47">
         <f>+J23+F24+'Otros Ingresos'!D14</f>
         <v>0</v>
       </c>
       <c r="K24" s="46">
-        <f>+K23+H24</f>
-        <v>3274.1000000000004</v>
+        <f t="shared" si="7"/>
+        <v>17225.607827</v>
       </c>
       <c r="L24" s="56">
-        <f>+J24-K24</f>
-        <v>-3274.1000000000004</v>
+        <f t="shared" si="2"/>
+        <v>-17225.607827</v>
       </c>
       <c r="M24" s="44">
-        <f>(1+TasaMensual)^N24</f>
+        <f t="shared" si="3"/>
         <v>1.0102507496800355</v>
       </c>
       <c r="N24" s="3">
-        <f>+N23+1</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="O24" s="43">
@@ -11687,20 +12026,20 @@
         <v>0</v>
       </c>
       <c r="P24" s="43">
-        <f>+H24/M24</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1910.8226354807412</v>
       </c>
       <c r="Q24" s="43">
-        <f>+Q23+O24</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R24" s="43">
-        <f>+R23+P24</f>
-        <v>3250.3358563246838</v>
+        <f t="shared" si="10"/>
+        <v>17133.975136343841</v>
       </c>
       <c r="S24" s="43">
-        <f>+Q24-R24</f>
-        <v>-3250.3358563246838</v>
+        <f t="shared" si="5"/>
+        <v>-17133.975136343841</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -11708,7 +12047,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="51">
-        <f>IF(B24&lt;$C$7,INT(B24*$C$8)+B24,$C$7)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C25" s="43">
@@ -11717,42 +12056,42 @@
       </c>
       <c r="D25" s="43">
         <f>'COSTOS FIJOS'!G13</f>
-        <v>0</v>
+        <v>2390.7699999999995</v>
       </c>
       <c r="E25" s="43">
         <f>'COSTOS VARIABLES'!G13</f>
         <v>0</v>
       </c>
       <c r="F25" s="50">
-        <f>+B24*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25" s="43">
-        <f>+F25*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="49">
-        <f>+C25+D25+E25+G25</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2390.7699999999995</v>
       </c>
       <c r="J25" s="47">
         <f>+J24+F25+'Otros Ingresos'!D15</f>
         <v>0</v>
       </c>
       <c r="K25" s="46">
-        <f>+K24+H25</f>
-        <v>3274.1000000000004</v>
+        <f t="shared" si="7"/>
+        <v>19616.377827</v>
       </c>
       <c r="L25" s="56">
-        <f>+J25-K25</f>
-        <v>-3274.1000000000004</v>
+        <f t="shared" si="2"/>
+        <v>-19616.377827</v>
       </c>
       <c r="M25" s="44">
-        <f>(1+TasaMensual)^N25</f>
+        <f t="shared" si="3"/>
         <v>1.0117236952730688</v>
       </c>
       <c r="N25" s="3">
-        <f>+N24+1</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="O25" s="43">
@@ -11760,20 +12099,20 @@
         <v>0</v>
       </c>
       <c r="P25" s="43">
-        <f>+H25/M25</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2363.066132749535</v>
       </c>
       <c r="Q25" s="43">
-        <f>+Q24+O25</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R25" s="43">
-        <f>+R24+P25</f>
-        <v>3250.3358563246838</v>
+        <f t="shared" si="10"/>
+        <v>19497.041269093377</v>
       </c>
       <c r="S25" s="43">
-        <f>+Q25-R25</f>
-        <v>-3250.3358563246838</v>
+        <f t="shared" si="5"/>
+        <v>-19497.041269093377</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -11781,7 +12120,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="51">
-        <f>IF(B25&lt;$C$7,INT(B25*$C$8)+B25,$C$7)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C26" s="43">
@@ -11790,42 +12129,42 @@
       </c>
       <c r="D26" s="43">
         <f>'COSTOS FIJOS'!G14</f>
-        <v>0</v>
+        <v>2489.34</v>
       </c>
       <c r="E26" s="43">
         <f>'COSTOS VARIABLES'!G14</f>
         <v>0</v>
       </c>
       <c r="F26" s="50">
-        <f>+B25*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G26" s="43">
-        <f>+F26*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="49">
-        <f>+C26+D26+E26+G26</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2489.34</v>
       </c>
       <c r="J26" s="47">
         <f>+J25+F26+'Otros Ingresos'!D16</f>
         <v>0</v>
       </c>
       <c r="K26" s="46">
-        <f>+K25+H26</f>
-        <v>3274.1000000000004</v>
+        <f t="shared" si="7"/>
+        <v>22105.717827</v>
       </c>
       <c r="L26" s="56">
-        <f>+J26-K26</f>
-        <v>-3274.1000000000004</v>
+        <f t="shared" si="2"/>
+        <v>-22105.717827</v>
       </c>
       <c r="M26" s="44">
-        <f>(1+TasaMensual)^N26</f>
+        <f t="shared" si="3"/>
         <v>1.0131987884207769</v>
       </c>
       <c r="N26" s="3">
-        <f>+N25+1</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="O26" s="43">
@@ -11833,20 +12172,20 @@
         <v>0</v>
       </c>
       <c r="P26" s="43">
-        <f>+H26/M26</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2456.911741752092</v>
       </c>
       <c r="Q26" s="43">
-        <f>+Q25+O26</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R26" s="43">
-        <f>+R25+P26</f>
-        <v>3250.3358563246838</v>
+        <f t="shared" si="10"/>
+        <v>21953.953010845471</v>
       </c>
       <c r="S26" s="43">
-        <f>+Q26-R26</f>
-        <v>-3250.3358563246838</v>
+        <f t="shared" si="5"/>
+        <v>-21953.953010845471</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -11854,7 +12193,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="51">
-        <f>IF(B26&lt;$C$7,INT(B26*$C$8)+B26,$C$7)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C27" s="43">
@@ -11863,42 +12202,42 @@
       </c>
       <c r="D27" s="43">
         <f>'COSTOS FIJOS'!G15</f>
-        <v>0</v>
+        <v>1605.22</v>
       </c>
       <c r="E27" s="43">
         <f>'COSTOS VARIABLES'!G15</f>
         <v>0</v>
       </c>
       <c r="F27" s="50">
-        <f>+B26*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G27" s="43">
-        <f>+F27*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="49">
-        <f>+C27+D27+E27+G27</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1605.22</v>
       </c>
       <c r="J27" s="47">
         <f>+J26+F27+'Otros Ingresos'!D17</f>
         <v>0</v>
       </c>
       <c r="K27" s="46">
-        <f>+K26+H27</f>
-        <v>3274.1000000000004</v>
+        <f t="shared" si="7"/>
+        <v>23710.937827000002</v>
       </c>
       <c r="L27" s="56">
-        <f>+J27-K27</f>
-        <v>-3274.1000000000004</v>
+        <f t="shared" si="2"/>
+        <v>-23710.937827000002</v>
       </c>
       <c r="M27" s="44">
-        <f>(1+TasaMensual)^N27</f>
+        <f t="shared" si="3"/>
         <v>1.0146760322542943</v>
       </c>
       <c r="N27" s="3">
-        <f>+N26+1</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="O27" s="43">
@@ -11906,20 +12245,20 @@
         <v>0</v>
       </c>
       <c r="P27" s="43">
-        <f>+H27/M27</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1582.0024805687988</v>
       </c>
       <c r="Q27" s="43">
-        <f>+Q26+O27</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R27" s="43">
-        <f>+R26+P27</f>
-        <v>3250.3358563246838</v>
+        <f t="shared" si="10"/>
+        <v>23535.955491414268</v>
       </c>
       <c r="S27" s="43">
-        <f>+Q27-R27</f>
-        <v>-3250.3358563246838</v>
+        <f t="shared" si="5"/>
+        <v>-23535.955491414268</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -11927,7 +12266,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="51">
-        <f>IF(B27&lt;$C$7,INT(B27*$C$8)+B27,$C$7)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C28" s="43">
@@ -11936,42 +12275,42 @@
       </c>
       <c r="D28" s="43">
         <f>'COSTOS FIJOS'!G16</f>
-        <v>0</v>
+        <v>1659.1100000000001</v>
       </c>
       <c r="E28" s="43">
         <f>'COSTOS VARIABLES'!G16</f>
         <v>6548.2000000000007</v>
       </c>
       <c r="F28" s="50">
-        <f>+B27*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G28" s="43">
-        <f>+F28*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="49">
-        <f>+C28+D28+E28+G28</f>
-        <v>6548.2000000000007</v>
+        <f t="shared" si="1"/>
+        <v>8207.3100000000013</v>
       </c>
       <c r="J28" s="47">
         <f>+J27+F28+'Otros Ingresos'!D18</f>
         <v>0</v>
       </c>
       <c r="K28" s="46">
-        <f>+K27+H28</f>
-        <v>9822.3000000000011</v>
+        <f t="shared" si="7"/>
+        <v>31918.247827000003</v>
       </c>
       <c r="L28" s="57">
-        <f>+J28-K28</f>
-        <v>-9822.3000000000011</v>
+        <f t="shared" si="2"/>
+        <v>-31918.247827000003</v>
       </c>
       <c r="M28" s="44">
-        <f>(1+TasaMensual)^N28</f>
+        <f t="shared" si="3"/>
         <v>1.0161554299093212</v>
       </c>
       <c r="N28" s="3">
-        <f>+N27+1</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="O28" s="43">
@@ -11979,20 +12318,20 @@
         <v>0</v>
       </c>
       <c r="P28" s="43">
-        <f>+H28/M28</f>
-        <v>6444.0929086845936</v>
+        <f t="shared" si="4"/>
+        <v>8076.8254131480635</v>
       </c>
       <c r="Q28" s="43">
-        <f>+Q27+O28</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R28" s="43">
-        <f>+R27+P28</f>
-        <v>9694.4287650092774</v>
+        <f t="shared" si="10"/>
+        <v>31612.780904562333</v>
       </c>
       <c r="S28" s="43">
-        <f>+Q28-R28</f>
-        <v>-9694.4287650092774</v>
+        <f t="shared" si="5"/>
+        <v>-31612.780904562333</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -12000,7 +12339,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="51">
-        <f>IF(B28&lt;$C$7,INT(B28*$C$8)+B28,$C$7)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C29" s="43">
@@ -12009,23 +12348,23 @@
       </c>
       <c r="D29" s="43">
         <f>'COSTOS FIJOS'!G17</f>
-        <v>0</v>
+        <v>2026.2999999999997</v>
       </c>
       <c r="E29" s="43">
         <f>'COSTOS VARIABLES'!G17</f>
         <v>0</v>
       </c>
       <c r="F29" s="50">
-        <f>+B28*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G29" s="43">
-        <f>+F29*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="49">
-        <f>+C29+D29+E29+G29</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2026.2999999999997</v>
       </c>
       <c r="I29" s="48">
         <f>[1]Impuestos!B11</f>
@@ -12037,18 +12376,18 @@
       </c>
       <c r="K29" s="46">
         <f>+K28+H29+I29</f>
-        <v>9822.3000000000011</v>
+        <v>33944.547827000002</v>
       </c>
       <c r="L29" s="56">
-        <f>+J29-K29</f>
-        <v>-9822.3000000000011</v>
+        <f t="shared" si="2"/>
+        <v>-33944.547827000002</v>
       </c>
       <c r="M29" s="44">
-        <f>(1+TasaMensual)^N29</f>
+        <f t="shared" si="3"/>
         <v>1.0176369845261288</v>
       </c>
       <c r="N29" s="3">
-        <f>+N28+1</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="O29" s="43">
@@ -12057,19 +12396,19 @@
       </c>
       <c r="P29" s="43">
         <f>+(H29+I29)/M29</f>
-        <v>0</v>
+        <v>1991.1815616091856</v>
       </c>
       <c r="Q29" s="43">
-        <f>+Q28+O29</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R29" s="43">
-        <f>+R28+P29</f>
-        <v>9694.4287650092774</v>
+        <f t="shared" si="10"/>
+        <v>33603.962466171521</v>
       </c>
       <c r="S29" s="43">
-        <f>+Q29-R29</f>
-        <v>-9694.4287650092774</v>
+        <f t="shared" si="5"/>
+        <v>-33603.962466171521</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -12077,7 +12416,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="51">
-        <f>IF(B29&lt;$C$7,INT(B29*$C$8)+B29,$C$7)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C30" s="43">
@@ -12086,42 +12425,42 @@
       </c>
       <c r="D30" s="43">
         <f>'COSTOS FIJOS'!G18</f>
-        <v>0</v>
+        <v>1272.3780000000002</v>
       </c>
       <c r="E30" s="43">
         <f>'COSTOS VARIABLES'!G18</f>
         <v>0</v>
       </c>
       <c r="F30" s="50">
-        <f>+B29*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G30" s="43">
-        <f>+F30*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="49">
-        <f>+C30+D30+E30+G30</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1272.3780000000002</v>
       </c>
       <c r="J30" s="47">
         <f>+J29+F30+'Otros Ingresos'!D20</f>
         <v>0</v>
       </c>
       <c r="K30" s="46">
-        <f>+K29+H30</f>
-        <v>9822.3000000000011</v>
+        <f t="shared" ref="K30:K39" si="12">+K29+H30</f>
+        <v>35216.925826999999</v>
       </c>
       <c r="L30" s="56">
-        <f>+J30-K30</f>
-        <v>-9822.3000000000011</v>
+        <f t="shared" si="2"/>
+        <v>-35216.925826999999</v>
       </c>
       <c r="M30" s="44">
-        <f>(1+TasaMensual)^N30</f>
+        <f t="shared" si="3"/>
         <v>1.0191206992495678</v>
       </c>
       <c r="N30" s="3">
-        <f>+N29+1</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="O30" s="43">
@@ -12129,20 +12468,20 @@
         <v>0</v>
       </c>
       <c r="P30" s="43">
-        <f>+H30/M30</f>
-        <v>0</v>
+        <f t="shared" ref="P30:P38" si="13">+H30/M30</f>
+        <v>1248.5056980364729</v>
       </c>
       <c r="Q30" s="43">
-        <f>+Q29+O30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R30" s="43">
-        <f>+R29+P30</f>
-        <v>9694.4287650092774</v>
+        <f t="shared" si="10"/>
+        <v>34852.468164207996</v>
       </c>
       <c r="S30" s="43">
-        <f>+Q30-R30</f>
-        <v>-9694.4287650092774</v>
+        <f t="shared" si="5"/>
+        <v>-34852.468164207996</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -12150,7 +12489,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="51">
-        <f>IF(B30&lt;$C$7,INT(B30*$C$8)+B30,$C$7)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C31" s="43">
@@ -12159,42 +12498,42 @@
       </c>
       <c r="D31" s="43">
         <f>'COSTOS FIJOS'!G19</f>
-        <v>0</v>
+        <v>1344.98</v>
       </c>
       <c r="E31" s="43">
         <f>'COSTOS VARIABLES'!G19</f>
         <v>0</v>
       </c>
       <c r="F31" s="50">
-        <f>+B30*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G31" s="43">
-        <f>+F31*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="49">
-        <f>+C31+D31+E31+G31</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1344.98</v>
       </c>
       <c r="J31" s="47">
         <f>+J30+F31+'Otros Ingresos'!D21</f>
         <v>0</v>
       </c>
       <c r="K31" s="46">
-        <f>+K30+H31</f>
-        <v>9822.3000000000011</v>
+        <f t="shared" si="12"/>
+        <v>36561.905827000002</v>
       </c>
       <c r="L31" s="56">
-        <f>+J31-K31</f>
-        <v>-9822.3000000000011</v>
+        <f t="shared" si="2"/>
+        <v>-36561.905827000002</v>
       </c>
       <c r="M31" s="44">
-        <f>(1+TasaMensual)^N31</f>
+        <f t="shared" si="3"/>
         <v>1.0206065772290736</v>
       </c>
       <c r="N31" s="3">
-        <f>+N30+1</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="O31" s="43">
@@ -12202,20 +12541,20 @@
         <v>0</v>
       </c>
       <c r="P31" s="43">
-        <f>+H31/M31</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1317.8241547801836</v>
       </c>
       <c r="Q31" s="43">
-        <f>+Q30+O31</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R31" s="43">
-        <f>+R30+P31</f>
-        <v>9694.4287650092774</v>
+        <f t="shared" si="10"/>
+        <v>36170.292318988177</v>
       </c>
       <c r="S31" s="43">
-        <f>+Q31-R31</f>
-        <v>-9694.4287650092774</v>
+        <f t="shared" si="5"/>
+        <v>-36170.292318988177</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -12223,7 +12562,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="51">
-        <f>IF(B31&lt;$C$7,INT(B31*$C$8)+B31,$C$7)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C32" s="43">
@@ -12232,42 +12571,42 @@
       </c>
       <c r="D32" s="43">
         <f>'COSTOS FIJOS'!G20</f>
-        <v>0</v>
+        <v>1446.8999999999999</v>
       </c>
       <c r="E32" s="43">
         <f>'COSTOS VARIABLES'!G20</f>
         <v>0</v>
       </c>
       <c r="F32" s="50">
-        <f>+B31*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G32" s="43">
-        <f>+F32*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="49">
-        <f>+C32+D32+E32+G32</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1446.8999999999999</v>
       </c>
       <c r="J32" s="47">
         <f>+J31+F32+'Otros Ingresos'!D22</f>
         <v>0</v>
       </c>
       <c r="K32" s="46">
-        <f>+K31+H32</f>
-        <v>9822.3000000000011</v>
+        <f t="shared" si="12"/>
+        <v>38008.805827000004</v>
       </c>
       <c r="L32" s="56">
-        <f>+J32-K32</f>
-        <v>-9822.3000000000011</v>
+        <f t="shared" si="2"/>
+        <v>-38008.805827000004</v>
       </c>
       <c r="M32" s="44">
-        <f>(1+TasaMensual)^N32</f>
+        <f t="shared" si="3"/>
         <v>1.0220946216186735</v>
       </c>
       <c r="N32" s="3">
-        <f>+N31+1</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="O32" s="43">
@@ -12275,20 +12614,20 @@
         <v>0</v>
       </c>
       <c r="P32" s="43">
-        <f>+H32/M32</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1415.6223596094944</v>
       </c>
       <c r="Q32" s="43">
-        <f>+Q31+O32</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R32" s="43">
-        <f>+R31+P32</f>
-        <v>9694.4287650092774</v>
+        <f t="shared" si="10"/>
+        <v>37585.91467859767</v>
       </c>
       <c r="S32" s="43">
-        <f>+Q32-R32</f>
-        <v>-9694.4287650092774</v>
+        <f t="shared" si="5"/>
+        <v>-37585.91467859767</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -12296,7 +12635,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="51">
-        <f>IF(B32&lt;$C$7,INT(B32*$C$8)+B32,$C$7)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C33" s="43">
@@ -12305,42 +12644,42 @@
       </c>
       <c r="D33" s="43">
         <f>'COSTOS FIJOS'!G21</f>
-        <v>0</v>
+        <v>839.8</v>
       </c>
       <c r="E33" s="43">
         <f>'COSTOS VARIABLES'!G21</f>
         <v>0</v>
       </c>
       <c r="F33" s="50">
-        <f>+B32*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G33" s="43">
-        <f>+F33*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="49">
-        <f>+C33+D33+E33+G33</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>839.8</v>
       </c>
       <c r="J33" s="47">
         <f>+J32+F33+'Otros Ingresos'!D23</f>
         <v>0</v>
       </c>
       <c r="K33" s="46">
-        <f>+K32+H33</f>
-        <v>9822.3000000000011</v>
+        <f t="shared" si="12"/>
+        <v>38848.605827000007</v>
       </c>
       <c r="L33" s="56">
-        <f>+J33-K33</f>
-        <v>-9822.3000000000011</v>
+        <f t="shared" si="2"/>
+        <v>-38848.605827000007</v>
       </c>
       <c r="M33" s="44">
-        <f>(1+TasaMensual)^N33</f>
+        <f t="shared" si="3"/>
         <v>1.0235848355769934</v>
       </c>
       <c r="N33" s="3">
-        <f>+N32+1</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="O33" s="43">
@@ -12348,20 +12687,20 @@
         <v>0</v>
       </c>
       <c r="P33" s="43">
-        <f>+H33/M33</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>820.4498257602711</v>
       </c>
       <c r="Q33" s="43">
-        <f>+Q32+O33</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R33" s="43">
-        <f>+R32+P33</f>
-        <v>9694.4287650092774</v>
+        <f t="shared" si="10"/>
+        <v>38406.364504357938</v>
       </c>
       <c r="S33" s="43">
-        <f>+Q33-R33</f>
-        <v>-9694.4287650092774</v>
+        <f t="shared" si="5"/>
+        <v>-38406.364504357938</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -12369,7 +12708,7 @@
         <v>18</v>
       </c>
       <c r="B34" s="51">
-        <f>IF(B33&lt;$C$7,INT(B33*$C$8)+B33,$C$7)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C34" s="43">
@@ -12378,42 +12717,42 @@
       </c>
       <c r="D34" s="43">
         <f>'COSTOS FIJOS'!G22</f>
-        <v>0</v>
+        <v>769.59999999999991</v>
       </c>
       <c r="E34" s="43">
         <f>'COSTOS VARIABLES'!G22</f>
         <v>6548.2000000000007</v>
       </c>
       <c r="F34" s="50">
-        <f>+B33*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34" s="43">
-        <f>+F34*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34" s="49">
-        <f>+C34+D34+E34+G34</f>
-        <v>6548.2000000000007</v>
+        <f t="shared" si="1"/>
+        <v>7317.8000000000011</v>
       </c>
       <c r="J34" s="47">
         <f>+J33+F34+'Otros Ingresos'!D24</f>
         <v>0</v>
       </c>
       <c r="K34" s="46">
-        <f>+K33+H34</f>
-        <v>16370.500000000002</v>
+        <f t="shared" si="12"/>
+        <v>46166.40582700001</v>
       </c>
       <c r="L34" s="57">
-        <f>+J34-K34</f>
-        <v>-16370.500000000002</v>
+        <f t="shared" si="2"/>
+        <v>-46166.40582700001</v>
       </c>
       <c r="M34" s="44">
-        <f>(1+TasaMensual)^N34</f>
+        <f t="shared" si="3"/>
         <v>1.0250772222672646</v>
       </c>
       <c r="N34" s="3">
-        <f>+N33+1</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="O34" s="43">
@@ -12421,20 +12760,20 @@
         <v>0</v>
       </c>
       <c r="P34" s="43">
-        <f>+H34/M34</f>
-        <v>6388.0065401479696</v>
+        <f t="shared" si="13"/>
+        <v>7138.7792461279159</v>
       </c>
       <c r="Q34" s="43">
-        <f>+Q33+O34</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R34" s="43">
-        <f>+R33+P34</f>
-        <v>16082.435305157247</v>
+        <f t="shared" si="10"/>
+        <v>45545.143750485855</v>
       </c>
       <c r="S34" s="43">
-        <f>+Q34-R34</f>
-        <v>-16082.435305157247</v>
+        <f t="shared" si="5"/>
+        <v>-45545.143750485855</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -12450,42 +12789,42 @@
       </c>
       <c r="D35" s="43">
         <f>'COSTOS FIJOS'!G23</f>
-        <v>0</v>
+        <v>975.22</v>
       </c>
       <c r="E35" s="43">
         <f>'COSTOS VARIABLES'!G23</f>
         <v>0</v>
       </c>
       <c r="F35" s="50">
-        <f>+B34*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G35" s="43">
-        <f>+F35*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35" s="49">
-        <f>+C35+D35+E35+G35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>975.22</v>
       </c>
       <c r="J35" s="47">
         <f>+J34+F35+'Otros Ingresos'!D25</f>
         <v>0</v>
       </c>
       <c r="K35" s="46">
-        <f>+K34+H35</f>
-        <v>16370.500000000002</v>
+        <f t="shared" si="12"/>
+        <v>47141.625827000011</v>
       </c>
       <c r="L35" s="56">
-        <f>+J35-K35</f>
-        <v>-16370.500000000002</v>
+        <f t="shared" si="2"/>
+        <v>-47141.625827000011</v>
       </c>
       <c r="M35" s="44">
-        <f>(1+TasaMensual)^N35</f>
+        <f t="shared" si="3"/>
         <v>1.0265717848573301</v>
       </c>
       <c r="N35" s="3">
-        <f>+N34+1</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="O35" s="43">
@@ -12493,20 +12832,20 @@
         <v>0</v>
       </c>
       <c r="P35" s="43">
-        <f>+H35/M35</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>949.9774047808387</v>
       </c>
       <c r="Q35" s="43">
-        <f>+Q34+O35</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R35" s="43">
-        <f>+R34+P35</f>
-        <v>16082.435305157247</v>
+        <f t="shared" si="10"/>
+        <v>46495.121155266694</v>
       </c>
       <c r="S35" s="43">
-        <f>+Q35-R35</f>
-        <v>-16082.435305157247</v>
+        <f t="shared" si="5"/>
+        <v>-46495.121155266694</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -12529,15 +12868,15 @@
         <v>0</v>
       </c>
       <c r="F36" s="50">
-        <f>+B35*$C$6</f>
+        <f t="shared" si="6"/>
         <v>42473.1</v>
       </c>
       <c r="G36" s="43">
-        <f>+F36*0.03</f>
+        <f t="shared" si="0"/>
         <v>1274.193</v>
       </c>
       <c r="H36" s="49">
-        <f>+C36+D36+E36+G36</f>
+        <f t="shared" si="1"/>
         <v>1274.193</v>
       </c>
       <c r="J36" s="47">
@@ -12545,19 +12884,19 @@
         <v>42473.1</v>
       </c>
       <c r="K36" s="46">
-        <f>+K35+H36</f>
-        <v>17644.693000000003</v>
+        <f t="shared" si="12"/>
+        <v>48415.81882700001</v>
       </c>
       <c r="L36" s="56">
-        <f>+J36-K36</f>
-        <v>24828.406999999996</v>
+        <f t="shared" si="2"/>
+        <v>-5942.7188270000115</v>
       </c>
       <c r="M36" s="44">
-        <f>(1+TasaMensual)^N36</f>
+        <f t="shared" si="3"/>
         <v>1.0280685265196523</v>
       </c>
       <c r="N36" s="3">
-        <f>+N35+1</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="O36" s="43">
@@ -12565,20 +12904,20 @@
         <v>41313.491177271339</v>
       </c>
       <c r="P36" s="43">
-        <f>+H36/M36</f>
+        <f t="shared" si="13"/>
         <v>1239.4047353181402</v>
       </c>
       <c r="Q36" s="43">
-        <f>+Q35+O36</f>
+        <f t="shared" si="9"/>
         <v>41313.491177271339</v>
       </c>
       <c r="R36" s="43">
-        <f>+R35+P36</f>
-        <v>17321.840040475388</v>
+        <f t="shared" si="10"/>
+        <v>47734.525890584831</v>
       </c>
       <c r="S36" s="43">
-        <f>+Q36-R36</f>
-        <v>23991.65113679595</v>
+        <f t="shared" si="5"/>
+        <v>-6421.0347133134928</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -12594,42 +12933,42 @@
       </c>
       <c r="D37" s="43">
         <f>'COSTOS FIJOS'!G25</f>
-        <v>0</v>
+        <v>30771.125826999996</v>
       </c>
       <c r="E37" s="43">
         <f>'COSTOS VARIABLES'!G25</f>
         <v>0</v>
       </c>
       <c r="F37" s="50">
-        <f>+B36*$C$6</f>
+        <f t="shared" si="6"/>
         <v>28315.4</v>
       </c>
       <c r="G37" s="43">
-        <f>+F37*0.03</f>
+        <f t="shared" si="0"/>
         <v>849.46199999999999</v>
       </c>
       <c r="H37" s="49">
-        <f>+C37+D37+E37+G37</f>
-        <v>849.46199999999999</v>
+        <f t="shared" si="1"/>
+        <v>31620.587826999996</v>
       </c>
       <c r="J37" s="47">
         <f>+J36+F37+'Otros Ingresos'!D27</f>
         <v>70788.5</v>
       </c>
       <c r="K37" s="46">
-        <f>+K36+H37</f>
-        <v>18494.155000000002</v>
+        <f t="shared" si="12"/>
+        <v>80036.406654000006</v>
       </c>
       <c r="L37" s="56">
-        <f>+J37-K37</f>
-        <v>52294.345000000001</v>
+        <f t="shared" si="2"/>
+        <v>-9247.9066540000058</v>
       </c>
       <c r="M37" s="44">
-        <f>(1+TasaMensual)^N37</f>
+        <f t="shared" si="3"/>
         <v>1.0295674504313177</v>
       </c>
       <c r="N37" s="3">
-        <f>+N36+1</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="O37" s="43">
@@ -12637,20 +12976,20 @@
         <v>27502.229201338683</v>
       </c>
       <c r="P37" s="43">
-        <f>+H37/M37</f>
-        <v>825.06687604016042</v>
+        <f t="shared" si="13"/>
+        <v>30712.497577262326</v>
       </c>
       <c r="Q37" s="43">
-        <f>+Q36+O37</f>
+        <f t="shared" si="9"/>
         <v>68815.720378610014</v>
       </c>
       <c r="R37" s="43">
-        <f>+R36+P37</f>
-        <v>18146.906916515549</v>
+        <f t="shared" si="10"/>
+        <v>78447.023467847161</v>
       </c>
       <c r="S37" s="43">
-        <f>+Q37-R37</f>
-        <v>50668.813462094462</v>
+        <f t="shared" si="5"/>
+        <v>-9631.3030892371462</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -12673,15 +13012,15 @@
         <v>0</v>
       </c>
       <c r="F38" s="50">
-        <f>+B37*$C$6</f>
+        <f t="shared" si="6"/>
         <v>14157.7</v>
       </c>
       <c r="G38" s="43">
-        <f>+F38*0.03</f>
+        <f t="shared" si="0"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H38" s="49">
-        <f>+C38+D38+E38+G38</f>
+        <f t="shared" si="1"/>
         <v>424.73099999999999</v>
       </c>
       <c r="J38" s="47">
@@ -12689,19 +13028,19 @@
         <v>84946.2</v>
       </c>
       <c r="K38" s="46">
-        <f>+K37+H38</f>
-        <v>18918.886000000002</v>
+        <f t="shared" si="12"/>
+        <v>80461.137654000006</v>
       </c>
       <c r="L38" s="56">
-        <f>+J38-K38</f>
-        <v>66027.313999999998</v>
+        <f t="shared" si="2"/>
+        <v>4485.0623459999915</v>
       </c>
       <c r="M38" s="44">
-        <f>(1+TasaMensual)^N38</f>
+        <f t="shared" si="3"/>
         <v>1.0310685597740465</v>
       </c>
       <c r="N38" s="3">
-        <f>+N37+1</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="O38" s="43">
@@ -12709,20 +13048,20 @@
         <v>13731.094664648284</v>
       </c>
       <c r="P38" s="43">
-        <f>+H38/M38</f>
+        <f t="shared" si="13"/>
         <v>411.93283993944851</v>
       </c>
       <c r="Q38" s="43">
-        <f>+Q37+O38</f>
+        <f t="shared" si="9"/>
         <v>82546.815043258306</v>
       </c>
       <c r="R38" s="43">
-        <f>+R37+P38</f>
-        <v>18558.839756454996</v>
+        <f t="shared" si="10"/>
+        <v>78858.956307786604</v>
       </c>
       <c r="S38" s="43">
-        <f>+Q38-R38</f>
-        <v>63987.97528680331</v>
+        <f t="shared" si="5"/>
+        <v>3687.8587354717019</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -12745,15 +13084,15 @@
         <v>0</v>
       </c>
       <c r="F39" s="50">
-        <f>+B38*$C$6</f>
+        <f t="shared" si="6"/>
         <v>14157.7</v>
       </c>
       <c r="G39" s="43">
-        <f>+F39*0.03</f>
+        <f t="shared" si="0"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H39" s="49">
-        <f>+C39+D39+E39+G39</f>
+        <f t="shared" si="1"/>
         <v>424.73099999999999</v>
       </c>
       <c r="J39" s="47">
@@ -12761,19 +13100,19 @@
         <v>99103.9</v>
       </c>
       <c r="K39" s="46">
-        <f>+K38+H39</f>
-        <v>19343.617000000002</v>
+        <f t="shared" si="12"/>
+        <v>80885.868654000005</v>
       </c>
       <c r="L39" s="56">
-        <f>+J39-K39</f>
-        <v>79760.282999999996</v>
+        <f t="shared" si="2"/>
+        <v>18218.031345999989</v>
       </c>
       <c r="M39" s="44">
-        <f>(1+TasaMensual)^N39</f>
+        <f t="shared" si="3"/>
         <v>1.0325718577341971</v>
       </c>
       <c r="N39" s="3">
-        <f>+N38+1</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="O39" s="43">
@@ -12785,16 +13124,16 @@
         <v>411.33311625594729</v>
       </c>
       <c r="Q39" s="43">
-        <f>+Q38+O39</f>
+        <f t="shared" si="9"/>
         <v>96257.918918456548</v>
       </c>
       <c r="R39" s="43">
-        <f>+R38+P39</f>
-        <v>18970.172872710944</v>
+        <f t="shared" si="10"/>
+        <v>79270.289424042552</v>
       </c>
       <c r="S39" s="43">
-        <f>+Q39-R39</f>
-        <v>77287.746045745604</v>
+        <f t="shared" si="5"/>
+        <v>16987.629494413995</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -12817,15 +13156,15 @@
         <v>6548.2000000000007</v>
       </c>
       <c r="F40" s="50">
-        <f>+B39*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G40" s="43">
-        <f>+F40*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H40" s="49">
-        <f>+C40+D40+E40+G40</f>
+        <f t="shared" si="1"/>
         <v>6548.2000000000007</v>
       </c>
       <c r="I40" s="48">
@@ -12838,18 +13177,18 @@
       </c>
       <c r="K40" s="46">
         <f>+K39+H40+I40</f>
-        <v>54953.851049999997</v>
+        <v>116496.10270399999</v>
       </c>
       <c r="L40" s="57">
-        <f>+J40-K40</f>
-        <v>44150.048949999997</v>
+        <f t="shared" si="2"/>
+        <v>-17392.202703999996</v>
       </c>
       <c r="M40" s="44">
-        <f>(1+TasaMensual)^N40</f>
+        <f t="shared" si="3"/>
         <v>1.0340773475027734</v>
       </c>
       <c r="N40" s="3">
-        <f>+N39+1</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="O40" s="43">
@@ -12861,16 +13200,16 @@
         <v>34436.721910596243</v>
       </c>
       <c r="Q40" s="43">
-        <f>+Q39+O40</f>
+        <f t="shared" si="9"/>
         <v>96257.918918456548</v>
       </c>
       <c r="R40" s="43">
-        <f>+R39+P40</f>
-        <v>53406.894783307187</v>
+        <f t="shared" si="10"/>
+        <v>113707.0113346388</v>
       </c>
       <c r="S40" s="43">
-        <f>+Q40-R40</f>
-        <v>42851.024135149361</v>
+        <f t="shared" si="5"/>
+        <v>-17449.092416182248</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -12893,15 +13232,15 @@
         <v>0</v>
       </c>
       <c r="F41" s="50">
-        <f>+B40*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G41" s="43">
-        <f>+F41*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="49">
-        <f>+C41+D41+E41+G41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41" s="47">
@@ -12909,19 +13248,19 @@
         <v>99103.9</v>
       </c>
       <c r="K41" s="46">
-        <f>+K40+H41</f>
-        <v>54953.851049999997</v>
+        <f t="shared" ref="K41:K51" si="14">+K40+H41</f>
+        <v>116496.10270399999</v>
       </c>
       <c r="L41" s="56">
-        <f>+J41-K41</f>
-        <v>44150.048949999997</v>
+        <f t="shared" si="2"/>
+        <v>-17392.202703999996</v>
       </c>
       <c r="M41" s="44">
-        <f>(1+TasaMensual)^N41</f>
+        <f t="shared" si="3"/>
         <v>1.0355850322754323</v>
       </c>
       <c r="N41" s="3">
-        <f>+N40+1</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="O41" s="43">
@@ -12929,20 +13268,20 @@
         <v>0</v>
       </c>
       <c r="P41" s="43">
-        <f>+H41/M41</f>
+        <f t="shared" ref="P41:P51" si="15">+H41/M41</f>
         <v>0</v>
       </c>
       <c r="Q41" s="43">
-        <f>+Q40+O41</f>
+        <f t="shared" si="9"/>
         <v>96257.918918456548</v>
       </c>
       <c r="R41" s="43">
-        <f>+R40+P41</f>
-        <v>53406.894783307187</v>
+        <f t="shared" si="10"/>
+        <v>113707.0113346388</v>
       </c>
       <c r="S41" s="43">
-        <f>+Q41-R41</f>
-        <v>42851.024135149361</v>
+        <f t="shared" si="5"/>
+        <v>-17449.092416182248</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -12965,15 +13304,15 @@
         <v>0</v>
       </c>
       <c r="F42" s="50">
-        <f>+B41*$C$6</f>
+        <f t="shared" si="6"/>
         <v>56630.8</v>
       </c>
       <c r="G42" s="43">
-        <f>+F42*0.03</f>
+        <f t="shared" si="0"/>
         <v>1698.924</v>
       </c>
       <c r="H42" s="49">
-        <f>+C42+D42+E42+G42</f>
+        <f t="shared" si="1"/>
         <v>1698.924</v>
       </c>
       <c r="J42" s="47">
@@ -12981,19 +13320,19 @@
         <v>155734.70000000001</v>
       </c>
       <c r="K42" s="46">
-        <f>+K41+H42</f>
-        <v>56652.775049999997</v>
+        <f t="shared" si="14"/>
+        <v>118195.02670399999</v>
       </c>
       <c r="L42" s="56">
-        <f>+J42-K42</f>
-        <v>99081.924950000015</v>
+        <f t="shared" si="2"/>
+        <v>37539.673296000023</v>
       </c>
       <c r="M42" s="44">
-        <f>(1+TasaMensual)^N42</f>
+        <f t="shared" si="3"/>
         <v>1.03709491525249</v>
       </c>
       <c r="N42" s="3">
-        <f>+N41+1</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="O42" s="43">
@@ -13001,20 +13340,20 @@
         <v>54605.223848978887</v>
       </c>
       <c r="P42" s="43">
-        <f>+H42/M42</f>
+        <f t="shared" si="15"/>
         <v>1638.1567154693664</v>
       </c>
       <c r="Q42" s="43">
-        <f>+Q41+O42</f>
+        <f t="shared" si="9"/>
         <v>150863.14276743543</v>
       </c>
       <c r="R42" s="43">
-        <f>+R41+P42</f>
-        <v>55045.051498776556</v>
+        <f t="shared" si="10"/>
+        <v>115345.16805010816</v>
       </c>
       <c r="S42" s="43">
-        <f>+Q42-R42</f>
-        <v>95818.091268658871</v>
+        <f t="shared" si="5"/>
+        <v>35517.974717327277</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -13037,15 +13376,15 @@
         <v>0</v>
       </c>
       <c r="F43" s="50">
-        <f>+B42*$C$6</f>
+        <f t="shared" si="6"/>
         <v>14157.7</v>
       </c>
       <c r="G43" s="43">
-        <f>+F43*0.03</f>
+        <f t="shared" si="0"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H43" s="49">
-        <f>+C43+D43+E43+G43</f>
+        <f t="shared" si="1"/>
         <v>424.73099999999999</v>
       </c>
       <c r="J43" s="47">
@@ -13053,19 +13392,19 @@
         <v>169892.40000000002</v>
       </c>
       <c r="K43" s="46">
-        <f>+K42+H43</f>
-        <v>57077.506049999996</v>
+        <f t="shared" si="14"/>
+        <v>118619.75770399999</v>
       </c>
       <c r="L43" s="56">
-        <f>+J43-K43</f>
-        <v>112814.89395000003</v>
+        <f t="shared" si="2"/>
+        <v>51272.642296000035</v>
       </c>
       <c r="M43" s="44">
-        <f>(1+TasaMensual)^N43</f>
+        <f t="shared" si="3"/>
         <v>1.0386069996389278</v>
       </c>
       <c r="N43" s="3">
-        <f>+N42+1</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="O43" s="43">
@@ -13073,20 +13412,20 @@
         <v>13631.431335357775</v>
       </c>
       <c r="P43" s="43">
-        <f>+H43/M43</f>
+        <f t="shared" si="15"/>
         <v>408.94294006073318</v>
       </c>
       <c r="Q43" s="43">
-        <f>+Q42+O43</f>
+        <f t="shared" si="9"/>
         <v>164494.57410279321</v>
       </c>
       <c r="R43" s="43">
-        <f>+R42+P43</f>
-        <v>55453.99443883729</v>
+        <f t="shared" si="10"/>
+        <v>115754.11099016889</v>
       </c>
       <c r="S43" s="43">
-        <f>+Q43-R43</f>
-        <v>109040.57966395593</v>
+        <f t="shared" si="5"/>
+        <v>48740.463112624318</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -13109,15 +13448,15 @@
         <v>0</v>
       </c>
       <c r="F44" s="50">
-        <f>+B43*$C$6</f>
+        <f t="shared" si="6"/>
         <v>14157.7</v>
       </c>
       <c r="G44" s="43">
-        <f>+F44*0.03</f>
+        <f t="shared" si="0"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H44" s="49">
-        <f>+C44+D44+E44+G44</f>
+        <f t="shared" si="1"/>
         <v>424.73099999999999</v>
       </c>
       <c r="J44" s="47">
@@ -13125,19 +13464,19 @@
         <v>184050.10000000003</v>
       </c>
       <c r="K44" s="46">
-        <f>+K43+H44</f>
-        <v>57502.237049999996</v>
+        <f t="shared" si="14"/>
+        <v>119044.48870399999</v>
       </c>
       <c r="L44" s="56">
-        <f>+J44-K44</f>
-        <v>126547.86295000004</v>
+        <f t="shared" si="2"/>
+        <v>65005.611296000046</v>
       </c>
       <c r="M44" s="44">
-        <f>(1+TasaMensual)^N44</f>
+        <f t="shared" si="3"/>
         <v>1.0401212886444016</v>
       </c>
       <c r="N44" s="3">
-        <f>+N43+1</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="O44" s="43">
@@ -13145,20 +13484,20 @@
         <v>13611.585643489563</v>
       </c>
       <c r="P44" s="43">
-        <f>+H44/M44</f>
+        <f t="shared" si="15"/>
         <v>408.34756930468689</v>
       </c>
       <c r="Q44" s="43">
-        <f>+Q43+O44</f>
+        <f t="shared" si="9"/>
         <v>178106.15974628276</v>
       </c>
       <c r="R44" s="43">
-        <f>+R43+P44</f>
-        <v>55862.342008141975</v>
+        <f t="shared" si="10"/>
+        <v>116162.45855947358</v>
       </c>
       <c r="S44" s="43">
-        <f>+Q44-R44</f>
-        <v>122243.81773814079</v>
+        <f t="shared" si="5"/>
+        <v>61943.701186809179</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -13181,15 +13520,15 @@
         <v>0</v>
       </c>
       <c r="F45" s="50">
-        <f>+B44*$C$6</f>
+        <f t="shared" si="6"/>
         <v>14157.7</v>
       </c>
       <c r="G45" s="43">
-        <f>+F45*0.03</f>
+        <f t="shared" si="0"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H45" s="49">
-        <f>+C45+D45+E45+G45</f>
+        <f t="shared" si="1"/>
         <v>424.73099999999999</v>
       </c>
       <c r="J45" s="47">
@@ -13197,19 +13536,19 @@
         <v>198207.80000000005</v>
       </c>
       <c r="K45" s="46">
-        <f>+K44+H45</f>
-        <v>57926.968049999996</v>
+        <f t="shared" si="14"/>
+        <v>119469.21970399999</v>
       </c>
       <c r="L45" s="56">
-        <f>+J45-K45</f>
-        <v>140280.83195000005</v>
+        <f t="shared" si="2"/>
+        <v>78738.580296000058</v>
       </c>
       <c r="M45" s="44">
-        <f>(1+TasaMensual)^N45</f>
+        <f t="shared" si="3"/>
         <v>1.041637785483245</v>
       </c>
       <c r="N45" s="3">
-        <f>+N44+1</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="O45" s="43">
@@ -13217,20 +13556,20 @@
         <v>13591.768844514263</v>
       </c>
       <c r="P45" s="43">
-        <f>+H45/M45</f>
+        <f t="shared" si="15"/>
         <v>407.75306533542783</v>
       </c>
       <c r="Q45" s="43">
-        <f>+Q44+O45</f>
+        <f t="shared" si="9"/>
         <v>191697.92859079703</v>
       </c>
       <c r="R45" s="43">
-        <f>+R44+P45</f>
-        <v>56270.095073477401</v>
+        <f t="shared" si="10"/>
+        <v>116570.21162480902</v>
       </c>
       <c r="S45" s="43">
-        <f>+Q45-R45</f>
-        <v>135427.83351731964</v>
+        <f t="shared" si="5"/>
+        <v>75127.716965988016</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -13254,15 +13593,15 @@
         <v>9822.3000000000011</v>
       </c>
       <c r="F46" s="50">
-        <f>+B45*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G46" s="43">
-        <f>+F46*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H46" s="49">
-        <f>+C46+D46+E46+G46</f>
+        <f t="shared" si="1"/>
         <v>9822.3000000000011</v>
       </c>
       <c r="J46" s="47">
@@ -13270,19 +13609,19 @@
         <v>198207.80000000005</v>
       </c>
       <c r="K46" s="46">
-        <f>+K45+H46</f>
-        <v>67749.268049999999</v>
+        <f t="shared" si="14"/>
+        <v>129291.51970399999</v>
       </c>
       <c r="L46" s="57">
-        <f>+J46-K46</f>
-        <v>130458.53195000005</v>
+        <f t="shared" si="2"/>
+        <v>68916.280296000055</v>
       </c>
       <c r="M46" s="44">
-        <f>(1+TasaMensual)^N46</f>
+        <f t="shared" si="3"/>
         <v>1.0431564933744795</v>
       </c>
       <c r="N46" s="3">
-        <f>+N45+1</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="O46" s="43">
@@ -13290,20 +13629,20 @@
         <v>0</v>
       </c>
       <c r="P46" s="43">
-        <f>+H46/M46</f>
+        <f t="shared" si="15"/>
         <v>9415.9410044279175</v>
       </c>
       <c r="Q46" s="43">
-        <f>+Q45+O46</f>
+        <f t="shared" si="9"/>
         <v>191697.92859079703</v>
       </c>
       <c r="R46" s="43">
-        <f>+R45+P46</f>
-        <v>65686.036077905315</v>
+        <f t="shared" si="10"/>
+        <v>125986.15262923694</v>
       </c>
       <c r="S46" s="43">
-        <f>+Q46-R46</f>
-        <v>126011.89251289172</v>
+        <f t="shared" si="5"/>
+        <v>65711.775961560095</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -13326,15 +13665,15 @@
         <v>0</v>
       </c>
       <c r="F47" s="50">
-        <f>+B46*$C$6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G47" s="43">
-        <f>+F47*0.03</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H47" s="49">
-        <f>+C47+D47+E47+G47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47" s="47">
@@ -13342,19 +13681,19 @@
         <v>198207.80000000005</v>
       </c>
       <c r="K47" s="46">
-        <f>+K46+H47</f>
-        <v>67749.268049999999</v>
+        <f t="shared" si="14"/>
+        <v>129291.51970399999</v>
       </c>
       <c r="L47" s="56">
-        <f>+J47-K47</f>
-        <v>130458.53195000005</v>
+        <f t="shared" si="2"/>
+        <v>68916.280296000055</v>
       </c>
       <c r="M47" s="44">
-        <f>(1+TasaMensual)^N47</f>
+        <f t="shared" si="3"/>
         <v>1.0446774155418193</v>
       </c>
       <c r="N47" s="3">
-        <f>+N46+1</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="O47" s="43">
@@ -13362,20 +13701,20 @@
         <v>0</v>
       </c>
       <c r="P47" s="43">
-        <f>+H47/M47</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q47" s="43">
-        <f>+Q46+O47</f>
+        <f t="shared" si="9"/>
         <v>191697.92859079703</v>
       </c>
       <c r="R47" s="43">
-        <f>+R46+P47</f>
-        <v>65686.036077905315</v>
+        <f t="shared" si="10"/>
+        <v>125986.15262923694</v>
       </c>
       <c r="S47" s="43">
-        <f>+Q47-R47</f>
-        <v>126011.89251289172</v>
+        <f t="shared" si="5"/>
+        <v>65711.775961560095</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -13398,15 +13737,15 @@
         <v>0</v>
       </c>
       <c r="F48" s="50">
-        <f>+B47*$C$6</f>
+        <f t="shared" si="6"/>
         <v>28315.4</v>
       </c>
       <c r="G48" s="43">
-        <f>+F48*0.03</f>
+        <f t="shared" si="0"/>
         <v>849.46199999999999</v>
       </c>
       <c r="H48" s="49">
-        <f>+C48+D48+E48+G48</f>
+        <f t="shared" si="1"/>
         <v>849.46199999999999</v>
       </c>
       <c r="J48" s="47">
@@ -13414,19 +13753,19 @@
         <v>226523.20000000004</v>
       </c>
       <c r="K48" s="46">
-        <f>+K47+H48</f>
-        <v>68598.730049999998</v>
+        <f t="shared" si="14"/>
+        <v>130140.98170399999</v>
       </c>
       <c r="L48" s="56">
-        <f>+J48-K48</f>
-        <v>157924.46995000006</v>
+        <f t="shared" si="2"/>
+        <v>96382.21829600005</v>
       </c>
       <c r="M48" s="44">
-        <f>(1+TasaMensual)^N48</f>
+        <f t="shared" si="3"/>
         <v>1.0462005552136793</v>
       </c>
       <c r="N48" s="3">
-        <f>+N47+1</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="O48" s="43">
@@ -13434,20 +13773,20 @@
         <v>27064.982769213668</v>
       </c>
       <c r="P48" s="43">
-        <f>+H48/M48</f>
+        <f t="shared" si="15"/>
         <v>811.94948307640993</v>
       </c>
       <c r="Q48" s="43">
-        <f>+Q47+O48</f>
+        <f t="shared" si="9"/>
         <v>218762.91136001071</v>
       </c>
       <c r="R48" s="43">
-        <f>+R47+P48</f>
-        <v>66497.985560981731</v>
+        <f t="shared" si="10"/>
+        <v>126798.10211231335</v>
       </c>
       <c r="S48" s="43">
-        <f>+Q48-R48</f>
-        <v>152264.92579902898</v>
+        <f t="shared" si="5"/>
+        <v>91964.809247697354</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -13470,15 +13809,15 @@
         <v>0</v>
       </c>
       <c r="F49" s="50">
-        <f>+B48*$C$6</f>
+        <f t="shared" si="6"/>
         <v>14157.7</v>
       </c>
       <c r="G49" s="43">
-        <f>+F49*0.03</f>
+        <f t="shared" ref="G49:G76" si="16">+F49*0.03</f>
         <v>424.73099999999999</v>
       </c>
       <c r="H49" s="49">
-        <f>+C49+D49+E49+G49</f>
+        <f t="shared" ref="H49:H76" si="17">+C49+D49+E49+G49</f>
         <v>424.73099999999999</v>
       </c>
       <c r="J49" s="47">
@@ -13486,19 +13825,19 @@
         <v>240680.90000000005</v>
       </c>
       <c r="K49" s="46">
-        <f>+K48+H49</f>
-        <v>69023.461049999998</v>
+        <f t="shared" si="14"/>
+        <v>130565.71270399999</v>
       </c>
       <c r="L49" s="56">
-        <f>+J49-K49</f>
-        <v>171657.43895000004</v>
+        <f t="shared" ref="L49:L76" si="18">+J49-K49</f>
+        <v>110115.18729600006</v>
       </c>
       <c r="M49" s="44">
-        <f>(1+TasaMensual)^N49</f>
+        <f t="shared" ref="M49:M76" si="19">(1+TasaMensual)^N49</f>
         <v>1.0477259156231806</v>
       </c>
       <c r="N49" s="3">
-        <f>+N48+1</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="O49" s="43">
@@ -13506,20 +13845,20 @@
         <v>13512.789737170042</v>
       </c>
       <c r="P49" s="43">
-        <f>+H49/M49</f>
+        <f t="shared" si="15"/>
         <v>405.38369211510121</v>
       </c>
       <c r="Q49" s="43">
-        <f>+Q48+O49</f>
+        <f t="shared" si="9"/>
         <v>232275.70109718075</v>
       </c>
       <c r="R49" s="43">
-        <f>+R48+P49</f>
-        <v>66903.369253096826</v>
+        <f t="shared" si="10"/>
+        <v>127203.48580442845</v>
       </c>
       <c r="S49" s="43">
-        <f>+Q49-R49</f>
-        <v>165372.33184408391</v>
+        <f t="shared" ref="S49:S76" si="20">+Q49-R49</f>
+        <v>105072.2152927523</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -13542,15 +13881,15 @@
         <v>0</v>
       </c>
       <c r="F50" s="50">
-        <f>+B49*$C$6</f>
+        <f t="shared" ref="F50:F76" si="21">+B49*$C$6</f>
         <v>14157.7</v>
       </c>
       <c r="G50" s="43">
-        <f>+F50*0.03</f>
+        <f t="shared" si="16"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H50" s="49">
-        <f>+C50+D50+E50+G50</f>
+        <f t="shared" si="17"/>
         <v>424.73099999999999</v>
       </c>
       <c r="J50" s="47">
@@ -13558,19 +13897,19 @@
         <v>254838.60000000006</v>
       </c>
       <c r="K50" s="46">
-        <f>+K49+H50</f>
-        <v>69448.192049999998</v>
+        <f t="shared" si="14"/>
+        <v>130990.44370399999</v>
       </c>
       <c r="L50" s="56">
-        <f>+J50-K50</f>
-        <v>185390.40795000008</v>
+        <f t="shared" si="18"/>
+        <v>123848.15629600007</v>
       </c>
       <c r="M50" s="44">
-        <f>(1+TasaMensual)^N50</f>
+        <f t="shared" si="19"/>
         <v>1.0492535000081591</v>
       </c>
       <c r="N50" s="3">
-        <f>+N49+1</f>
+        <f t="shared" ref="N50:N76" si="22">+N49+1</f>
         <v>33</v>
       </c>
       <c r="O50" s="43">
@@ -13578,20 +13917,20 @@
         <v>13493.116772915133</v>
       </c>
       <c r="P50" s="43">
-        <f>+H50/M50</f>
+        <f t="shared" si="15"/>
         <v>404.79350318745401</v>
       </c>
       <c r="Q50" s="43">
-        <f>+Q49+O50</f>
+        <f t="shared" ref="Q50:Q76" si="23">+Q49+O50</f>
         <v>245768.81787009587</v>
       </c>
       <c r="R50" s="43">
-        <f>+R49+P50</f>
-        <v>67308.162756284277</v>
+        <f t="shared" ref="R50:R76" si="24">+R49+P50</f>
+        <v>127608.2793076159</v>
       </c>
       <c r="S50" s="43">
-        <f>+Q50-R50</f>
-        <v>178460.6551138116</v>
+        <f t="shared" si="20"/>
+        <v>118160.53856247997</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -13614,15 +13953,15 @@
         <v>0</v>
       </c>
       <c r="F51" s="50">
-        <f>+B50*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G51" s="43">
-        <f>+F51*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H51" s="49">
-        <f>+C51+D51+E51+G51</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J51" s="47">
@@ -13630,19 +13969,19 @@
         <v>254838.60000000006</v>
       </c>
       <c r="K51" s="46">
-        <f>+K50+H51</f>
-        <v>69448.192049999998</v>
+        <f t="shared" si="14"/>
+        <v>130990.44370399999</v>
       </c>
       <c r="L51" s="56">
-        <f>+J51-K51</f>
-        <v>185390.40795000008</v>
+        <f t="shared" si="18"/>
+        <v>123848.15629600007</v>
       </c>
       <c r="M51" s="44">
-        <f>(1+TasaMensual)^N51</f>
+        <f t="shared" si="19"/>
         <v>1.0507833116111709</v>
       </c>
       <c r="N51" s="3">
-        <f>+N50+1</f>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
       <c r="O51" s="43">
@@ -13650,20 +13989,20 @@
         <v>0</v>
       </c>
       <c r="P51" s="43">
-        <f>+H51/M51</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q51" s="43">
-        <f>+Q50+O51</f>
+        <f t="shared" si="23"/>
         <v>245768.81787009587</v>
       </c>
       <c r="R51" s="43">
-        <f>+R50+P51</f>
-        <v>67308.162756284277</v>
+        <f t="shared" si="24"/>
+        <v>127608.2793076159</v>
       </c>
       <c r="S51" s="43">
-        <f>+Q51-R51</f>
-        <v>178460.6551138116</v>
+        <f t="shared" si="20"/>
+        <v>118160.53856247997</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -13686,15 +14025,15 @@
         <v>6548.2000000000007</v>
       </c>
       <c r="F52" s="50">
-        <f>+B51*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G52" s="43">
-        <f>+F52*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H52" s="49">
-        <f>+C52+D52+E52+G52</f>
+        <f t="shared" si="17"/>
         <v>6548.2000000000007</v>
       </c>
       <c r="I52" s="48">
@@ -13707,18 +14046,18 @@
       </c>
       <c r="K52" s="46">
         <f>+K51+H52+I52</f>
-        <v>123138.6477</v>
+        <v>184680.89935399999</v>
       </c>
       <c r="L52" s="55">
-        <f>+J52-K52</f>
-        <v>131699.95230000006</v>
+        <f t="shared" si="18"/>
+        <v>70157.70064600007</v>
       </c>
       <c r="M52" s="44">
-        <f>(1+TasaMensual)^N52</f>
+        <f t="shared" si="19"/>
         <v>1.0523153536795</v>
       </c>
       <c r="N52" s="3">
-        <f>+N51+1</f>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="O52" s="43">
@@ -13730,16 +14069,16 @@
         <v>51021.260368640709</v>
       </c>
       <c r="Q52" s="43">
-        <f>+Q51+O52</f>
+        <f t="shared" si="23"/>
         <v>245768.81787009587</v>
       </c>
       <c r="R52" s="43">
-        <f>+R51+P52</f>
-        <v>118329.42312492499</v>
+        <f t="shared" si="24"/>
+        <v>178629.53967625659</v>
       </c>
       <c r="S52" s="53">
-        <f>+Q52-R52</f>
-        <v>127439.39474517088</v>
+        <f t="shared" si="20"/>
+        <v>67139.278193839273</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -13762,15 +14101,15 @@
         <v>0</v>
       </c>
       <c r="F53" s="50">
-        <f>+B52*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G53" s="43">
-        <f>+F53*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H53" s="49">
-        <f>+C53+D53+E53+G53</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I53" s="36"/>
@@ -13779,19 +14118,19 @@
         <v>254838.60000000006</v>
       </c>
       <c r="K53" s="46">
-        <f>+K52+H53</f>
-        <v>123138.6477</v>
+        <f t="shared" ref="K53:K63" si="25">+K52+H53</f>
+        <v>184680.89935399999</v>
       </c>
       <c r="L53" s="54">
-        <f>+J53-K53</f>
-        <v>131699.95230000006</v>
+        <f t="shared" si="18"/>
+        <v>70157.70064600007</v>
       </c>
       <c r="M53" s="44">
-        <f>(1+TasaMensual)^N53</f>
+        <f t="shared" si="19"/>
         <v>1.0538496294651647</v>
       </c>
       <c r="N53" s="3">
-        <f>+N52+1</f>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="O53" s="43">
@@ -13799,20 +14138,20 @@
         <v>0</v>
       </c>
       <c r="P53" s="43">
-        <f>+(H53)/M53</f>
+        <f t="shared" ref="P53:P63" si="26">+(H53)/M53</f>
         <v>0</v>
       </c>
       <c r="Q53" s="43">
-        <f>+Q52+O53</f>
+        <f t="shared" si="23"/>
         <v>245768.81787009587</v>
       </c>
       <c r="R53" s="43">
-        <f>+R52+P53</f>
-        <v>118329.42312492499</v>
+        <f t="shared" si="24"/>
+        <v>178629.53967625659</v>
       </c>
       <c r="S53" s="53">
-        <f>+Q53-R53</f>
-        <v>127439.39474517088</v>
+        <f t="shared" si="20"/>
+        <v>67139.278193839273</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -13835,15 +14174,15 @@
         <v>0</v>
       </c>
       <c r="F54" s="50">
-        <f>+B53*$C$6</f>
+        <f t="shared" si="21"/>
         <v>14157.7</v>
       </c>
       <c r="G54" s="43">
-        <f>+F54*0.03</f>
+        <f t="shared" si="16"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H54" s="49">
-        <f>+C54+D54+E54+G54</f>
+        <f t="shared" si="17"/>
         <v>424.73099999999999</v>
       </c>
       <c r="I54" s="36"/>
@@ -13852,19 +14191,19 @@
         <v>268996.30000000005</v>
       </c>
       <c r="K54" s="46">
-        <f>+K53+H54</f>
-        <v>123563.3787</v>
+        <f t="shared" si="25"/>
+        <v>185105.63035399999</v>
       </c>
       <c r="L54" s="54">
-        <f>+J54-K54</f>
-        <v>145432.92130000005</v>
+        <f t="shared" si="18"/>
+        <v>83890.669646000053</v>
       </c>
       <c r="M54" s="44">
-        <f>(1+TasaMensual)^N54</f>
+        <f t="shared" si="19"/>
         <v>1.0553861422249249</v>
       </c>
       <c r="N54" s="3">
-        <f>+N53+1</f>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="O54" s="43">
@@ -13872,20 +14211,20 @@
         <v>13414.710913441859</v>
       </c>
       <c r="P54" s="43">
-        <f>+(H54)/M54</f>
+        <f t="shared" si="26"/>
         <v>402.44132740325574</v>
       </c>
       <c r="Q54" s="43">
-        <f>+Q53+O54</f>
+        <f t="shared" si="23"/>
         <v>259183.52878353774</v>
       </c>
       <c r="R54" s="43">
-        <f>+R53+P54</f>
-        <v>118731.86445232824</v>
+        <f t="shared" si="24"/>
+        <v>179031.98100365984</v>
       </c>
       <c r="S54" s="53">
-        <f>+Q54-R54</f>
-        <v>140451.6643312095</v>
+        <f t="shared" si="20"/>
+        <v>80151.547779877903</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -13908,15 +14247,15 @@
         <v>0</v>
       </c>
       <c r="F55" s="50">
-        <f>+B54*$C$6</f>
+        <f t="shared" si="21"/>
         <v>14157.7</v>
       </c>
       <c r="G55" s="43">
-        <f>+F55*0.03</f>
+        <f t="shared" si="16"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H55" s="49">
-        <f>+C55+D55+E55+G55</f>
+        <f t="shared" si="17"/>
         <v>424.73099999999999</v>
       </c>
       <c r="I55" s="36"/>
@@ -13925,19 +14264,19 @@
         <v>283154.00000000006</v>
       </c>
       <c r="K55" s="46">
-        <f>+K54+H55</f>
-        <v>123988.1097</v>
+        <f t="shared" si="25"/>
+        <v>185530.36135399999</v>
       </c>
       <c r="L55" s="54">
-        <f>+J55-K55</f>
-        <v>159165.89030000006</v>
+        <f t="shared" si="18"/>
+        <v>97623.638646000065</v>
       </c>
       <c r="M55" s="44">
-        <f>(1+TasaMensual)^N55</f>
+        <f t="shared" si="19"/>
         <v>1.0569248952202888</v>
       </c>
       <c r="N55" s="3">
-        <f>+N54+1</f>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
       <c r="O55" s="43">
@@ -13945,20 +14284,20 @@
         <v>13395.180739923051</v>
       </c>
       <c r="P55" s="43">
-        <f>+(H55)/M55</f>
+        <f t="shared" si="26"/>
         <v>401.8554221976915</v>
       </c>
       <c r="Q55" s="43">
-        <f>+Q54+O55</f>
+        <f t="shared" si="23"/>
         <v>272578.70952346077</v>
       </c>
       <c r="R55" s="43">
-        <f>+R54+P55</f>
-        <v>119133.71987452594</v>
+        <f t="shared" si="24"/>
+        <v>179433.83642585753</v>
       </c>
       <c r="S55" s="53">
-        <f>+Q55-R55</f>
-        <v>153444.98964893483</v>
+        <f t="shared" si="20"/>
+        <v>93144.873097603238</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -13981,15 +14320,15 @@
         <v>0</v>
       </c>
       <c r="F56" s="50">
-        <f>+B55*$C$6</f>
+        <f t="shared" si="21"/>
         <v>14157.7</v>
       </c>
       <c r="G56" s="43">
-        <f>+F56*0.03</f>
+        <f t="shared" si="16"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H56" s="49">
-        <f>+C56+D56+E56+G56</f>
+        <f t="shared" si="17"/>
         <v>424.73099999999999</v>
       </c>
       <c r="I56" s="36"/>
@@ -13998,19 +14337,19 @@
         <v>297311.70000000007</v>
       </c>
       <c r="K56" s="46">
-        <f>+K55+H56</f>
-        <v>124412.8407</v>
+        <f t="shared" si="25"/>
+        <v>185955.09235399999</v>
       </c>
       <c r="L56" s="54">
-        <f>+J56-K56</f>
-        <v>172898.85930000007</v>
+        <f t="shared" si="18"/>
+        <v>111356.60764600008</v>
       </c>
       <c r="M56" s="44">
-        <f>(1+TasaMensual)^N56</f>
+        <f t="shared" si="19"/>
         <v>1.0584658917175198</v>
       </c>
       <c r="N56" s="3">
-        <f>+N55+1</f>
+        <f t="shared" si="22"/>
         <v>39</v>
       </c>
       <c r="O56" s="43">
@@ -14018,20 +14357,20 @@
         <v>13375.678999941138</v>
       </c>
       <c r="P56" s="43">
-        <f>+(H56)/M56</f>
+        <f t="shared" si="26"/>
         <v>401.27036999823412</v>
       </c>
       <c r="Q56" s="43">
-        <f>+Q55+O56</f>
+        <f t="shared" si="23"/>
         <v>285954.38852340193</v>
       </c>
       <c r="R56" s="43">
-        <f>+R55+P56</f>
-        <v>119534.99024452418</v>
+        <f t="shared" si="24"/>
+        <v>179835.10679585577</v>
       </c>
       <c r="S56" s="53">
-        <f>+Q56-R56</f>
-        <v>166419.39827887775</v>
+        <f t="shared" si="20"/>
+        <v>106119.28172754616</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -14054,15 +14393,15 @@
         <v>0</v>
       </c>
       <c r="F57" s="50">
-        <f>+B56*$C$6</f>
+        <f t="shared" si="21"/>
         <v>14157.7</v>
       </c>
       <c r="G57" s="43">
-        <f>+F57*0.03</f>
+        <f t="shared" si="16"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H57" s="49">
-        <f>+C57+D57+E57+G57</f>
+        <f t="shared" si="17"/>
         <v>424.73099999999999</v>
       </c>
       <c r="I57" s="36"/>
@@ -14071,19 +14410,19 @@
         <v>311469.40000000008</v>
       </c>
       <c r="K57" s="46">
-        <f>+K56+H57</f>
-        <v>124837.5717</v>
+        <f t="shared" si="25"/>
+        <v>186379.82335399999</v>
       </c>
       <c r="L57" s="54">
-        <f>+J57-K57</f>
-        <v>186631.82830000008</v>
+        <f t="shared" si="18"/>
+        <v>125089.57664600009</v>
       </c>
       <c r="M57" s="44">
-        <f>(1+TasaMensual)^N57</f>
+        <f t="shared" si="19"/>
         <v>1.0600091349876437</v>
       </c>
       <c r="N57" s="3">
-        <f>+N56+1</f>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="O57" s="43">
@@ -14091,20 +14430,20 @@
         <v>13356.20565210038</v>
       </c>
       <c r="P57" s="43">
-        <f>+(H57)/M57</f>
+        <f t="shared" si="26"/>
         <v>400.68616956301133</v>
       </c>
       <c r="Q57" s="43">
-        <f>+Q56+O57</f>
+        <f t="shared" si="23"/>
         <v>299310.59417550231</v>
       </c>
       <c r="R57" s="43">
-        <f>+R56+P57</f>
-        <v>119935.67641408718</v>
+        <f t="shared" si="24"/>
+        <v>180235.79296541878</v>
       </c>
       <c r="S57" s="53">
-        <f>+Q57-R57</f>
-        <v>179374.91776141513</v>
+        <f t="shared" si="20"/>
+        <v>119074.80121008353</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -14127,15 +14466,15 @@
         <v>6548.2000000000007</v>
       </c>
       <c r="F58" s="50">
-        <f>+B57*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G58" s="43">
-        <f>+F58*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H58" s="49">
-        <f>+C58+D58+E58+G58</f>
+        <f t="shared" si="17"/>
         <v>6548.2000000000007</v>
       </c>
       <c r="I58" s="36"/>
@@ -14144,19 +14483,19 @@
         <v>311469.40000000008</v>
       </c>
       <c r="K58" s="46">
-        <f>+K57+H58</f>
-        <v>131385.77170000001</v>
+        <f t="shared" si="25"/>
+        <v>192928.023354</v>
       </c>
       <c r="L58" s="55">
-        <f>+J58-K58</f>
-        <v>180083.62830000007</v>
+        <f t="shared" si="18"/>
+        <v>118541.37664600008</v>
       </c>
       <c r="M58" s="44">
-        <f>(1+TasaMensual)^N58</f>
+        <f t="shared" si="19"/>
         <v>1.0615546283064559</v>
       </c>
       <c r="N58" s="3">
-        <f>+N57+1</f>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="O58" s="43">
@@ -14164,20 +14503,20 @@
         <v>0</v>
       </c>
       <c r="P58" s="43">
-        <f>+(H58)/M58</f>
+        <f t="shared" si="26"/>
         <v>6168.5002593287436</v>
       </c>
       <c r="Q58" s="43">
-        <f>+Q57+O58</f>
+        <f t="shared" si="23"/>
         <v>299310.59417550231</v>
       </c>
       <c r="R58" s="43">
-        <f>+R57+P58</f>
-        <v>126104.17667341593</v>
+        <f t="shared" si="24"/>
+        <v>186404.29322474753</v>
       </c>
       <c r="S58" s="53">
-        <f>+Q58-R58</f>
-        <v>173206.41750208638</v>
+        <f t="shared" si="20"/>
+        <v>112906.30095075478</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -14200,15 +14539,15 @@
         <v>0</v>
       </c>
       <c r="F59" s="50">
-        <f>+B58*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G59" s="43">
-        <f>+F59*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H59" s="49">
-        <f>+C59+D59+E59+G59</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I59" s="36"/>
@@ -14217,19 +14556,19 @@
         <v>311469.40000000008</v>
       </c>
       <c r="K59" s="46">
-        <f>+K58+H59</f>
-        <v>131385.77170000001</v>
+        <f t="shared" si="25"/>
+        <v>192928.023354</v>
       </c>
       <c r="L59" s="54">
-        <f>+J59-K59</f>
-        <v>180083.62830000007</v>
+        <f t="shared" si="18"/>
+        <v>118541.37664600008</v>
       </c>
       <c r="M59" s="44">
-        <f>(1+TasaMensual)^N59</f>
+        <f t="shared" si="19"/>
         <v>1.0631023749545263</v>
       </c>
       <c r="N59" s="3">
-        <f>+N58+1</f>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="O59" s="43">
@@ -14237,20 +14576,20 @@
         <v>0</v>
       </c>
       <c r="P59" s="43">
-        <f>+(H59)/M59</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q59" s="43">
-        <f>+Q58+O59</f>
+        <f t="shared" si="23"/>
         <v>299310.59417550231</v>
       </c>
       <c r="R59" s="43">
-        <f>+R58+P59</f>
-        <v>126104.17667341593</v>
+        <f t="shared" si="24"/>
+        <v>186404.29322474753</v>
       </c>
       <c r="S59" s="53">
-        <f>+Q59-R59</f>
-        <v>173206.41750208638</v>
+        <f t="shared" si="20"/>
+        <v>112906.30095075478</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -14273,15 +14612,15 @@
         <v>0</v>
       </c>
       <c r="F60" s="50">
-        <f>+B59*$C$6</f>
+        <f t="shared" si="21"/>
         <v>22652.32</v>
       </c>
       <c r="G60" s="43">
-        <f>+F60*0.03</f>
+        <f t="shared" si="16"/>
         <v>679.56959999999992</v>
       </c>
       <c r="H60" s="49">
-        <f>+C60+D60+E60+G60</f>
+        <f t="shared" si="17"/>
         <v>679.56959999999992</v>
       </c>
       <c r="I60" s="36"/>
@@ -14290,19 +14629,19 @@
         <v>334121.72000000009</v>
       </c>
       <c r="K60" s="46">
-        <f>+K59+H60</f>
-        <v>132065.3413</v>
+        <f t="shared" si="25"/>
+        <v>193607.59295399999</v>
       </c>
       <c r="L60" s="54">
-        <f>+J60-K60</f>
-        <v>202056.37870000009</v>
+        <f t="shared" si="18"/>
+        <v>140514.1270460001</v>
       </c>
       <c r="M60" s="44">
-        <f>(1+TasaMensual)^N60</f>
+        <f t="shared" si="19"/>
         <v>1.0646523782172104</v>
       </c>
       <c r="N60" s="3">
-        <f>+N59+1</f>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="O60" s="43">
@@ -14310,20 +14649,20 @@
         <v>21276.7288773937</v>
       </c>
       <c r="P60" s="43">
-        <f>+(H60)/M60</f>
+        <f t="shared" si="26"/>
         <v>638.30186632181096</v>
       </c>
       <c r="Q60" s="43">
-        <f>+Q59+O60</f>
+        <f t="shared" si="23"/>
         <v>320587.32305289601</v>
       </c>
       <c r="R60" s="43">
-        <f>+R59+P60</f>
-        <v>126742.47853973774</v>
+        <f t="shared" si="24"/>
+        <v>187042.59509106935</v>
       </c>
       <c r="S60" s="53">
-        <f>+Q60-R60</f>
-        <v>193844.84451315826</v>
+        <f t="shared" si="20"/>
+        <v>133544.72796182666</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -14346,15 +14685,15 @@
         <v>0</v>
       </c>
       <c r="F61" s="50">
-        <f>+B60*$C$6</f>
+        <f t="shared" si="21"/>
         <v>5663.08</v>
       </c>
       <c r="G61" s="43">
-        <f>+F61*0.03</f>
+        <f t="shared" si="16"/>
         <v>169.89239999999998</v>
       </c>
       <c r="H61" s="49">
-        <f>+C61+D61+E61+G61</f>
+        <f t="shared" si="17"/>
         <v>169.89239999999998</v>
       </c>
       <c r="I61" s="36"/>
@@ -14363,19 +14702,19 @@
         <v>339784.8000000001</v>
       </c>
       <c r="K61" s="46">
-        <f>+K60+H61</f>
-        <v>132235.23370000001</v>
+        <f t="shared" si="25"/>
+        <v>193777.485354</v>
       </c>
       <c r="L61" s="54">
-        <f>+J61-K61</f>
-        <v>207549.56630000009</v>
+        <f t="shared" si="18"/>
+        <v>146007.3146460001</v>
       </c>
       <c r="M61" s="44">
-        <f>(1+TasaMensual)^N61</f>
+        <f t="shared" si="19"/>
         <v>1.0662046413846509</v>
       </c>
       <c r="N61" s="3">
-        <f>+N60+1</f>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="O61" s="43">
@@ -14383,20 +14722,20 @@
         <v>5311.4381425366073</v>
       </c>
       <c r="P61" s="43">
-        <f>+(H61)/M61</f>
+        <f t="shared" si="26"/>
         <v>159.3431442760982</v>
       </c>
       <c r="Q61" s="43">
-        <f>+Q60+O61</f>
+        <f t="shared" si="23"/>
         <v>325898.76119543263</v>
       </c>
       <c r="R61" s="43">
-        <f>+R60+P61</f>
-        <v>126901.82168401383</v>
+        <f t="shared" si="24"/>
+        <v>187201.93823534544</v>
       </c>
       <c r="S61" s="53">
-        <f>+Q61-R61</f>
-        <v>198996.93951141881</v>
+        <f t="shared" si="20"/>
+        <v>138696.82296008719</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -14419,15 +14758,15 @@
         <v>0</v>
       </c>
       <c r="F62" s="50">
-        <f>+B61*$C$6</f>
+        <f t="shared" si="21"/>
         <v>8494.619999999999</v>
       </c>
       <c r="G62" s="43">
-        <f>+F62*0.03</f>
+        <f t="shared" si="16"/>
         <v>254.83859999999996</v>
       </c>
       <c r="H62" s="49">
-        <f>+C62+D62+E62+G62</f>
+        <f t="shared" si="17"/>
         <v>254.83859999999996</v>
       </c>
       <c r="I62" s="36"/>
@@ -14436,19 +14775,19 @@
         <v>348279.4200000001</v>
       </c>
       <c r="K62" s="46">
-        <f>+K61+H62</f>
-        <v>132490.0723</v>
+        <f t="shared" si="25"/>
+        <v>194032.32395399999</v>
       </c>
       <c r="L62" s="54">
-        <f>+J62-K62</f>
-        <v>215789.3477000001</v>
+        <f t="shared" si="18"/>
+        <v>154247.09604600011</v>
       </c>
       <c r="M62" s="44">
-        <f>(1+TasaMensual)^N62</f>
+        <f t="shared" si="19"/>
         <v>1.0677591677517895</v>
       </c>
       <c r="N62" s="3">
-        <f>+N61+1</f>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="O62" s="43">
@@ -14456,20 +14795,20 @@
         <v>7955.5580102260028</v>
       </c>
       <c r="P62" s="43">
-        <f>+(H62)/M62</f>
+        <f t="shared" si="26"/>
         <v>238.66674030678007</v>
       </c>
       <c r="Q62" s="43">
-        <f>+Q61+O62</f>
+        <f t="shared" si="23"/>
         <v>333854.31920565863</v>
       </c>
       <c r="R62" s="43">
-        <f>+R61+P62</f>
-        <v>127140.48842432062</v>
+        <f t="shared" si="24"/>
+        <v>187440.60497565221</v>
       </c>
       <c r="S62" s="53">
-        <f>+Q62-R62</f>
-        <v>206713.83078133801</v>
+        <f t="shared" si="20"/>
+        <v>146413.71423000642</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -14492,15 +14831,15 @@
         <v>0</v>
       </c>
       <c r="F63" s="50">
-        <f>+B62*$C$6</f>
+        <f t="shared" si="21"/>
         <v>5663.08</v>
       </c>
       <c r="G63" s="43">
-        <f>+F63*0.03</f>
+        <f t="shared" si="16"/>
         <v>169.89239999999998</v>
       </c>
       <c r="H63" s="49">
-        <f>+C63+D63+E63+G63</f>
+        <f t="shared" si="17"/>
         <v>169.89239999999998</v>
       </c>
       <c r="I63" s="36"/>
@@ -14509,19 +14848,19 @@
         <v>353942.50000000012</v>
       </c>
       <c r="K63" s="46">
-        <f>+K62+H63</f>
-        <v>132659.96470000001</v>
+        <f t="shared" si="25"/>
+        <v>194202.216354</v>
       </c>
       <c r="L63" s="54">
-        <f>+J63-K63</f>
-        <v>221282.53530000011</v>
+        <f t="shared" si="18"/>
+        <v>159740.28364600011</v>
       </c>
       <c r="M63" s="44">
-        <f>(1+TasaMensual)^N63</f>
+        <f t="shared" si="19"/>
         <v>1.0693159606183715</v>
       </c>
       <c r="N63" s="3">
-        <f>+N62+1</f>
+        <f t="shared" si="22"/>
         <v>46</v>
       </c>
       <c r="O63" s="43">
@@ -14529,20 +14868,20 @@
         <v>5295.9837957764275</v>
       </c>
       <c r="P63" s="43">
-        <f>+(H63)/M63</f>
+        <f t="shared" si="26"/>
         <v>158.87951387329281</v>
       </c>
       <c r="Q63" s="43">
-        <f>+Q62+O63</f>
+        <f t="shared" si="23"/>
         <v>339150.30300143507</v>
       </c>
       <c r="R63" s="43">
-        <f>+R62+P63</f>
-        <v>127299.36793819391</v>
+        <f t="shared" si="24"/>
+        <v>187599.48448952549</v>
       </c>
       <c r="S63" s="53">
-        <f>+Q63-R63</f>
-        <v>211850.93506324117</v>
+        <f t="shared" si="20"/>
+        <v>151550.81851190957</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -14565,15 +14904,15 @@
         <v>3274.1000000000004</v>
       </c>
       <c r="F64" s="50">
-        <f>+B63*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G64" s="43">
-        <f>+F64*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H64" s="49">
-        <f>+C64+D64+E64+G64</f>
+        <f t="shared" si="17"/>
         <v>3274.1000000000004</v>
       </c>
       <c r="I64" s="48">
@@ -14586,18 +14925,18 @@
       </c>
       <c r="K64" s="46">
         <f>+K63+H64+I64</f>
-        <v>166142.03375</v>
+        <v>227684.28540399999</v>
       </c>
       <c r="L64" s="55">
-        <f>+J64-K64</f>
-        <v>187800.46625000011</v>
+        <f t="shared" si="18"/>
+        <v>126258.21459600012</v>
       </c>
       <c r="M64" s="44">
-        <f>(1+TasaMensual)^N64</f>
+        <f t="shared" si="19"/>
         <v>1.070875023288953</v>
       </c>
       <c r="N64" s="3">
-        <f>+N63+1</f>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="O64" s="43">
@@ -14609,16 +14948,16 @@
         <v>31266.084577420916</v>
       </c>
       <c r="Q64" s="43">
-        <f>+Q63+O64</f>
+        <f t="shared" si="23"/>
         <v>339150.30300143507</v>
       </c>
       <c r="R64" s="43">
-        <f>+R63+P64</f>
-        <v>158565.45251561483</v>
+        <f t="shared" si="24"/>
+        <v>218865.56906694639</v>
       </c>
       <c r="S64" s="53">
-        <f>+Q64-R64</f>
-        <v>180584.85048582024</v>
+        <f t="shared" si="20"/>
+        <v>120284.73393448867</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
@@ -14641,15 +14980,15 @@
         <v>0</v>
       </c>
       <c r="F65" s="50">
-        <f>+B64*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G65" s="43">
-        <f>+F65*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H65" s="49">
-        <f>+C65+D65+E65+G65</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I65" s="36"/>
@@ -14658,19 +14997,19 @@
         <v>353942.50000000012</v>
       </c>
       <c r="K65" s="46">
-        <f>+K64+H65</f>
-        <v>166142.03375</v>
+        <f t="shared" ref="K65:K75" si="27">+K64+H65</f>
+        <v>227684.28540399999</v>
       </c>
       <c r="L65" s="54">
-        <f>+J65-K65</f>
-        <v>187800.46625000011</v>
+        <f t="shared" si="18"/>
+        <v>126258.21459600012</v>
       </c>
       <c r="M65" s="44">
-        <f>(1+TasaMensual)^N65</f>
+        <f t="shared" si="19"/>
         <v>1.0724363590729082</v>
       </c>
       <c r="N65" s="3">
-        <f>+N64+1</f>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="O65" s="43">
@@ -14678,20 +15017,20 @@
         <v>0</v>
       </c>
       <c r="P65" s="43">
-        <f>+(H65)/M65</f>
+        <f t="shared" ref="P65:P75" si="28">+(H65)/M65</f>
         <v>0</v>
       </c>
       <c r="Q65" s="43">
-        <f>+Q64+O65</f>
+        <f t="shared" si="23"/>
         <v>339150.30300143507</v>
       </c>
       <c r="R65" s="43">
-        <f>+R64+P65</f>
-        <v>158565.45251561483</v>
+        <f t="shared" si="24"/>
+        <v>218865.56906694639</v>
       </c>
       <c r="S65" s="53">
-        <f>+Q65-R65</f>
-        <v>180584.85048582024</v>
+        <f t="shared" si="20"/>
+        <v>120284.73393448867</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -14714,15 +15053,15 @@
         <v>0</v>
       </c>
       <c r="F66" s="50">
-        <f>+B65*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G66" s="43">
-        <f>+F66*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H66" s="49">
-        <f>+C66+D66+E66+G66</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I66" s="36"/>
@@ -14731,19 +15070,19 @@
         <v>353942.50000000012</v>
       </c>
       <c r="K66" s="46">
-        <f>+K65+H66</f>
-        <v>166142.03375</v>
+        <f t="shared" si="27"/>
+        <v>227684.28540399999</v>
       </c>
       <c r="L66" s="54">
-        <f>+J66-K66</f>
-        <v>187800.46625000011</v>
+        <f t="shared" si="18"/>
+        <v>126258.21459600012</v>
       </c>
       <c r="M66" s="44">
-        <f>(1+TasaMensual)^N66</f>
+        <f t="shared" si="19"/>
         <v>1.0739999712844364</v>
       </c>
       <c r="N66" s="3">
-        <f>+N65+1</f>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
       <c r="O66" s="43">
@@ -14751,20 +15090,20 @@
         <v>0</v>
       </c>
       <c r="P66" s="43">
-        <f>+(H66)/M66</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q66" s="43">
-        <f>+Q65+O66</f>
+        <f t="shared" si="23"/>
         <v>339150.30300143507</v>
       </c>
       <c r="R66" s="43">
-        <f>+R65+P66</f>
-        <v>158565.45251561483</v>
+        <f t="shared" si="24"/>
+        <v>218865.56906694639</v>
       </c>
       <c r="S66" s="53">
-        <f>+Q66-R66</f>
-        <v>180584.85048582024</v>
+        <f t="shared" si="20"/>
+        <v>120284.73393448867</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
@@ -14787,15 +15126,15 @@
         <v>0</v>
       </c>
       <c r="F67" s="50">
-        <f>+B66*$C$6</f>
+        <f t="shared" si="21"/>
         <v>14157.7</v>
       </c>
       <c r="G67" s="43">
-        <f>+F67*0.03</f>
+        <f t="shared" si="16"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H67" s="49">
-        <f>+C67+D67+E67+G67</f>
+        <f t="shared" si="17"/>
         <v>424.73099999999999</v>
       </c>
       <c r="I67" s="36"/>
@@ -14804,19 +15143,19 @@
         <v>368100.20000000013</v>
       </c>
       <c r="K67" s="46">
-        <f>+K66+H67</f>
-        <v>166566.76475</v>
+        <f t="shared" si="27"/>
+        <v>228109.01640399999</v>
       </c>
       <c r="L67" s="54">
-        <f>+J67-K67</f>
-        <v>201533.43525000013</v>
+        <f t="shared" si="18"/>
+        <v>139991.18359600013</v>
       </c>
       <c r="M67" s="44">
-        <f>(1+TasaMensual)^N67</f>
+        <f t="shared" si="19"/>
         <v>1.0755658632425691</v>
       </c>
       <c r="N67" s="3">
-        <f>+N66+1</f>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="O67" s="43">
@@ -14824,20 +15163,20 @@
         <v>13163.024677371206</v>
       </c>
       <c r="P67" s="43">
-        <f>+(H67)/M67</f>
+        <f t="shared" si="28"/>
         <v>394.89074032113615</v>
       </c>
       <c r="Q67" s="43">
-        <f>+Q66+O67</f>
+        <f t="shared" si="23"/>
         <v>352313.32767880626</v>
       </c>
       <c r="R67" s="43">
-        <f>+R66+P67</f>
-        <v>158960.34325593596</v>
+        <f t="shared" si="24"/>
+        <v>219260.45980726753</v>
       </c>
       <c r="S67" s="53">
-        <f>+Q67-R67</f>
-        <v>193352.9844228703</v>
+        <f t="shared" si="20"/>
+        <v>133052.86787153874</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
@@ -14860,15 +15199,15 @@
         <v>0</v>
       </c>
       <c r="F68" s="50">
-        <f>+B67*$C$6</f>
+        <f t="shared" si="21"/>
         <v>14157.7</v>
       </c>
       <c r="G68" s="43">
-        <f>+F68*0.03</f>
+        <f t="shared" si="16"/>
         <v>424.73099999999999</v>
       </c>
       <c r="H68" s="49">
-        <f>+C68+D68+E68+G68</f>
+        <f t="shared" si="17"/>
         <v>424.73099999999999</v>
       </c>
       <c r="I68" s="36"/>
@@ -14877,19 +15216,19 @@
         <v>382257.90000000014</v>
       </c>
       <c r="K68" s="46">
-        <f>+K67+H68</f>
-        <v>166991.49575</v>
+        <f t="shared" si="27"/>
+        <v>228533.74740399999</v>
       </c>
       <c r="L68" s="54">
-        <f>+J68-K68</f>
-        <v>215266.40425000014</v>
+        <f t="shared" si="18"/>
+        <v>153724.15259600015</v>
       </c>
       <c r="M68" s="44">
-        <f>(1+TasaMensual)^N68</f>
+        <f t="shared" si="19"/>
         <v>1.0771340382711769</v>
       </c>
       <c r="N68" s="3">
-        <f>+N67+1</f>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="O68" s="43">
@@ -14897,20 +15236,20 @@
         <v>13143.860928137979</v>
       </c>
       <c r="P68" s="43">
-        <f>+(H68)/M68</f>
+        <f t="shared" si="28"/>
         <v>394.31582784413933</v>
       </c>
       <c r="Q68" s="43">
-        <f>+Q67+O68</f>
+        <f t="shared" si="23"/>
         <v>365457.18860694423</v>
       </c>
       <c r="R68" s="43">
-        <f>+R67+P68</f>
-        <v>159354.6590837801</v>
+        <f t="shared" si="24"/>
+        <v>219654.77563511167</v>
       </c>
       <c r="S68" s="53">
-        <f>+Q68-R68</f>
-        <v>206102.52952316412</v>
+        <f t="shared" si="20"/>
+        <v>145802.41297183256</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
@@ -14933,15 +15272,15 @@
         <v>0</v>
       </c>
       <c r="F69" s="50">
-        <f>+B68*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G69" s="43">
-        <f>+F69*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H69" s="49">
-        <f>+C69+D69+E69+G69</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I69" s="36"/>
@@ -14950,19 +15289,19 @@
         <v>382257.90000000014</v>
       </c>
       <c r="K69" s="46">
-        <f>+K68+H69</f>
-        <v>166991.49575</v>
+        <f t="shared" si="27"/>
+        <v>228533.74740399999</v>
       </c>
       <c r="L69" s="54">
-        <f>+J69-K69</f>
-        <v>215266.40425000014</v>
+        <f t="shared" si="18"/>
+        <v>153724.15259600015</v>
       </c>
       <c r="M69" s="44">
-        <f>(1+TasaMensual)^N69</f>
+        <f t="shared" si="19"/>
         <v>1.0787044996989759</v>
       </c>
       <c r="N69" s="3">
-        <f>+N68+1</f>
+        <f t="shared" si="22"/>
         <v>52</v>
       </c>
       <c r="O69" s="43">
@@ -14970,20 +15309,20 @@
         <v>0</v>
       </c>
       <c r="P69" s="43">
-        <f>+(H69)/M69</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q69" s="43">
-        <f>+Q68+O69</f>
+        <f t="shared" si="23"/>
         <v>365457.18860694423</v>
       </c>
       <c r="R69" s="43">
-        <f>+R68+P69</f>
-        <v>159354.6590837801</v>
+        <f t="shared" si="24"/>
+        <v>219654.77563511167</v>
       </c>
       <c r="S69" s="53">
-        <f>+Q69-R69</f>
-        <v>206102.52952316412</v>
+        <f t="shared" si="20"/>
+        <v>145802.41297183256</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
@@ -15006,15 +15345,15 @@
         <v>0</v>
       </c>
       <c r="F70" s="50">
-        <f>+B69*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G70" s="43">
-        <f>+F70*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H70" s="49">
-        <f>+C70+D70+E70+G70</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I70" s="36"/>
@@ -15023,19 +15362,19 @@
         <v>382257.90000000014</v>
       </c>
       <c r="K70" s="46">
-        <f>+K69+H70</f>
-        <v>166991.49575</v>
+        <f t="shared" si="27"/>
+        <v>228533.74740399999</v>
       </c>
       <c r="L70" s="55">
-        <f>+J70-K70</f>
-        <v>215266.40425000014</v>
+        <f t="shared" si="18"/>
+        <v>153724.15259600015</v>
       </c>
       <c r="M70" s="44">
-        <f>(1+TasaMensual)^N70</f>
+        <f t="shared" si="19"/>
         <v>1.0802772508595371</v>
       </c>
       <c r="N70" s="3">
-        <f>+N69+1</f>
+        <f t="shared" si="22"/>
         <v>53</v>
       </c>
       <c r="O70" s="43">
@@ -15043,20 +15382,20 @@
         <v>0</v>
       </c>
       <c r="P70" s="43">
-        <f>+(H70)/M70</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q70" s="43">
-        <f>+Q69+O70</f>
+        <f t="shared" si="23"/>
         <v>365457.18860694423</v>
       </c>
       <c r="R70" s="43">
-        <f>+R69+P70</f>
-        <v>159354.6590837801</v>
+        <f t="shared" si="24"/>
+        <v>219654.77563511167</v>
       </c>
       <c r="S70" s="53">
-        <f>+Q70-R70</f>
-        <v>206102.52952316412</v>
+        <f t="shared" si="20"/>
+        <v>145802.41297183256</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
@@ -15079,15 +15418,15 @@
         <v>0</v>
       </c>
       <c r="F71" s="50">
-        <f>+B70*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G71" s="43">
-        <f>+F71*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H71" s="49">
-        <f>+C71+D71+E71+G71</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I71" s="36"/>
@@ -15096,19 +15435,19 @@
         <v>382257.90000000014</v>
       </c>
       <c r="K71" s="46">
-        <f>+K70+H71</f>
-        <v>166991.49575</v>
+        <f t="shared" si="27"/>
+        <v>228533.74740399999</v>
       </c>
       <c r="L71" s="54">
-        <f>+J71-K71</f>
-        <v>215266.40425000014</v>
+        <f t="shared" si="18"/>
+        <v>153724.15259600015</v>
       </c>
       <c r="M71" s="44">
-        <f>(1+TasaMensual)^N71</f>
+        <f t="shared" si="19"/>
         <v>1.0818522950912903</v>
       </c>
       <c r="N71" s="3">
-        <f>+N70+1</f>
+        <f t="shared" si="22"/>
         <v>54</v>
       </c>
       <c r="O71" s="43">
@@ -15116,20 +15455,20 @@
         <v>0</v>
       </c>
       <c r="P71" s="43">
-        <f>+(H71)/M71</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q71" s="43">
-        <f>+Q70+O71</f>
+        <f t="shared" si="23"/>
         <v>365457.18860694423</v>
       </c>
       <c r="R71" s="43">
-        <f>+R70+P71</f>
-        <v>159354.6590837801</v>
+        <f t="shared" si="24"/>
+        <v>219654.77563511167</v>
       </c>
       <c r="S71" s="53">
-        <f>+Q71-R71</f>
-        <v>206102.52952316412</v>
+        <f t="shared" si="20"/>
+        <v>145802.41297183256</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
@@ -15152,15 +15491,15 @@
         <v>0</v>
       </c>
       <c r="F72" s="50">
-        <f>+B71*$C$6</f>
+        <f t="shared" si="21"/>
         <v>28315.4</v>
       </c>
       <c r="G72" s="43">
-        <f>+F72*0.03</f>
+        <f t="shared" si="16"/>
         <v>849.46199999999999</v>
       </c>
       <c r="H72" s="49">
-        <f>+C72+D72+E72+G72</f>
+        <f t="shared" si="17"/>
         <v>849.46199999999999</v>
       </c>
       <c r="I72" s="36"/>
@@ -15169,19 +15508,19 @@
         <v>410573.30000000016</v>
       </c>
       <c r="K72" s="46">
-        <f>+K71+H72</f>
-        <v>167840.95775</v>
+        <f t="shared" si="27"/>
+        <v>229383.20940399999</v>
       </c>
       <c r="L72" s="54">
-        <f>+J72-K72</f>
-        <v>242732.34225000016</v>
+        <f t="shared" si="18"/>
+        <v>181190.09059600017</v>
       </c>
       <c r="M72" s="44">
-        <f>(1+TasaMensual)^N72</f>
+        <f t="shared" si="19"/>
         <v>1.0834296357375333</v>
       </c>
       <c r="N72" s="3">
-        <f>+N71+1</f>
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
       <c r="O72" s="43">
@@ -15189,20 +15528,20 @@
         <v>26134.969051981483</v>
       </c>
       <c r="P72" s="43">
-        <f>+(H72)/M72</f>
+        <f t="shared" si="28"/>
         <v>784.04907155944443</v>
       </c>
       <c r="Q72" s="43">
-        <f>+Q71+O72</f>
+        <f t="shared" si="23"/>
         <v>391592.15765892569</v>
       </c>
       <c r="R72" s="43">
-        <f>+R71+P72</f>
-        <v>160138.70815533955</v>
+        <f t="shared" si="24"/>
+        <v>220438.82470667112</v>
       </c>
       <c r="S72" s="53">
-        <f>+Q72-R72</f>
-        <v>231453.44950358613</v>
+        <f t="shared" si="20"/>
+        <v>171153.33295225457</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
@@ -15225,15 +15564,15 @@
         <v>0</v>
       </c>
       <c r="F73" s="50">
-        <f>+B72*$C$6</f>
+        <f t="shared" si="21"/>
         <v>8494.619999999999</v>
       </c>
       <c r="G73" s="43">
-        <f>+F73*0.03</f>
+        <f t="shared" si="16"/>
         <v>254.83859999999996</v>
       </c>
       <c r="H73" s="49">
-        <f>+C73+D73+E73+G73</f>
+        <f t="shared" si="17"/>
         <v>254.83859999999996</v>
       </c>
       <c r="I73" s="36"/>
@@ -15242,19 +15581,19 @@
         <v>419067.92000000016</v>
       </c>
       <c r="K73" s="46">
-        <f>+K72+H73</f>
-        <v>168095.79634999999</v>
+        <f t="shared" si="27"/>
+        <v>229638.04800399998</v>
       </c>
       <c r="L73" s="54">
-        <f>+J73-K73</f>
-        <v>250972.12365000017</v>
+        <f t="shared" si="18"/>
+        <v>189429.87199600018</v>
       </c>
       <c r="M73" s="44">
-        <f>(1+TasaMensual)^N73</f>
+        <f t="shared" si="19"/>
         <v>1.0850092761464383</v>
       </c>
       <c r="N73" s="3">
-        <f>+N72+1</f>
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
       <c r="O73" s="43">
@@ -15262,20 +15601,20 @@
         <v>7829.0759228988591</v>
       </c>
       <c r="P73" s="43">
-        <f>+(H73)/M73</f>
+        <f t="shared" si="28"/>
         <v>234.87227768696576</v>
       </c>
       <c r="Q73" s="43">
-        <f>+Q72+O73</f>
+        <f t="shared" si="23"/>
         <v>399421.23358182452</v>
       </c>
       <c r="R73" s="43">
-        <f>+R72+P73</f>
-        <v>160373.58043302651</v>
+        <f t="shared" si="24"/>
+        <v>220673.69698435807</v>
       </c>
       <c r="S73" s="53">
-        <f>+Q73-R73</f>
-        <v>239047.65314879801</v>
+        <f t="shared" si="20"/>
+        <v>178747.53659746645</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
@@ -15298,15 +15637,15 @@
         <v>0</v>
       </c>
       <c r="F74" s="50">
-        <f>+B73*$C$6</f>
+        <f t="shared" si="21"/>
         <v>5663.08</v>
       </c>
       <c r="G74" s="43">
-        <f>+F74*0.03</f>
+        <f t="shared" si="16"/>
         <v>169.89239999999998</v>
       </c>
       <c r="H74" s="49">
-        <f>+C74+D74+E74+G74</f>
+        <f t="shared" si="17"/>
         <v>169.89239999999998</v>
       </c>
       <c r="I74" s="36"/>
@@ -15315,19 +15654,19 @@
         <v>424731.00000000017</v>
       </c>
       <c r="K74" s="46">
-        <f>+K73+H74</f>
-        <v>168265.68875</v>
+        <f t="shared" si="27"/>
+        <v>229807.94040399999</v>
       </c>
       <c r="L74" s="54">
-        <f>+J74-K74</f>
-        <v>256465.31125000017</v>
+        <f t="shared" si="18"/>
+        <v>194923.05959600018</v>
       </c>
       <c r="M74" s="44">
-        <f>(1+TasaMensual)^N74</f>
+        <f t="shared" si="19"/>
         <v>1.0865912196710599</v>
       </c>
       <c r="N74" s="3">
-        <f>+N73+1</f>
+        <f t="shared" si="22"/>
         <v>57</v>
       </c>
       <c r="O74" s="43">
@@ -15335,20 +15674,20 @@
         <v>5211.7851658274631</v>
       </c>
       <c r="P74" s="43">
-        <f>+(H74)/M74</f>
+        <f t="shared" si="28"/>
         <v>156.35355497482388</v>
       </c>
       <c r="Q74" s="43">
-        <f>+Q73+O74</f>
+        <f t="shared" si="23"/>
         <v>404633.01874765201</v>
       </c>
       <c r="R74" s="43">
-        <f>+R73+P74</f>
-        <v>160529.93398800134</v>
+        <f t="shared" si="24"/>
+        <v>220830.05053933291</v>
       </c>
       <c r="S74" s="53">
-        <f>+Q74-R74</f>
-        <v>244103.08475965066</v>
+        <f t="shared" si="20"/>
+        <v>183802.9682083191</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
@@ -15371,15 +15710,15 @@
         <v>0</v>
       </c>
       <c r="F75" s="50">
-        <f>+B74*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G75" s="43">
-        <f>+F75*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H75" s="49">
-        <f>+C75+D75+E75+G75</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I75" s="36"/>
@@ -15388,19 +15727,19 @@
         <v>424731.00000000017</v>
       </c>
       <c r="K75" s="46">
-        <f>+K74+H75</f>
-        <v>168265.68875</v>
+        <f t="shared" si="27"/>
+        <v>229807.94040399999</v>
       </c>
       <c r="L75" s="54">
-        <f>+J75-K75</f>
-        <v>256465.31125000017</v>
+        <f t="shared" si="18"/>
+        <v>194923.05959600018</v>
       </c>
       <c r="M75" s="44">
-        <f>(1+TasaMensual)^N75</f>
+        <f t="shared" si="19"/>
         <v>1.08817546966934</v>
       </c>
       <c r="N75" s="3">
-        <f>+N74+1</f>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="O75" s="43">
@@ -15408,20 +15747,20 @@
         <v>0</v>
       </c>
       <c r="P75" s="43">
-        <f>+(H75)/M75</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q75" s="43">
-        <f>+Q74+O75</f>
+        <f t="shared" si="23"/>
         <v>404633.01874765201</v>
       </c>
       <c r="R75" s="43">
-        <f>+R74+P75</f>
-        <v>160529.93398800134</v>
+        <f t="shared" si="24"/>
+        <v>220830.05053933291</v>
       </c>
       <c r="S75" s="53">
-        <f>+Q75-R75</f>
-        <v>244103.08475965066</v>
+        <f t="shared" si="20"/>
+        <v>183802.9682083191</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
@@ -15444,15 +15783,15 @@
         <v>0</v>
       </c>
       <c r="F76" s="50">
-        <f>+B75*$C$6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G76" s="43">
-        <f>+F76*0.03</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H76" s="49">
-        <f>+C76+D76+E76+G76</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I76" s="48">
@@ -15465,18 +15804,18 @@
       </c>
       <c r="K76" s="46">
         <f>+K75+H76+I76</f>
-        <v>192298.38449999999</v>
+        <v>253840.63615400001</v>
       </c>
       <c r="L76" s="45">
-        <f>+J76-K76</f>
-        <v>232432.61550000019</v>
+        <f t="shared" si="18"/>
+        <v>170890.36384600017</v>
       </c>
       <c r="M76" s="44">
-        <f>(1+TasaMensual)^N76</f>
+        <f t="shared" si="19"/>
         <v>1.0897620295041182</v>
       </c>
       <c r="N76" s="3">
-        <f>+N75+1</f>
+        <f t="shared" si="22"/>
         <v>59</v>
       </c>
       <c r="O76" s="43">
@@ -15488,21 +15827,21 @@
         <v>22053.159404843424</v>
       </c>
       <c r="Q76" s="43">
-        <f>+Q75+O76</f>
+        <f t="shared" si="23"/>
         <v>404633.01874765201</v>
       </c>
       <c r="R76" s="43">
-        <f>+R75+P76</f>
-        <v>182583.09339284478</v>
+        <f t="shared" si="24"/>
+        <v>242883.20994417634</v>
       </c>
       <c r="S76" s="42">
-        <f>+Q76-R76</f>
-        <v>222049.92535480723</v>
+        <f t="shared" si="20"/>
+        <v>161749.80880347567</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B77" s="41">
         <f>SUM(B23:B76)</f>
@@ -15514,7 +15853,7 @@
       </c>
       <c r="D77" s="39">
         <f>SUM(D17:D76)</f>
-        <v>0</v>
+        <v>61542.251653999992</v>
       </c>
       <c r="E77" s="39">
         <f>SUM(E17:E52)</f>
@@ -15530,7 +15869,7 @@
       </c>
       <c r="H77" s="38">
         <f>SUM(H17:H76)</f>
-        <v>61853.43</v>
+        <v>123395.681654</v>
       </c>
       <c r="I77" s="38">
         <f>SUM(I17:I76)</f>
@@ -15546,12 +15885,12 @@
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -15568,8 +15907,8 @@
   </sheetPr>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15580,12 +15919,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15594,13 +15933,13 @@
         <v>MES</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -15610,7 +15949,7 @@
       </c>
       <c r="B7" s="36">
         <f>Resumen!L17</f>
-        <v>0</v>
+        <v>-1269.6288</v>
       </c>
       <c r="C7" s="77">
         <f>IF(B7&gt;0,B7,0)</f>
@@ -15627,7 +15966,7 @@
       </c>
       <c r="B8" s="36">
         <f>Resumen!L18</f>
-        <v>0</v>
+        <v>-3477.4187999999999</v>
       </c>
       <c r="C8" s="77">
         <f t="shared" ref="C8:C66" si="0">IF(B8&gt;0,B8,0)</f>
@@ -15644,7 +15983,7 @@
       </c>
       <c r="B9" s="36">
         <f>Resumen!L19</f>
-        <v>0</v>
+        <v>-5956.9778269999997</v>
       </c>
       <c r="C9" s="77">
         <f t="shared" si="0"/>
@@ -15661,7 +16000,7 @@
       </c>
       <c r="B10" s="36">
         <f>Resumen!L20</f>
-        <v>0</v>
+        <v>-7658.4378269999997</v>
       </c>
       <c r="C10" s="77">
         <f t="shared" si="0"/>
@@ -15678,7 +16017,7 @@
       </c>
       <c r="B11" s="36">
         <f>Resumen!L21</f>
-        <v>0</v>
+        <v>-9753.7678269999997</v>
       </c>
       <c r="C11" s="77">
         <f t="shared" si="0"/>
@@ -15695,7 +16034,7 @@
       </c>
       <c r="B12" s="36">
         <f>Resumen!L22</f>
-        <v>-3274.1000000000004</v>
+        <v>-14050.187827</v>
       </c>
       <c r="C12" s="77">
         <f t="shared" si="0"/>
@@ -15712,7 +16051,7 @@
       </c>
       <c r="B13" s="36">
         <f>Resumen!L23</f>
-        <v>-3274.1000000000004</v>
+        <v>-15295.197827</v>
       </c>
       <c r="C13" s="77">
         <f t="shared" si="0"/>
@@ -15729,7 +16068,7 @@
       </c>
       <c r="B14" s="36">
         <f>Resumen!L24</f>
-        <v>-3274.1000000000004</v>
+        <v>-17225.607827</v>
       </c>
       <c r="C14" s="77">
         <f t="shared" si="0"/>
@@ -15746,7 +16085,7 @@
       </c>
       <c r="B15" s="36">
         <f>Resumen!L25</f>
-        <v>-3274.1000000000004</v>
+        <v>-19616.377827</v>
       </c>
       <c r="C15" s="77">
         <f t="shared" si="0"/>
@@ -15763,7 +16102,7 @@
       </c>
       <c r="B16" s="36">
         <f>Resumen!L26</f>
-        <v>-3274.1000000000004</v>
+        <v>-22105.717827</v>
       </c>
       <c r="C16" s="77">
         <f t="shared" si="0"/>
@@ -15780,7 +16119,7 @@
       </c>
       <c r="B17" s="36">
         <f>Resumen!L27</f>
-        <v>-3274.1000000000004</v>
+        <v>-23710.937827000002</v>
       </c>
       <c r="C17" s="77">
         <f t="shared" si="0"/>
@@ -15797,7 +16136,7 @@
       </c>
       <c r="B18" s="36">
         <f>Resumen!L28</f>
-        <v>-9822.3000000000011</v>
+        <v>-31918.247827000003</v>
       </c>
       <c r="C18" s="77">
         <f t="shared" si="0"/>
@@ -15814,7 +16153,7 @@
       </c>
       <c r="B19" s="36">
         <f>Resumen!L29</f>
-        <v>-9822.3000000000011</v>
+        <v>-33944.547827000002</v>
       </c>
       <c r="C19" s="77">
         <f t="shared" si="0"/>
@@ -15831,7 +16170,7 @@
       </c>
       <c r="B20" s="36">
         <f>Resumen!L30</f>
-        <v>-9822.3000000000011</v>
+        <v>-35216.925826999999</v>
       </c>
       <c r="C20" s="77">
         <f t="shared" si="0"/>
@@ -15848,7 +16187,7 @@
       </c>
       <c r="B21" s="36">
         <f>Resumen!L31</f>
-        <v>-9822.3000000000011</v>
+        <v>-36561.905827000002</v>
       </c>
       <c r="C21" s="77">
         <f t="shared" si="0"/>
@@ -15865,7 +16204,7 @@
       </c>
       <c r="B22" s="36">
         <f>Resumen!L32</f>
-        <v>-9822.3000000000011</v>
+        <v>-38008.805827000004</v>
       </c>
       <c r="C22" s="77">
         <f t="shared" si="0"/>
@@ -15882,7 +16221,7 @@
       </c>
       <c r="B23" s="36">
         <f>Resumen!L33</f>
-        <v>-9822.3000000000011</v>
+        <v>-38848.605827000007</v>
       </c>
       <c r="C23" s="77">
         <f t="shared" si="0"/>
@@ -15899,7 +16238,7 @@
       </c>
       <c r="B24" s="36">
         <f>Resumen!L34</f>
-        <v>-16370.500000000002</v>
+        <v>-46166.40582700001</v>
       </c>
       <c r="C24" s="77">
         <f t="shared" si="0"/>
@@ -15916,7 +16255,7 @@
       </c>
       <c r="B25" s="36">
         <f>Resumen!L35</f>
-        <v>-16370.500000000002</v>
+        <v>-47141.625827000011</v>
       </c>
       <c r="C25" s="77">
         <f t="shared" si="0"/>
@@ -15933,11 +16272,11 @@
       </c>
       <c r="B26" s="36">
         <f>Resumen!L36</f>
-        <v>24828.406999999996</v>
+        <v>-5942.7188270000115</v>
       </c>
       <c r="C26" s="77">
         <f t="shared" si="0"/>
-        <v>24828.406999999996</v>
+        <v>0</v>
       </c>
       <c r="D26" s="77">
         <f t="shared" ref="D26:D42" si="1">+C25*TasaPAsiva/12</f>
@@ -15951,11 +16290,11 @@
       </c>
       <c r="B27" s="36">
         <f>Resumen!L37</f>
-        <v>52294.345000000001</v>
+        <v>-9247.9066540000058</v>
       </c>
       <c r="C27" s="77">
         <f t="shared" si="0"/>
-        <v>52294.345000000001</v>
+        <v>0</v>
       </c>
       <c r="D27" s="77">
         <f t="shared" si="1"/>
@@ -15969,11 +16308,11 @@
       </c>
       <c r="B28" s="36">
         <f>Resumen!L38</f>
-        <v>66027.313999999998</v>
+        <v>4485.0623459999915</v>
       </c>
       <c r="C28" s="77">
         <f t="shared" si="0"/>
-        <v>66027.313999999998</v>
+        <v>4485.0623459999915</v>
       </c>
       <c r="D28" s="77">
         <f t="shared" si="1"/>
@@ -15987,11 +16326,11 @@
       </c>
       <c r="B29" s="36">
         <f>Resumen!L39</f>
-        <v>79760.282999999996</v>
+        <v>18218.031345999989</v>
       </c>
       <c r="C29" s="77">
         <f t="shared" si="0"/>
-        <v>79760.282999999996</v>
+        <v>18218.031345999989</v>
       </c>
       <c r="D29" s="77">
         <f t="shared" si="1"/>
@@ -16005,11 +16344,11 @@
       </c>
       <c r="B30" s="36">
         <f>Resumen!L40</f>
-        <v>44150.048949999997</v>
+        <v>-17392.202703999996</v>
       </c>
       <c r="C30" s="77">
         <f t="shared" si="0"/>
-        <v>44150.048949999997</v>
+        <v>0</v>
       </c>
       <c r="D30" s="77">
         <f t="shared" si="1"/>
@@ -16023,11 +16362,11 @@
       </c>
       <c r="B31" s="36">
         <f>Resumen!L41</f>
-        <v>44150.048949999997</v>
+        <v>-17392.202703999996</v>
       </c>
       <c r="C31" s="77">
         <f t="shared" si="0"/>
-        <v>44150.048949999997</v>
+        <v>0</v>
       </c>
       <c r="D31" s="77">
         <f t="shared" si="1"/>
@@ -16041,11 +16380,11 @@
       </c>
       <c r="B32" s="36">
         <f>Resumen!L42</f>
-        <v>99081.924950000015</v>
+        <v>37539.673296000023</v>
       </c>
       <c r="C32" s="77">
         <f t="shared" si="0"/>
-        <v>99081.924950000015</v>
+        <v>37539.673296000023</v>
       </c>
       <c r="D32" s="77">
         <f t="shared" si="1"/>
@@ -16059,11 +16398,11 @@
       </c>
       <c r="B33" s="36">
         <f>Resumen!L43</f>
-        <v>112814.89395000003</v>
+        <v>51272.642296000035</v>
       </c>
       <c r="C33" s="77">
         <f t="shared" si="0"/>
-        <v>112814.89395000003</v>
+        <v>51272.642296000035</v>
       </c>
       <c r="D33" s="77">
         <f t="shared" si="1"/>
@@ -16077,11 +16416,11 @@
       </c>
       <c r="B34" s="36">
         <f>Resumen!L44</f>
-        <v>126547.86295000004</v>
+        <v>65005.611296000046</v>
       </c>
       <c r="C34" s="77">
         <f t="shared" si="0"/>
-        <v>126547.86295000004</v>
+        <v>65005.611296000046</v>
       </c>
       <c r="D34" s="77">
         <f t="shared" si="1"/>
@@ -16095,11 +16434,11 @@
       </c>
       <c r="B35" s="36">
         <f>Resumen!L45</f>
-        <v>140280.83195000005</v>
+        <v>78738.580296000058</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" si="0"/>
-        <v>140280.83195000005</v>
+        <v>78738.580296000058</v>
       </c>
       <c r="D35" s="77">
         <f t="shared" si="1"/>
@@ -16113,11 +16452,11 @@
       </c>
       <c r="B36" s="36">
         <f>Resumen!L46</f>
-        <v>130458.53195000005</v>
+        <v>68916.280296000055</v>
       </c>
       <c r="C36" s="77">
         <f t="shared" si="0"/>
-        <v>130458.53195000005</v>
+        <v>68916.280296000055</v>
       </c>
       <c r="D36" s="77">
         <f t="shared" si="1"/>
@@ -16131,11 +16470,11 @@
       </c>
       <c r="B37" s="36">
         <f>Resumen!L47</f>
-        <v>130458.53195000005</v>
+        <v>68916.280296000055</v>
       </c>
       <c r="C37" s="77">
         <f t="shared" si="0"/>
-        <v>130458.53195000005</v>
+        <v>68916.280296000055</v>
       </c>
       <c r="D37" s="77">
         <f t="shared" si="1"/>
@@ -16149,11 +16488,11 @@
       </c>
       <c r="B38" s="36">
         <f>Resumen!L48</f>
-        <v>157924.46995000006</v>
+        <v>96382.21829600005</v>
       </c>
       <c r="C38" s="77">
         <f t="shared" si="0"/>
-        <v>157924.46995000006</v>
+        <v>96382.21829600005</v>
       </c>
       <c r="D38" s="77">
         <f t="shared" si="1"/>
@@ -16167,11 +16506,11 @@
       </c>
       <c r="B39" s="36">
         <f>Resumen!L49</f>
-        <v>171657.43895000004</v>
+        <v>110115.18729600006</v>
       </c>
       <c r="C39" s="77">
         <f t="shared" si="0"/>
-        <v>171657.43895000004</v>
+        <v>110115.18729600006</v>
       </c>
       <c r="D39" s="77">
         <f t="shared" si="1"/>
@@ -16185,11 +16524,11 @@
       </c>
       <c r="B40" s="36">
         <f>Resumen!L50</f>
-        <v>185390.40795000008</v>
+        <v>123848.15629600007</v>
       </c>
       <c r="C40" s="77">
         <f t="shared" si="0"/>
-        <v>185390.40795000008</v>
+        <v>123848.15629600007</v>
       </c>
       <c r="D40" s="77">
         <f t="shared" si="1"/>
@@ -16203,11 +16542,11 @@
       </c>
       <c r="B41" s="36">
         <f>Resumen!L51</f>
-        <v>185390.40795000008</v>
+        <v>123848.15629600007</v>
       </c>
       <c r="C41" s="77">
         <f t="shared" si="0"/>
-        <v>185390.40795000008</v>
+        <v>123848.15629600007</v>
       </c>
       <c r="D41" s="77">
         <f t="shared" si="1"/>
@@ -16221,11 +16560,11 @@
       </c>
       <c r="B42" s="36">
         <f>Resumen!L52</f>
-        <v>131699.95230000006</v>
+        <v>70157.70064600007</v>
       </c>
       <c r="C42" s="77">
         <f t="shared" si="0"/>
-        <v>131699.95230000006</v>
+        <v>70157.70064600007</v>
       </c>
       <c r="D42" s="77">
         <f t="shared" si="1"/>
@@ -16239,11 +16578,11 @@
       </c>
       <c r="B43" s="36">
         <f>Resumen!L53</f>
-        <v>131699.95230000006</v>
+        <v>70157.70064600007</v>
       </c>
       <c r="C43" s="77">
         <f t="shared" si="0"/>
-        <v>131699.95230000006</v>
+        <v>70157.70064600007</v>
       </c>
       <c r="D43" s="77">
         <f t="shared" ref="D43:D45" si="2">+C42*TasaPAsiva/12</f>
@@ -16257,11 +16596,11 @@
       </c>
       <c r="B44" s="36">
         <f>Resumen!L54</f>
-        <v>145432.92130000005</v>
+        <v>83890.669646000053</v>
       </c>
       <c r="C44" s="77">
         <f t="shared" si="0"/>
-        <v>145432.92130000005</v>
+        <v>83890.669646000053</v>
       </c>
       <c r="D44" s="77">
         <f t="shared" si="2"/>
@@ -16275,11 +16614,11 @@
       </c>
       <c r="B45" s="36">
         <f>Resumen!L55</f>
-        <v>159165.89030000006</v>
+        <v>97623.638646000065</v>
       </c>
       <c r="C45" s="77">
         <f t="shared" si="0"/>
-        <v>159165.89030000006</v>
+        <v>97623.638646000065</v>
       </c>
       <c r="D45" s="77">
         <f t="shared" si="2"/>
@@ -16293,11 +16632,11 @@
       </c>
       <c r="B46" s="36">
         <f>Resumen!L56</f>
-        <v>172898.85930000007</v>
+        <v>111356.60764600008</v>
       </c>
       <c r="C46" s="77">
         <f t="shared" si="0"/>
-        <v>172898.85930000007</v>
+        <v>111356.60764600008</v>
       </c>
       <c r="D46" s="77">
         <f t="shared" ref="D46:D65" si="3">+C45*TasaPAsiva/12</f>
@@ -16311,11 +16650,11 @@
       </c>
       <c r="B47" s="36">
         <f>Resumen!L57</f>
-        <v>186631.82830000008</v>
+        <v>125089.57664600009</v>
       </c>
       <c r="C47" s="77">
         <f t="shared" si="0"/>
-        <v>186631.82830000008</v>
+        <v>125089.57664600009</v>
       </c>
       <c r="D47" s="77">
         <f t="shared" si="3"/>
@@ -16329,11 +16668,11 @@
       </c>
       <c r="B48" s="36">
         <f>Resumen!L58</f>
-        <v>180083.62830000007</v>
+        <v>118541.37664600008</v>
       </c>
       <c r="C48" s="77">
         <f t="shared" si="0"/>
-        <v>180083.62830000007</v>
+        <v>118541.37664600008</v>
       </c>
       <c r="D48" s="77">
         <f t="shared" si="3"/>
@@ -16347,11 +16686,11 @@
       </c>
       <c r="B49" s="36">
         <f>Resumen!L59</f>
-        <v>180083.62830000007</v>
+        <v>118541.37664600008</v>
       </c>
       <c r="C49" s="77">
         <f t="shared" si="0"/>
-        <v>180083.62830000007</v>
+        <v>118541.37664600008</v>
       </c>
       <c r="D49" s="77">
         <f t="shared" si="3"/>
@@ -16365,11 +16704,11 @@
       </c>
       <c r="B50" s="36">
         <f>Resumen!L60</f>
-        <v>202056.37870000009</v>
+        <v>140514.1270460001</v>
       </c>
       <c r="C50" s="77">
         <f t="shared" si="0"/>
-        <v>202056.37870000009</v>
+        <v>140514.1270460001</v>
       </c>
       <c r="D50" s="77">
         <f t="shared" si="3"/>
@@ -16383,11 +16722,11 @@
       </c>
       <c r="B51" s="36">
         <f>Resumen!L61</f>
-        <v>207549.56630000009</v>
+        <v>146007.3146460001</v>
       </c>
       <c r="C51" s="77">
         <f t="shared" si="0"/>
-        <v>207549.56630000009</v>
+        <v>146007.3146460001</v>
       </c>
       <c r="D51" s="77">
         <f t="shared" si="3"/>
@@ -16401,11 +16740,11 @@
       </c>
       <c r="B52" s="36">
         <f>Resumen!L62</f>
-        <v>215789.3477000001</v>
+        <v>154247.09604600011</v>
       </c>
       <c r="C52" s="77">
         <f t="shared" si="0"/>
-        <v>215789.3477000001</v>
+        <v>154247.09604600011</v>
       </c>
       <c r="D52" s="77">
         <f t="shared" si="3"/>
@@ -16419,11 +16758,11 @@
       </c>
       <c r="B53" s="36">
         <f>Resumen!L63</f>
-        <v>221282.53530000011</v>
+        <v>159740.28364600011</v>
       </c>
       <c r="C53" s="77">
         <f t="shared" si="0"/>
-        <v>221282.53530000011</v>
+        <v>159740.28364600011</v>
       </c>
       <c r="D53" s="77">
         <f t="shared" si="3"/>
@@ -16437,11 +16776,11 @@
       </c>
       <c r="B54" s="36">
         <f>Resumen!L64</f>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
       <c r="C54" s="77">
         <f t="shared" si="0"/>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
       <c r="D54" s="77">
         <f t="shared" si="3"/>
@@ -16455,11 +16794,11 @@
       </c>
       <c r="B55" s="36">
         <f>Resumen!L65</f>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
       <c r="C55" s="77">
         <f t="shared" si="0"/>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
       <c r="D55" s="77">
         <f t="shared" si="3"/>
@@ -16473,11 +16812,11 @@
       </c>
       <c r="B56" s="36">
         <f>Resumen!L66</f>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
       <c r="C56" s="77">
         <f t="shared" si="0"/>
-        <v>187800.46625000011</v>
+        <v>126258.21459600012</v>
       </c>
       <c r="D56" s="77">
         <f t="shared" si="3"/>
@@ -16491,11 +16830,11 @@
       </c>
       <c r="B57" s="36">
         <f>Resumen!L67</f>
-        <v>201533.43525000013</v>
+        <v>139991.18359600013</v>
       </c>
       <c r="C57" s="77">
         <f t="shared" si="0"/>
-        <v>201533.43525000013</v>
+        <v>139991.18359600013</v>
       </c>
       <c r="D57" s="77">
         <f t="shared" si="3"/>
@@ -16509,11 +16848,11 @@
       </c>
       <c r="B58" s="36">
         <f>Resumen!L68</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="C58" s="77">
         <f t="shared" si="0"/>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="D58" s="77">
         <f t="shared" si="3"/>
@@ -16527,11 +16866,11 @@
       </c>
       <c r="B59" s="36">
         <f>Resumen!L69</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="C59" s="77">
         <f t="shared" si="0"/>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="D59" s="77">
         <f t="shared" si="3"/>
@@ -16545,11 +16884,11 @@
       </c>
       <c r="B60" s="36">
         <f>Resumen!L70</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="C60" s="77">
         <f t="shared" si="0"/>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="D60" s="77">
         <f t="shared" si="3"/>
@@ -16563,11 +16902,11 @@
       </c>
       <c r="B61" s="36">
         <f>Resumen!L71</f>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="C61" s="77">
         <f t="shared" si="0"/>
-        <v>215266.40425000014</v>
+        <v>153724.15259600015</v>
       </c>
       <c r="D61" s="77">
         <f t="shared" si="3"/>
@@ -16581,11 +16920,11 @@
       </c>
       <c r="B62" s="36">
         <f>Resumen!L72</f>
-        <v>242732.34225000016</v>
+        <v>181190.09059600017</v>
       </c>
       <c r="C62" s="77">
         <f t="shared" si="0"/>
-        <v>242732.34225000016</v>
+        <v>181190.09059600017</v>
       </c>
       <c r="D62" s="77">
         <f t="shared" si="3"/>
@@ -16599,11 +16938,11 @@
       </c>
       <c r="B63" s="36">
         <f>Resumen!L73</f>
-        <v>250972.12365000017</v>
+        <v>189429.87199600018</v>
       </c>
       <c r="C63" s="77">
         <f t="shared" si="0"/>
-        <v>250972.12365000017</v>
+        <v>189429.87199600018</v>
       </c>
       <c r="D63" s="77">
         <f t="shared" si="3"/>
@@ -16617,11 +16956,11 @@
       </c>
       <c r="B64" s="36">
         <f>Resumen!L74</f>
-        <v>256465.31125000017</v>
+        <v>194923.05959600018</v>
       </c>
       <c r="C64" s="77">
         <f t="shared" si="0"/>
-        <v>256465.31125000017</v>
+        <v>194923.05959600018</v>
       </c>
       <c r="D64" s="77">
         <f t="shared" si="3"/>
@@ -16635,11 +16974,11 @@
       </c>
       <c r="B65" s="36">
         <f>Resumen!L75</f>
-        <v>256465.31125000017</v>
+        <v>194923.05959600018</v>
       </c>
       <c r="C65" s="77">
         <f t="shared" si="0"/>
-        <v>256465.31125000017</v>
+        <v>194923.05959600018</v>
       </c>
       <c r="D65" s="77">
         <f t="shared" si="3"/>
@@ -16653,11 +16992,11 @@
       </c>
       <c r="B66" s="36">
         <f>Resumen!L76</f>
-        <v>232432.61550000019</v>
+        <v>170890.36384600017</v>
       </c>
       <c r="C66" s="77">
         <f t="shared" si="0"/>
-        <v>232432.61550000019</v>
+        <v>170890.36384600017</v>
       </c>
       <c r="D66" s="77">
         <f t="shared" ref="D66" si="4">+C65*TasaPAsiva/12</f>
@@ -16687,24 +17026,24 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="75" t="s">
         <v>195</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -16719,7 +17058,7 @@
         <v>2281.83</v>
       </c>
       <c r="J5" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -16734,7 +17073,7 @@
         <v>2281.83</v>
       </c>
       <c r="J6" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -17309,7 +17648,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="76" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E66">
         <f>SUM(E5:E65)</f>
@@ -17327,10 +17666,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17343,301 +17682,635 @@
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F4" s="75" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="B5" s="77">
+        <v>0</v>
+      </c>
+      <c r="C5" s="77">
+        <f>K7*20</f>
+        <v>154</v>
+      </c>
+      <c r="D5" s="77">
+        <f>K6*40 + K6*8 + K6*16 + K6*13.44</f>
+        <v>795.30880000000002</v>
+      </c>
+      <c r="E5" s="77">
+        <f>K5*20 + K5*8 + K5*16</f>
+        <v>320.32</v>
+      </c>
+      <c r="F5" s="77">
+        <v>0</v>
+      </c>
       <c r="G5" s="77">
         <f t="shared" ref="G5:G64" si="0">SUM(B5:F5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1269.6288</v>
+      </c>
+      <c r="H5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J5" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5">
+        <v>7.28</v>
+      </c>
+      <c r="L5">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="B6" s="77">
+        <v>0</v>
+      </c>
+      <c r="C6" s="77">
+        <v>0</v>
+      </c>
+      <c r="D6" s="77">
+        <f>K6*22 + K6*80 + K6*16 + K6*19</f>
+        <v>1406.9899999999998</v>
+      </c>
+      <c r="E6" s="77">
+        <f>K5*22 + K5*80 + K5*8</f>
+        <v>800.8</v>
+      </c>
+      <c r="F6" s="77">
+        <v>0</v>
+      </c>
       <c r="G6" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2207.79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J6" t="s">
+        <v>276</v>
+      </c>
+      <c r="K6">
+        <v>10.27</v>
+      </c>
+      <c r="L6">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
+      <c r="B7" s="77">
+        <v>0</v>
+      </c>
+      <c r="C7" s="77">
+        <f>K7*10+K7*20</f>
+        <v>231</v>
+      </c>
+      <c r="D7" s="77">
+        <f>K6*4+K6*80+K6*75.4001</f>
+        <v>1637.0390269999998</v>
+      </c>
+      <c r="E7" s="77">
+        <f>K5*30+K5*24+K5*30</f>
+        <v>611.52</v>
+      </c>
+      <c r="F7" s="77">
+        <v>0</v>
+      </c>
       <c r="G7" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2479.5590269999998</v>
+      </c>
+      <c r="H7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7">
+        <v>7.7</v>
+      </c>
+      <c r="L7">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
+      <c r="B8" s="77">
+        <v>0</v>
+      </c>
+      <c r="C8" s="77">
+        <f>K7*20+K7*24</f>
+        <v>338.8</v>
+      </c>
+      <c r="D8" s="77">
+        <f>K6*20+K6*20+K6*20+K6*40+K6*10</f>
+        <v>1129.7</v>
+      </c>
+      <c r="E8" s="77">
+        <f>K5*10+K5*10+K5*12</f>
+        <v>232.95999999999998</v>
+      </c>
+      <c r="F8" s="77">
+        <v>0</v>
+      </c>
       <c r="G8" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1701.46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K8">
+        <v>5.99</v>
+      </c>
+      <c r="L8">
+        <v>958.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
+      <c r="B9" s="77">
+        <v>0</v>
+      </c>
+      <c r="C9" s="77">
+        <f>K7*56</f>
+        <v>431.2</v>
+      </c>
+      <c r="D9" s="77">
+        <f>K6*52+K6*19+K6*40</f>
+        <v>1139.9699999999998</v>
+      </c>
+      <c r="E9" s="77">
+        <f>K5*52+K5*20</f>
+        <v>524.16</v>
+      </c>
+      <c r="F9" s="77">
+        <v>0</v>
+      </c>
       <c r="G9" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2095.33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J9" t="s">
+        <v>279</v>
+      </c>
+      <c r="K9">
+        <v>9.42</v>
+      </c>
+      <c r="L9">
+        <v>1507.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="77">
+        <v>0</v>
+      </c>
+      <c r="C10" s="77">
+        <v>0</v>
+      </c>
+      <c r="D10" s="77">
+        <f>K6*40</f>
+        <v>410.79999999999995</v>
+      </c>
+      <c r="E10" s="77">
+        <f>K5*84</f>
+        <v>611.52</v>
+      </c>
+      <c r="F10" s="77">
+        <v>0</v>
+      </c>
       <c r="G10" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1022.3199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+      <c r="B11" s="77">
+        <v>0</v>
+      </c>
+      <c r="C11" s="77">
+        <v>0</v>
+      </c>
+      <c r="D11" s="77">
+        <f>K6*21+K6*18</f>
+        <v>400.53</v>
+      </c>
+      <c r="E11" s="77">
+        <f>K5*88+K5*28</f>
+        <v>844.48</v>
+      </c>
+      <c r="F11" s="77">
+        <v>0</v>
+      </c>
       <c r="G11" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1245.01</v>
+      </c>
+      <c r="H11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
+      <c r="B12" s="77">
+        <f>K8*8</f>
+        <v>47.92</v>
+      </c>
+      <c r="C12" s="77">
+        <f>K7*8.2</f>
+        <v>63.139999999999993</v>
+      </c>
+      <c r="D12" s="77">
+        <f>K6*33+K6*22+K6*5+K6*20+K6*5</f>
+        <v>872.94999999999993</v>
+      </c>
+      <c r="E12" s="77">
+        <f>K5*80+K5*20+K5*30</f>
+        <v>946.4</v>
+      </c>
+      <c r="F12" s="77">
+        <v>0</v>
+      </c>
       <c r="G12" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1930.4099999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
+      <c r="B13" s="77">
+        <f>K8*20+K8*14</f>
+        <v>203.66000000000003</v>
+      </c>
+      <c r="C13" s="77">
+        <f>K7*17</f>
+        <v>130.9</v>
+      </c>
+      <c r="D13" s="77">
+        <f>K6*15+K6*40+K6*20+K6*10+K6*20+K6*10+K6*20</f>
+        <v>1386.4499999999998</v>
+      </c>
+      <c r="E13" s="77">
+        <f>K5*40+K5*20+K5*10+K5*22</f>
+        <v>669.76</v>
+      </c>
+      <c r="F13" s="77">
+        <v>0</v>
+      </c>
       <c r="G13" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2390.7699999999995</v>
+      </c>
+      <c r="H13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="B14" s="77">
+        <f>K8*14+K8*20+K8*20</f>
+        <v>323.46000000000004</v>
+      </c>
+      <c r="C14" s="77">
+        <f>K7*8+K7*12</f>
+        <v>154</v>
+      </c>
+      <c r="D14" s="77">
+        <f>K6*14+K6*20+K6*20+K6*10+K6*34+K6*10</f>
+        <v>1109.1600000000001</v>
+      </c>
+      <c r="E14" s="77">
+        <f>K5*18+K5*16+K5*10+K5*34+K5*34+K5*12</f>
+        <v>902.72</v>
+      </c>
+      <c r="F14" s="77">
+        <v>0</v>
+      </c>
       <c r="G14" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2489.34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
+      <c r="B15" s="77">
+        <f>K8*24+K8*16+K8*10</f>
+        <v>299.5</v>
+      </c>
+      <c r="C15" s="77">
+        <v>0</v>
+      </c>
+      <c r="D15" s="77">
+        <f>K6*20+K6*14+K6*18</f>
+        <v>534.04</v>
+      </c>
+      <c r="E15" s="77">
+        <f>K5*46+K5*20+K5*40</f>
+        <v>771.68000000000006</v>
+      </c>
+      <c r="F15" s="77">
+        <v>0</v>
+      </c>
       <c r="G15" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1605.22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
+      <c r="B16" s="77">
+        <f>K8*14+K8*12+K8*10</f>
+        <v>215.64000000000001</v>
+      </c>
+      <c r="C16" s="77">
+        <f>K7*6</f>
+        <v>46.2</v>
+      </c>
+      <c r="D16" s="77">
+        <f>K6*11+K6*11+K6*1+K6*18+K6*20</f>
+        <v>626.47</v>
+      </c>
+      <c r="E16" s="77">
+        <f>K5*14+K5*30+K5*36</f>
+        <v>582.4</v>
+      </c>
+      <c r="F16" s="77">
+        <f>K9*20</f>
+        <v>188.4</v>
+      </c>
       <c r="G16" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1659.1100000000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="77">
+        <f>K8*26+K8*28+K8*10</f>
+        <v>383.36</v>
+      </c>
+      <c r="C17" s="77">
+        <f>K7*4</f>
+        <v>30.8</v>
+      </c>
+      <c r="D17" s="77">
+        <f>K6*16+K6*20+K6*10+K6*10+K6*10+K6*2+K6*2+K6*4</f>
+        <v>759.9799999999999</v>
+      </c>
+      <c r="E17" s="77">
+        <f>K5*16+K5*28+K5*10+K5*6+K5*6+K5*12+K5*4+K5*4</f>
+        <v>626.08000000000004</v>
+      </c>
+      <c r="F17" s="77">
+        <f>K9*4+K9*20</f>
+        <v>226.08</v>
+      </c>
       <c r="G17" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2026.2999999999997</v>
+      </c>
+      <c r="H17" t="s">
+        <v>283</v>
+      </c>
+      <c r="I17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
+      <c r="B18" s="77">
+        <f>K8*10+K8*7.2</f>
+        <v>103.02800000000001</v>
+      </c>
+      <c r="C18" s="77">
+        <v>0</v>
+      </c>
+      <c r="D18" s="77">
+        <f>K6*10+K6*40+K6*10+K6*12+K6*5</f>
+        <v>790.79000000000008</v>
+      </c>
+      <c r="E18" s="77">
+        <f>K5*18+K5*28+K5*6</f>
+        <v>378.56</v>
+      </c>
+      <c r="F18" s="77">
+        <v>0</v>
+      </c>
       <c r="G18" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1272.3780000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="B19" s="77">
+        <v>0</v>
+      </c>
+      <c r="C19" s="77">
+        <v>0</v>
+      </c>
+      <c r="D19" s="77">
+        <f>K6*40+K6*10+K6*10+K6*10</f>
+        <v>718.90000000000009</v>
+      </c>
+      <c r="E19" s="77">
+        <f>K5*36+K5*10+K5*20+K5*20</f>
+        <v>626.08000000000004</v>
+      </c>
+      <c r="F19" s="77">
+        <v>0</v>
+      </c>
       <c r="G19" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1344.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="B20" s="77">
+        <v>0</v>
+      </c>
+      <c r="C20" s="77">
+        <v>0</v>
+      </c>
+      <c r="D20" s="77">
+        <f>K6*3+K6*5+K6*40+K6*10+K6*12</f>
+        <v>718.89999999999986</v>
+      </c>
+      <c r="E20" s="77">
+        <f>K5*4+K5*20+K5*12+K5*12+K5*40+K5*12</f>
+        <v>728</v>
+      </c>
+      <c r="F20" s="77">
+        <v>0</v>
+      </c>
       <c r="G20" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1446.8999999999999</v>
+      </c>
+      <c r="H20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="77">
+        <v>0</v>
+      </c>
+      <c r="C21" s="77">
+        <v>0</v>
+      </c>
+      <c r="D21" s="77">
+        <f>K6*42+K6*10</f>
+        <v>534.04</v>
+      </c>
+      <c r="E21" s="77">
+        <f>K5*42</f>
+        <v>305.76</v>
+      </c>
+      <c r="F21" s="77">
+        <v>0</v>
+      </c>
       <c r="G21" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>839.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
+      <c r="B22" s="77">
+        <v>0</v>
+      </c>
+      <c r="C22" s="77">
+        <v>0</v>
+      </c>
+      <c r="D22" s="77">
+        <f>K6*8+K6*30+K6*10</f>
+        <v>492.96</v>
+      </c>
+      <c r="E22" s="77">
+        <f>K5*8+K5*30</f>
+        <v>276.64</v>
+      </c>
+      <c r="F22" s="77">
+        <v>0</v>
+      </c>
       <c r="G22" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>769.59999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
+      <c r="B23" s="77">
+        <v>0</v>
+      </c>
+      <c r="C23" s="77">
+        <v>0</v>
+      </c>
+      <c r="D23" s="77">
+        <f>K6*12+K6*18</f>
+        <v>308.09999999999997</v>
+      </c>
+      <c r="E23" s="77">
+        <f>K5*14</f>
+        <v>101.92</v>
+      </c>
+      <c r="F23" s="77">
+        <f>K9*60</f>
+        <v>565.20000000000005</v>
+      </c>
       <c r="G23" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>975.22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -17650,22 +18323,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
+      <c r="B25" s="96">
+        <f>SUM(B5:B24)</f>
+        <v>1576.568</v>
+      </c>
+      <c r="C25" s="96">
+        <f>SUM(C5:C24)</f>
+        <v>1580.0400000000002</v>
+      </c>
+      <c r="D25" s="96">
+        <f>SUM(D5:D24)</f>
+        <v>15773.077826999996</v>
+      </c>
+      <c r="E25" s="96">
+        <f>SUM(E5:E23)</f>
+        <v>10861.76</v>
+      </c>
+      <c r="F25" s="96">
+        <f>SUM(F5:F23)</f>
+        <v>979.68000000000006</v>
+      </c>
       <c r="G25" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30771.125826999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -17679,7 +18370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -17693,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -17707,7 +18398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -17721,7 +18412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -17735,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -17749,7 +18440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -18221,7 +18912,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="76" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B66" s="77"/>
       <c r="C66" s="77"/>
@@ -18230,7 +18921,7 @@
       <c r="F66" s="77"/>
       <c r="G66" s="78">
         <f>SUM(G5:G65)</f>
-        <v>0</v>
+        <v>61542.251653999992</v>
       </c>
     </row>
   </sheetData>

--- a/Listado Materiales Medidor Caudal LoRaWAN.xlsx
+++ b/Listado Materiales Medidor Caudal LoRaWAN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A3C2E-34F4-4791-A6FC-7603437F2A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03D5224-0EF1-4651-B592-A586D29E2502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="975" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="975" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armado Placa" sheetId="3" r:id="rId1"/>
@@ -15,19 +15,20 @@
     <sheet name="Inv.Materiales" sheetId="19" r:id="rId5"/>
     <sheet name="Inv.Materiales p Stock" sheetId="21" r:id="rId6"/>
     <sheet name="Consideraciones Costos" sheetId="8" r:id="rId7"/>
-    <sheet name="Costo de Producto" sheetId="20" r:id="rId8"/>
-    <sheet name="Costo de Producto (2)" sheetId="22" r:id="rId9"/>
-    <sheet name="Resumen" sheetId="11" r:id="rId10"/>
-    <sheet name="Otros Ingresos" sheetId="17" r:id="rId11"/>
-    <sheet name="Inversión Inicial" sheetId="12" r:id="rId12"/>
-    <sheet name="COSTOS FIJOS" sheetId="13" r:id="rId13"/>
-    <sheet name="COSTOS VARIABLES" sheetId="14" r:id="rId14"/>
-    <sheet name="Impuestos" sheetId="15" r:id="rId15"/>
-    <sheet name="Auxiliar" sheetId="16" r:id="rId16"/>
-    <sheet name="Consumo" sheetId="6" r:id="rId17"/>
+    <sheet name="Costo de Producto" sheetId="22" r:id="rId8"/>
+    <sheet name="Costo de Producto Con PM" sheetId="23" r:id="rId9"/>
+    <sheet name="Ejemplo para 10 unidades" sheetId="24" r:id="rId10"/>
+    <sheet name="Resumen" sheetId="11" r:id="rId11"/>
+    <sheet name="Otros Ingresos" sheetId="17" r:id="rId12"/>
+    <sheet name="Inversión Inicial" sheetId="12" r:id="rId13"/>
+    <sheet name="COSTOS FIJOS" sheetId="13" r:id="rId14"/>
+    <sheet name="COSTOS VARIABLES" sheetId="14" r:id="rId15"/>
+    <sheet name="Impuestos" sheetId="15" r:id="rId16"/>
+    <sheet name="Auxiliar" sheetId="16" r:id="rId17"/>
+    <sheet name="Consumo" sheetId="6" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="PUNITARIO">Resumen!$C$6</definedName>
@@ -35,15 +36,15 @@
     <definedName name="TasaAnual">Resumen!$F$10</definedName>
     <definedName name="TasaImpuestos">[1]Resumen!$H$5</definedName>
     <definedName name="TasaMensual">[1]Resumen!$F$11</definedName>
-    <definedName name="TasaPAsiva" localSheetId="15">[1]Resumen!$H$2</definedName>
-    <definedName name="TasaPAsiva" localSheetId="12">[1]Resumen!$H$2</definedName>
+    <definedName name="TasaPAsiva" localSheetId="16">[1]Resumen!$H$2</definedName>
     <definedName name="TasaPAsiva" localSheetId="13">[1]Resumen!$H$2</definedName>
     <definedName name="TasaPAsiva" localSheetId="14">[1]Resumen!$H$2</definedName>
+    <definedName name="TasaPAsiva" localSheetId="15">[1]Resumen!$H$2</definedName>
     <definedName name="TasaPAsiva" localSheetId="4">[1]Resumen!$H$2</definedName>
     <definedName name="TasaPAsiva" localSheetId="5">[1]Resumen!$H$2</definedName>
     <definedName name="TasaPAsiva" localSheetId="3">[1]Resumen!$H$2</definedName>
+    <definedName name="TasaPAsiva" localSheetId="12">[1]Resumen!$H$2</definedName>
     <definedName name="TasaPAsiva" localSheetId="11">[1]Resumen!$H$2</definedName>
-    <definedName name="TasaPAsiva" localSheetId="10">[1]Resumen!$H$2</definedName>
     <definedName name="TasaPAsiva">Resumen!$H$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="353">
   <si>
     <t>Materiales</t>
   </si>
@@ -913,9 +914,6 @@
     <t>Flete para 1 prototipo s/caño</t>
   </si>
   <si>
-    <t>Solo se envía gabinete, panel, antena y bateria. Del resto, lo que falta, se encargaron ellos. Se consideró minimo 20kg</t>
-  </si>
-  <si>
     <t>1.05 + 0.8% Seguro declarado</t>
   </si>
   <si>
@@ -1102,10 +1100,28 @@
     <t>Por kg aunque también es función del volumen. Precio minimo 15kg</t>
   </si>
   <si>
-    <t>Se calcula para 10 unidades para luego prorratear el costo de 1 unidad. Se vende de 10 en adelante tomando dicho costo de prod</t>
-  </si>
-  <si>
-    <t>Costo de unidad si se vende por menos de 10 unidades.</t>
+    <t>Costo de producto sin servicio</t>
+  </si>
+  <si>
+    <t>Costos MOD, Materiales y Gastos Generales de Producción</t>
+  </si>
+  <si>
+    <t>Costos MOI para venta de producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logística de Sector Ventas </t>
+  </si>
+  <si>
+    <t>Costo de unidad con servicio de PM.</t>
+  </si>
+  <si>
+    <t>Solo se envía gabinete, panel, antena y bateria. Del resto, lo que falta, se encargaron ellos. Se consideró minimo 15kg</t>
+  </si>
+  <si>
+    <t>Costo Unidad de Producto</t>
+  </si>
+  <si>
+    <t>Materiales para Montaje</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1459,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1565,6 +1581,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -5021,7 +5040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81403E1F-1309-4C4D-A832-214F126CDA7B}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5959,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E33" s="23">
         <v>26.33</v>
@@ -6112,6 +6131,393 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F39472-BE84-4D62-83CE-9C6B0888D866}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="57.21875" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" customWidth="1"/>
+    <col min="3" max="3" width="56.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f>'Armado Placa'!H34</f>
+        <v>87.043880999999985</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E12" si="0">B5*D5</f>
+        <v>870.43880999999988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>7.28*C6</f>
+        <v>72.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f>'Armado Gabinete'!H14</f>
+        <v>191.42441999999997</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1914.2441999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>9.42*C8</f>
+        <v>56.519999999999996</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>565.19999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f>Montaje!H24</f>
+        <v>370.2690750000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3702.6907500000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f>9.42*C10</f>
+        <v>75.36</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>753.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5.14</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f>5.14*C12</f>
+        <v>10.28</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13">
+        <f>1.05*15+('Armado Placa'!H33+'Armado Gabinete'!H14+Montaje!H24)</f>
+        <v>606.5381450000001</v>
+      </c>
+      <c r="E13">
+        <f>1.05*15+('Armado Placa'!H33*B13+'Armado Gabinete'!H14*B13+Montaje!H24*B13)</f>
+        <v>5923.6314500000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14">
+        <f>15.23*B14</f>
+        <v>365.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15">
+        <f>21.25*B15</f>
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16">
+        <v>257.14</v>
+      </c>
+      <c r="E16">
+        <f>B16*D16</f>
+        <v>514.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <f>(10.27 + 9.42)*C17</f>
+        <v>118.13999999999999</v>
+      </c>
+      <c r="E17">
+        <f>B17*D17</f>
+        <v>1181.3999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="94">
+        <f>E19/B10</f>
+        <v>1688.5705210000003</v>
+      </c>
+      <c r="E19" s="94">
+        <f>SUM(E5:E17)</f>
+        <v>16885.705210000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>7.28*C25</f>
+        <v>7.28</v>
+      </c>
+      <c r="E25">
+        <f>B25*D25</f>
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f>7.7*C26</f>
+        <v>15.4</v>
+      </c>
+      <c r="E26">
+        <f>D26</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="E27">
+        <f>B27*D27</f>
+        <v>457.08000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="94">
+        <f>E29/10</f>
+        <v>54.528000000000006</v>
+      </c>
+      <c r="E29" s="94">
+        <f>SUM(E25:E28)</f>
+        <v>545.28000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="94" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94">
+        <f>E19+E29</f>
+        <v>17430.985210000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7924651B-3C9C-497F-BE2B-544742E33E96}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6157,7 +6563,7 @@
       </c>
       <c r="B2" s="70">
         <f ca="1">TODAY()</f>
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="84"/>
@@ -10758,7 +11164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CB4394-59B4-44EF-8DFF-63942FA9C986}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -11866,7 +12272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CA01A4-4BB4-4C46-892B-7367137EAFEE}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -12519,7 +12925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2921650-2D1B-4BD0-94AC-C2379A0DD0E8}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -13798,7 +14204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379C0622-09DA-4E46-ACA8-08F7E1800B7A}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -13834,7 +14240,7 @@
         <v>200</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>201</v>
@@ -15324,7 +15730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733DA9F2-2F8D-40C4-98D1-2A1B01D8A8F8}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -15486,7 +15892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54832A1-B2EE-4B30-94B1-F64E8B274F31}">
   <dimension ref="A1:J64"/>
   <sheetViews>
@@ -17354,7 +17760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0847551-C70A-4334-84E4-ED26F5DE6C16}">
   <dimension ref="A3:M28"/>
   <sheetViews>
@@ -17993,7 +18399,7 @@
         <v>103</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -18049,7 +18455,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="16">
         <v>4</v>
@@ -18215,7 +18621,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18653,7 +19059,7 @@
     </row>
     <row r="16" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>245</v>
@@ -18962,7 +19368,7 @@
   </sheetPr>
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -18984,7 +19390,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -20241,7 +20647,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20263,12 +20669,12 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="G2" s="68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="95" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -20276,7 +20682,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5">
         <f>(11.42+'Armado Placa'!H34-'Armado Placa'!H33)*5</f>
@@ -20288,7 +20694,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6">
         <f>('Armado Gabinete'!H14)*5</f>
@@ -20340,7 +20746,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -20353,7 +20759,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14">
         <f>K8*10</f>
@@ -20365,14 +20771,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15">
         <f>9.42*6</f>
         <v>56.519999999999996</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -20380,16 +20786,16 @@
         <v>282</v>
       </c>
       <c r="B16">
-        <f>21.02+0.08*(B5/5+B6/5)</f>
-        <v>41.883492079999996</v>
+        <f>15.75+0.08*(B5/5+B6/5)</f>
+        <v>36.61349208</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B17">
         <f>10.27*8</f>
@@ -20402,7 +20808,7 @@
       </c>
       <c r="B20" s="97">
         <f>SUM(B14:B17)</f>
-        <v>283.26349207999999</v>
+        <v>277.99349208000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -20754,37 +21160,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="E2" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3">
         <f>'Armado Placa'!H34*15</f>
         <v>1305.6582149999997</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4">
         <f>'Armado Placa'!H34*2</f>
         <v>174.08776199999997</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -20792,14 +21198,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5">
         <f>('Armado Gabinete'!H14)*15</f>
         <v>2871.3662999999997</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -20807,14 +21213,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6">
         <f>('Armado Gabinete'!H14)*2</f>
         <v>382.84883999999994</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -20822,14 +21228,14 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B7">
         <f>Montaje!H24*15</f>
         <v>5554.0361250000014</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -20858,7 +21264,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" s="10">
         <f>SUM(B3:B7)</f>
@@ -21305,7 +21711,7 @@
         <v>149</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -21313,13 +21719,13 @@
         <v>147</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -21330,26 +21736,26 @@
         <v>5.14</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5">
         <v>257.14</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6">
         <v>15.23</v>
@@ -21366,7 +21772,7 @@
         <v>21.25</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
         <v>153</v>
@@ -21388,7 +21794,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" s="91" t="s">
         <v>258</v>
@@ -21416,13 +21822,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="91">
         <v>9.42</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="93" t="s">
         <v>153</v>
@@ -21430,12 +21836,12 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="98"/>
       <c r="C15" s="98"/>
@@ -21645,402 +22051,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7191217-A10D-4FD9-BCFF-ABEE5B5FFC0B}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="57.21875" customWidth="1"/>
-    <col min="2" max="2" width="55.77734375" customWidth="1"/>
-    <col min="3" max="3" width="56.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <f>'Armado Placa'!H34</f>
-        <v>87.043880999999985</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E12" si="0">B5*D5</f>
-        <v>870.43880999999988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <f>7.28*C6</f>
-        <v>72.8</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <f>'Armado Gabinete'!H14</f>
-        <v>191.42441999999997</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1914.2441999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <f>9.42*C8</f>
-        <v>56.519999999999996</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>565.19999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <f>Montaje!H24</f>
-        <v>370.2690750000001</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>3702.6907500000011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <f>9.42*C10</f>
-        <v>75.36</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>753.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5.14</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <f>5.14*C12</f>
-        <v>10.28</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>102.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D13">
-        <f>1.05*15+('Armado Placa'!H33+'Armado Gabinete'!H14+Montaje!H24)</f>
-        <v>606.5381450000001</v>
-      </c>
-      <c r="E13">
-        <f>1.05*15+('Armado Placa'!H33*B13+'Armado Gabinete'!H14*B13+Montaje!H24*B13)</f>
-        <v>5923.6314500000008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14">
-        <f>15.23*B14</f>
-        <v>365.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15">
-        <f>21.25*B15</f>
-        <v>212.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>306</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16">
-        <v>257.14</v>
-      </c>
-      <c r="E16">
-        <f>B16*D16</f>
-        <v>514.28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <f>(10.27 + 9.42)*C17</f>
-        <v>118.13999999999999</v>
-      </c>
-      <c r="E17">
-        <f>B17*D17</f>
-        <v>1181.3999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="D19" s="94">
-        <f>E19/B10</f>
-        <v>1688.5705210000003</v>
-      </c>
-      <c r="E19" s="94">
-        <f>SUM(E5:E17)</f>
-        <v>16885.705210000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>307</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <f>7.28*C25</f>
-        <v>7.28</v>
-      </c>
-      <c r="E25">
-        <f>B25*D25</f>
-        <v>72.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>308</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <f>7.7*C26</f>
-        <v>15.4</v>
-      </c>
-      <c r="E26">
-        <f>D26</f>
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>311</v>
-      </c>
-      <c r="B27">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>38.090000000000003</v>
-      </c>
-      <c r="E27">
-        <f>B27*D27</f>
-        <v>457.08000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="94" t="s">
-        <v>310</v>
-      </c>
-      <c r="D29" s="94">
-        <f>E29/10</f>
-        <v>54.528000000000006</v>
-      </c>
-      <c r="E29" s="94">
-        <f>SUM(E25:E28)</f>
-        <v>545.28000000000009</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="94" t="s">
-        <v>324</v>
-      </c>
-      <c r="D31" s="94">
-        <f>D19+D29</f>
-        <v>1743.0985210000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D9 E26" formula="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED492131-4266-45BF-AD14-8E88503E1B8A}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22052,32 +22071,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -22093,7 +22112,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -22112,7 +22131,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -22128,7 +22147,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -22147,7 +22166,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -22163,7 +22182,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -22182,7 +22201,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -22200,7 +22219,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -22225,7 +22244,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D13">
         <f>1.05*15+('Armado Placa'!H33+'Armado Gabinete'!H14+Montaje!H24)</f>
@@ -22237,17 +22256,321 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="91"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>7.7*C17</f>
+        <v>15.4</v>
+      </c>
+      <c r="E17">
+        <f>D17</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="94" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="94">
+        <f>E19/B10</f>
+        <v>1490.775521</v>
+      </c>
+      <c r="E19" s="94">
+        <f>SUM(E5:E17)</f>
+        <v>1490.775521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5B122B-92AC-4C93-BFFA-DDF10DA5D1EE}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="57.21875" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" customWidth="1"/>
+    <col min="3" max="3" width="56.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>'Armado Placa'!H34</f>
+        <v>87.043880999999985</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E12" si="0">B5*D5</f>
+        <v>87.043880999999985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>7.28*C6</f>
+        <v>72.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>'Armado Gabinete'!H14</f>
+        <v>191.42441999999997</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>191.42441999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>9.42*C8</f>
+        <v>56.519999999999996</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>56.519999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>Montaje!H24</f>
+        <v>370.2690750000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>370.2690750000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f>9.42*C10</f>
+        <v>75.36</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5.14</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f>5.14*C12</f>
+        <v>10.28</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13">
+        <f>1.05*15+('Armado Placa'!H33+'Armado Gabinete'!H14+Montaje!H24)</f>
+        <v>606.5381450000001</v>
+      </c>
+      <c r="E13">
+        <f>1.05*15+('Armado Placa'!H33*B13+'Armado Gabinete'!H14*B13+Montaje!H24*B13)</f>
+        <v>606.5381450000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E14">
         <f>15.23*B14</f>
@@ -22262,7 +22585,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E15">
         <f>21.25*B15</f>
@@ -22271,13 +22594,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D16">
         <v>257.14</v>
@@ -22289,7 +22612,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -22308,7 +22631,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C19" s="94" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D19" s="94">
         <f>E19/B10</f>
@@ -22321,24 +22644,24 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -22357,10 +22680,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -22376,7 +22699,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -22391,12 +22714,9 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C29" s="94" t="s">
-        <v>310</v>
-      </c>
-      <c r="D29" s="94">
-        <f>E29/10</f>
-        <v>9.886000000000001</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="D29" s="94"/>
       <c r="E29" s="94">
         <f>SUM(E25:E28)</f>
         <v>98.860000000000014</v>
@@ -22404,11 +22724,12 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="94" t="s">
-        <v>324</v>
-      </c>
-      <c r="D31" s="94">
-        <f>D19+D29</f>
-        <v>2199.8515209999996</v>
+        <v>323</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94">
+        <f>E19+E29</f>
+        <v>2288.8255209999998</v>
       </c>
     </row>
   </sheetData>
